--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>AQN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>813800</v>
+        <v>671900</v>
       </c>
       <c r="E8" s="3">
-        <v>631600</v>
+        <v>808200</v>
       </c>
       <c r="F8" s="3">
-        <v>482400</v>
+        <v>627200</v>
       </c>
       <c r="G8" s="3">
+        <v>479100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>437700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>592200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>558700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>468900</v>
+      </c>
+      <c r="L8" s="3">
         <v>440700</v>
       </c>
-      <c r="H8" s="3">
-        <v>596300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>562500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>468900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>440700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>557400</v>
+        <v>413300</v>
       </c>
       <c r="E9" s="3">
-        <v>357000</v>
+        <v>553600</v>
       </c>
       <c r="F9" s="3">
-        <v>252500</v>
+        <v>354600</v>
       </c>
       <c r="G9" s="3">
-        <v>243100</v>
+        <v>250700</v>
       </c>
       <c r="H9" s="3">
-        <v>327100</v>
+        <v>241500</v>
       </c>
       <c r="I9" s="3">
-        <v>307700</v>
+        <v>324800</v>
       </c>
       <c r="J9" s="3">
+        <v>305600</v>
+      </c>
+      <c r="K9" s="3">
         <v>258400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>251800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>256400</v>
+        <v>258700</v>
       </c>
       <c r="E10" s="3">
-        <v>274500</v>
+        <v>254600</v>
       </c>
       <c r="F10" s="3">
-        <v>229900</v>
+        <v>272700</v>
       </c>
       <c r="G10" s="3">
-        <v>197600</v>
+        <v>228300</v>
       </c>
       <c r="H10" s="3">
-        <v>269200</v>
+        <v>196200</v>
       </c>
       <c r="I10" s="3">
-        <v>254900</v>
+        <v>267400</v>
       </c>
       <c r="J10" s="3">
+        <v>253100</v>
+      </c>
+      <c r="K10" s="3">
         <v>210500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
-        <v>19000</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="I14" s="3">
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K14" s="3">
         <v>3600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,28 +931,31 @@
         <v>125000</v>
       </c>
       <c r="E15" s="3">
-        <v>112900</v>
+        <v>124100</v>
       </c>
       <c r="F15" s="3">
-        <v>91700</v>
+        <v>112200</v>
       </c>
       <c r="G15" s="3">
-        <v>97100</v>
+        <v>91100</v>
       </c>
       <c r="H15" s="3">
-        <v>101200</v>
+        <v>96400</v>
       </c>
       <c r="I15" s="3">
-        <v>99600</v>
+        <v>100500</v>
       </c>
       <c r="J15" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K15" s="3">
         <v>84400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>706100</v>
+        <v>564300</v>
       </c>
       <c r="E17" s="3">
-        <v>500600</v>
+        <v>701300</v>
       </c>
       <c r="F17" s="3">
+        <v>497200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>361900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>381400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>439300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>436000</v>
+      </c>
+      <c r="K17" s="3">
         <v>364400</v>
       </c>
-      <c r="G17" s="3">
-        <v>384000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>442400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>439000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>364400</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>107700</v>
+        <v>107600</v>
       </c>
       <c r="E18" s="3">
-        <v>130900</v>
+        <v>106900</v>
       </c>
       <c r="F18" s="3">
-        <v>117900</v>
+        <v>130000</v>
       </c>
       <c r="G18" s="3">
-        <v>56700</v>
+        <v>117100</v>
       </c>
       <c r="H18" s="3">
-        <v>153900</v>
+        <v>56300</v>
       </c>
       <c r="I18" s="3">
-        <v>123500</v>
+        <v>152800</v>
       </c>
       <c r="J18" s="3">
+        <v>122700</v>
+      </c>
+      <c r="K18" s="3">
         <v>104500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-76100</v>
+        <v>69300</v>
       </c>
       <c r="E20" s="3">
-        <v>617200</v>
+        <v>-75600</v>
       </c>
       <c r="F20" s="3">
-        <v>-24100</v>
+        <v>613000</v>
       </c>
       <c r="G20" s="3">
-        <v>411100</v>
+        <v>-23900</v>
       </c>
       <c r="H20" s="3">
-        <v>-214000</v>
+        <v>408300</v>
       </c>
       <c r="I20" s="3">
-        <v>148600</v>
+        <v>-212500</v>
       </c>
       <c r="J20" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K20" s="3">
         <v>125100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>156500</v>
+        <v>302000</v>
       </c>
       <c r="E21" s="3">
-        <v>861000</v>
+        <v>155500</v>
       </c>
       <c r="F21" s="3">
-        <v>185600</v>
+        <v>855100</v>
       </c>
       <c r="G21" s="3">
-        <v>564800</v>
+        <v>184300</v>
       </c>
       <c r="H21" s="3">
-        <v>41100</v>
+        <v>561000</v>
       </c>
       <c r="I21" s="3">
-        <v>371800</v>
+        <v>40800</v>
       </c>
       <c r="J21" s="3">
+        <v>369200</v>
+      </c>
+      <c r="K21" s="3">
         <v>314000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>63600</v>
+        <v>74100</v>
       </c>
       <c r="E22" s="3">
-        <v>58100</v>
+        <v>63200</v>
       </c>
       <c r="F22" s="3">
-        <v>58400</v>
+        <v>57700</v>
       </c>
       <c r="G22" s="3">
-        <v>57500</v>
+        <v>58000</v>
       </c>
       <c r="H22" s="3">
-        <v>59300</v>
+        <v>57100</v>
       </c>
       <c r="I22" s="3">
-        <v>60700</v>
+        <v>58900</v>
       </c>
       <c r="J22" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K22" s="3">
         <v>58600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32000</v>
+        <v>102800</v>
       </c>
       <c r="E23" s="3">
-        <v>690000</v>
+        <v>-31800</v>
       </c>
       <c r="F23" s="3">
-        <v>35400</v>
+        <v>685300</v>
       </c>
       <c r="G23" s="3">
-        <v>410300</v>
+        <v>35200</v>
       </c>
       <c r="H23" s="3">
-        <v>-119400</v>
+        <v>407500</v>
       </c>
       <c r="I23" s="3">
-        <v>211400</v>
+        <v>-118600</v>
       </c>
       <c r="J23" s="3">
+        <v>209900</v>
+      </c>
+      <c r="K23" s="3">
         <v>171000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>215700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-27800</v>
+        <v>-5300</v>
       </c>
       <c r="E24" s="3">
-        <v>65500</v>
+        <v>-27600</v>
       </c>
       <c r="F24" s="3">
-        <v>-25300</v>
+        <v>65100</v>
       </c>
       <c r="G24" s="3">
-        <v>60200</v>
+        <v>-25100</v>
       </c>
       <c r="H24" s="3">
-        <v>-17600</v>
+        <v>59800</v>
       </c>
       <c r="I24" s="3">
-        <v>16000</v>
+        <v>-17500</v>
       </c>
       <c r="J24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K24" s="3">
         <v>28200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
-        <v>624500</v>
-      </c>
       <c r="F26" s="3">
-        <v>60700</v>
+        <v>620200</v>
       </c>
       <c r="G26" s="3">
-        <v>350100</v>
+        <v>60300</v>
       </c>
       <c r="H26" s="3">
-        <v>-101800</v>
+        <v>347700</v>
       </c>
       <c r="I26" s="3">
-        <v>195400</v>
+        <v>-101100</v>
       </c>
       <c r="J26" s="3">
+        <v>194000</v>
+      </c>
+      <c r="K26" s="3">
         <v>142900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15000</v>
+        <v>128600</v>
       </c>
       <c r="E27" s="3">
-        <v>643900</v>
+        <v>14900</v>
       </c>
       <c r="F27" s="3">
-        <v>68900</v>
+        <v>639500</v>
       </c>
       <c r="G27" s="3">
-        <v>364500</v>
+        <v>68500</v>
       </c>
       <c r="H27" s="3">
-        <v>-84600</v>
+        <v>362000</v>
       </c>
       <c r="I27" s="3">
-        <v>218000</v>
+        <v>-84000</v>
       </c>
       <c r="J27" s="3">
+        <v>216500</v>
+      </c>
+      <c r="K27" s="3">
         <v>145700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1290,17 +1351,20 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>76100</v>
+        <v>-69300</v>
       </c>
       <c r="E32" s="3">
-        <v>-617200</v>
+        <v>75600</v>
       </c>
       <c r="F32" s="3">
-        <v>24100</v>
+        <v>-613000</v>
       </c>
       <c r="G32" s="3">
-        <v>-411100</v>
+        <v>23900</v>
       </c>
       <c r="H32" s="3">
-        <v>214000</v>
+        <v>-408300</v>
       </c>
       <c r="I32" s="3">
-        <v>-148600</v>
+        <v>212500</v>
       </c>
       <c r="J32" s="3">
+        <v>-147600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-125100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-194900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15000</v>
+        <v>128600</v>
       </c>
       <c r="E33" s="3">
-        <v>643900</v>
+        <v>14900</v>
       </c>
       <c r="F33" s="3">
-        <v>68900</v>
+        <v>639500</v>
       </c>
       <c r="G33" s="3">
-        <v>364500</v>
+        <v>68500</v>
       </c>
       <c r="H33" s="3">
-        <v>-84600</v>
+        <v>362000</v>
       </c>
       <c r="I33" s="3">
-        <v>218000</v>
+        <v>-84000</v>
       </c>
       <c r="J33" s="3">
+        <v>216500</v>
+      </c>
+      <c r="K33" s="3">
         <v>145700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15000</v>
+        <v>128600</v>
       </c>
       <c r="E35" s="3">
-        <v>643900</v>
+        <v>14900</v>
       </c>
       <c r="F35" s="3">
-        <v>68900</v>
+        <v>639500</v>
       </c>
       <c r="G35" s="3">
-        <v>364500</v>
+        <v>68500</v>
       </c>
       <c r="H35" s="3">
-        <v>-84600</v>
+        <v>362000</v>
       </c>
       <c r="I35" s="3">
-        <v>218000</v>
+        <v>-84000</v>
       </c>
       <c r="J35" s="3">
+        <v>216500</v>
+      </c>
+      <c r="K35" s="3">
         <v>145700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>182700</v>
+        <v>259200</v>
       </c>
       <c r="E41" s="3">
-        <v>130300</v>
+        <v>181500</v>
       </c>
       <c r="F41" s="3">
-        <v>408100</v>
+        <v>129400</v>
       </c>
       <c r="G41" s="3">
-        <v>77400</v>
+        <v>405300</v>
       </c>
       <c r="H41" s="3">
-        <v>253200</v>
+        <v>76800</v>
       </c>
       <c r="I41" s="3">
-        <v>80100</v>
+        <v>251500</v>
       </c>
       <c r="J41" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K41" s="3">
         <v>146800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,211 +1681,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>380700</v>
+        <v>326300</v>
       </c>
       <c r="E43" s="3">
-        <v>300600</v>
+        <v>378100</v>
       </c>
       <c r="F43" s="3">
-        <v>200600</v>
+        <v>298500</v>
       </c>
       <c r="G43" s="3">
-        <v>192300</v>
+        <v>199200</v>
       </c>
       <c r="H43" s="3">
-        <v>236300</v>
+        <v>190900</v>
       </c>
       <c r="I43" s="3">
-        <v>229400</v>
+        <v>234700</v>
       </c>
       <c r="J43" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K43" s="3">
         <v>182100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>137500</v>
+        <v>138200</v>
       </c>
       <c r="E44" s="3">
-        <v>133500</v>
+        <v>136600</v>
       </c>
       <c r="F44" s="3">
-        <v>104700</v>
+        <v>132600</v>
       </c>
       <c r="G44" s="3">
-        <v>104200</v>
+        <v>104000</v>
       </c>
       <c r="H44" s="3">
-        <v>87400</v>
+        <v>103500</v>
       </c>
       <c r="I44" s="3">
-        <v>77300</v>
+        <v>86800</v>
       </c>
       <c r="J44" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K44" s="3">
         <v>75400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>330700</v>
+        <v>348100</v>
       </c>
       <c r="E45" s="3">
-        <v>327000</v>
+        <v>328400</v>
       </c>
       <c r="F45" s="3">
-        <v>261600</v>
+        <v>324700</v>
       </c>
       <c r="G45" s="3">
-        <v>224400</v>
+        <v>259800</v>
       </c>
       <c r="H45" s="3">
-        <v>245500</v>
+        <v>222900</v>
       </c>
       <c r="I45" s="3">
-        <v>271300</v>
+        <v>243800</v>
       </c>
       <c r="J45" s="3">
+        <v>269500</v>
+      </c>
+      <c r="K45" s="3">
         <v>232500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>235400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1031600</v>
+        <v>1071800</v>
       </c>
       <c r="E46" s="3">
-        <v>891400</v>
+        <v>1024600</v>
       </c>
       <c r="F46" s="3">
-        <v>975000</v>
+        <v>885200</v>
       </c>
       <c r="G46" s="3">
-        <v>598300</v>
+        <v>968300</v>
       </c>
       <c r="H46" s="3">
-        <v>822400</v>
+        <v>594100</v>
       </c>
       <c r="I46" s="3">
-        <v>658200</v>
+        <v>816800</v>
       </c>
       <c r="J46" s="3">
+        <v>653700</v>
+      </c>
+      <c r="K46" s="3">
         <v>636800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>597900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2906300</v>
+        <v>2843300</v>
       </c>
       <c r="E47" s="3">
-        <v>2631900</v>
+        <v>2886300</v>
       </c>
       <c r="F47" s="3">
-        <v>2265400</v>
+        <v>2613900</v>
       </c>
       <c r="G47" s="3">
-        <v>2110400</v>
+        <v>2249800</v>
       </c>
       <c r="H47" s="3">
-        <v>1662000</v>
+        <v>2095900</v>
       </c>
       <c r="I47" s="3">
-        <v>1816300</v>
+        <v>1650600</v>
       </c>
       <c r="J47" s="3">
+        <v>1803800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1764600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12535500</v>
+        <v>13891100</v>
       </c>
       <c r="E48" s="3">
-        <v>10571000</v>
+        <v>12449500</v>
       </c>
       <c r="F48" s="3">
-        <v>9340400</v>
+        <v>10498500</v>
       </c>
       <c r="G48" s="3">
-        <v>9161400</v>
+        <v>9276300</v>
       </c>
       <c r="H48" s="3">
-        <v>8988600</v>
+        <v>9098600</v>
       </c>
       <c r="I48" s="3">
-        <v>9275300</v>
+        <v>8927000</v>
       </c>
       <c r="J48" s="3">
+        <v>9211700</v>
+      </c>
+      <c r="K48" s="3">
         <v>8837100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1699300</v>
+        <v>1684600</v>
       </c>
       <c r="E49" s="3">
-        <v>1697300</v>
+        <v>1687700</v>
       </c>
       <c r="F49" s="3">
-        <v>1388200</v>
+        <v>1685600</v>
       </c>
       <c r="G49" s="3">
-        <v>1380700</v>
+        <v>1378700</v>
       </c>
       <c r="H49" s="3">
-        <v>1377900</v>
+        <v>1371300</v>
       </c>
       <c r="I49" s="3">
-        <v>1384300</v>
+        <v>1368400</v>
       </c>
       <c r="J49" s="3">
+        <v>1374800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1286400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1295400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1433300</v>
+        <v>1467800</v>
       </c>
       <c r="E52" s="3">
-        <v>1169500</v>
+        <v>1423500</v>
       </c>
       <c r="F52" s="3">
-        <v>1088600</v>
+        <v>1161400</v>
       </c>
       <c r="G52" s="3">
-        <v>1099000</v>
+        <v>1081200</v>
       </c>
       <c r="H52" s="3">
-        <v>1130200</v>
+        <v>1091400</v>
       </c>
       <c r="I52" s="3">
-        <v>860900</v>
+        <v>1122400</v>
       </c>
       <c r="J52" s="3">
+        <v>855000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1094900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19606000</v>
+        <v>20958700</v>
       </c>
       <c r="E54" s="3">
-        <v>16961000</v>
+        <v>19471500</v>
       </c>
       <c r="F54" s="3">
-        <v>15057600</v>
+        <v>16844600</v>
       </c>
       <c r="G54" s="3">
-        <v>14349800</v>
+        <v>14954300</v>
       </c>
       <c r="H54" s="3">
-        <v>13981100</v>
+        <v>14251300</v>
       </c>
       <c r="I54" s="3">
-        <v>13995100</v>
+        <v>13885200</v>
       </c>
       <c r="J54" s="3">
+        <v>13899000</v>
+      </c>
+      <c r="K54" s="3">
         <v>13619800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12870000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>191400</v>
+        <v>213300</v>
       </c>
       <c r="E57" s="3">
-        <v>246500</v>
+        <v>190100</v>
       </c>
       <c r="F57" s="3">
-        <v>186400</v>
+        <v>244800</v>
       </c>
       <c r="G57" s="3">
-        <v>119300</v>
+        <v>185100</v>
       </c>
       <c r="H57" s="3">
-        <v>92100</v>
+        <v>118400</v>
       </c>
       <c r="I57" s="3">
-        <v>192800</v>
+        <v>91500</v>
       </c>
       <c r="J57" s="3">
+        <v>191500</v>
+      </c>
+      <c r="K57" s="3">
         <v>97600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>796300</v>
+        <v>658600</v>
       </c>
       <c r="E58" s="3">
-        <v>179400</v>
+        <v>790900</v>
       </c>
       <c r="F58" s="3">
-        <v>8900</v>
+        <v>178200</v>
       </c>
       <c r="G58" s="3">
-        <v>284500</v>
+        <v>8800</v>
       </c>
       <c r="H58" s="3">
-        <v>206500</v>
+        <v>282600</v>
       </c>
       <c r="I58" s="3">
-        <v>288600</v>
+        <v>205100</v>
       </c>
       <c r="J58" s="3">
+        <v>286600</v>
+      </c>
+      <c r="K58" s="3">
         <v>270100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>813500</v>
+        <v>858800</v>
       </c>
       <c r="E59" s="3">
-        <v>799200</v>
+        <v>807900</v>
       </c>
       <c r="F59" s="3">
-        <v>619000</v>
+        <v>793700</v>
       </c>
       <c r="G59" s="3">
-        <v>556900</v>
+        <v>614800</v>
       </c>
       <c r="H59" s="3">
-        <v>608900</v>
+        <v>553000</v>
       </c>
       <c r="I59" s="3">
-        <v>637100</v>
+        <v>604700</v>
       </c>
       <c r="J59" s="3">
+        <v>632700</v>
+      </c>
+      <c r="K59" s="3">
         <v>502400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1801300</v>
+        <v>1730700</v>
       </c>
       <c r="E60" s="3">
-        <v>1225100</v>
+        <v>1788900</v>
       </c>
       <c r="F60" s="3">
-        <v>814300</v>
+        <v>1216700</v>
       </c>
       <c r="G60" s="3">
-        <v>960600</v>
+        <v>808700</v>
       </c>
       <c r="H60" s="3">
-        <v>907500</v>
+        <v>954000</v>
       </c>
       <c r="I60" s="3">
-        <v>1118500</v>
+        <v>901300</v>
       </c>
       <c r="J60" s="3">
+        <v>1110800</v>
+      </c>
+      <c r="K60" s="3">
         <v>870100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>582600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7352500</v>
+        <v>7777000</v>
       </c>
       <c r="E61" s="3">
-        <v>5641600</v>
+        <v>7302100</v>
       </c>
       <c r="F61" s="3">
-        <v>5092900</v>
+        <v>5602900</v>
       </c>
       <c r="G61" s="3">
-        <v>5044400</v>
+        <v>5058000</v>
       </c>
       <c r="H61" s="3">
-        <v>5186500</v>
+        <v>5009800</v>
       </c>
       <c r="I61" s="3">
-        <v>4754400</v>
+        <v>5150900</v>
       </c>
       <c r="J61" s="3">
+        <v>4721800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5214600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4839900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2397500</v>
+        <v>2569300</v>
       </c>
       <c r="E62" s="3">
-        <v>2412300</v>
+        <v>2381100</v>
       </c>
       <c r="F62" s="3">
-        <v>2047900</v>
+        <v>2395800</v>
       </c>
       <c r="G62" s="3">
-        <v>2117500</v>
+        <v>2033800</v>
       </c>
       <c r="H62" s="3">
-        <v>2071300</v>
+        <v>2102900</v>
       </c>
       <c r="I62" s="3">
-        <v>2044700</v>
+        <v>2057100</v>
       </c>
       <c r="J62" s="3">
+        <v>2030700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2015400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1989000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12839000</v>
+        <v>14367700</v>
       </c>
       <c r="E66" s="3">
-        <v>10286900</v>
+        <v>12750900</v>
       </c>
       <c r="F66" s="3">
-        <v>8980700</v>
+        <v>10216300</v>
       </c>
       <c r="G66" s="3">
-        <v>9168000</v>
+        <v>8919100</v>
       </c>
       <c r="H66" s="3">
-        <v>9234600</v>
+        <v>9105100</v>
       </c>
       <c r="I66" s="3">
-        <v>9024900</v>
+        <v>9171200</v>
       </c>
       <c r="J66" s="3">
+        <v>8963000</v>
+      </c>
+      <c r="K66" s="3">
         <v>9245200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8575900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,37 +2491,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="E70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="F70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="G70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="H70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="I70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="J70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="K70" s="3">
         <v>236400</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>236400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51700</v>
+        <v>-262100</v>
       </c>
       <c r="E72" s="3">
-        <v>58700</v>
+        <v>-51400</v>
       </c>
       <c r="F72" s="3">
-        <v>-465000</v>
+        <v>58300</v>
       </c>
       <c r="G72" s="3">
-        <v>-414800</v>
+        <v>-461800</v>
       </c>
       <c r="H72" s="3">
-        <v>-668600</v>
+        <v>-412000</v>
       </c>
       <c r="I72" s="3">
-        <v>-470900</v>
+        <v>-664000</v>
       </c>
       <c r="J72" s="3">
+        <v>-467600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-593700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-640500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6530600</v>
+        <v>6356200</v>
       </c>
       <c r="E76" s="3">
-        <v>6437700</v>
+        <v>6485800</v>
       </c>
       <c r="F76" s="3">
-        <v>5840600</v>
+        <v>6393600</v>
       </c>
       <c r="G76" s="3">
-        <v>4945400</v>
+        <v>5800500</v>
       </c>
       <c r="H76" s="3">
-        <v>4510200</v>
+        <v>4911500</v>
       </c>
       <c r="I76" s="3">
-        <v>4733800</v>
+        <v>4479200</v>
       </c>
       <c r="J76" s="3">
+        <v>4701300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4138200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4057800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15000</v>
+        <v>128600</v>
       </c>
       <c r="E81" s="3">
-        <v>643900</v>
+        <v>14900</v>
       </c>
       <c r="F81" s="3">
-        <v>68900</v>
+        <v>639500</v>
       </c>
       <c r="G81" s="3">
-        <v>364500</v>
+        <v>68500</v>
       </c>
       <c r="H81" s="3">
-        <v>-84600</v>
+        <v>362000</v>
       </c>
       <c r="I81" s="3">
-        <v>218000</v>
+        <v>-84000</v>
       </c>
       <c r="J81" s="3">
+        <v>216500</v>
+      </c>
+      <c r="K81" s="3">
         <v>145700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2643,28 +2842,31 @@
         <v>125000</v>
       </c>
       <c r="E83" s="3">
-        <v>112900</v>
+        <v>124100</v>
       </c>
       <c r="F83" s="3">
-        <v>91700</v>
+        <v>112200</v>
       </c>
       <c r="G83" s="3">
-        <v>97100</v>
+        <v>91100</v>
       </c>
       <c r="H83" s="3">
-        <v>101200</v>
+        <v>96400</v>
       </c>
       <c r="I83" s="3">
-        <v>99600</v>
+        <v>100500</v>
       </c>
       <c r="J83" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K83" s="3">
         <v>84400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-312300</v>
+        <v>131600</v>
       </c>
       <c r="E89" s="3">
-        <v>223200</v>
+        <v>-310200</v>
       </c>
       <c r="F89" s="3">
-        <v>155700</v>
+        <v>221600</v>
       </c>
       <c r="G89" s="3">
-        <v>183300</v>
+        <v>154700</v>
       </c>
       <c r="H89" s="3">
-        <v>85800</v>
+        <v>182100</v>
       </c>
       <c r="I89" s="3">
-        <v>214800</v>
+        <v>85200</v>
       </c>
       <c r="J89" s="3">
+        <v>213300</v>
+      </c>
+      <c r="K89" s="3">
         <v>241200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-378900</v>
+        <v>-519400</v>
       </c>
       <c r="E91" s="3">
-        <v>-334800</v>
+        <v>-376300</v>
       </c>
       <c r="F91" s="3">
-        <v>-234300</v>
+        <v>-332500</v>
       </c>
       <c r="G91" s="3">
-        <v>-239100</v>
+        <v>-232700</v>
       </c>
       <c r="H91" s="3">
-        <v>-200000</v>
+        <v>-237400</v>
       </c>
       <c r="I91" s="3">
-        <v>-228300</v>
+        <v>-198600</v>
       </c>
       <c r="J91" s="3">
+        <v>-226800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-244000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-135500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-973100</v>
+        <v>-810600</v>
       </c>
       <c r="E94" s="3">
-        <v>-612800</v>
+        <v>-966400</v>
       </c>
       <c r="F94" s="3">
-        <v>-391500</v>
+        <v>-608600</v>
       </c>
       <c r="G94" s="3">
-        <v>-306500</v>
+        <v>-388800</v>
       </c>
       <c r="H94" s="3">
-        <v>-266800</v>
+        <v>-304300</v>
       </c>
       <c r="I94" s="3">
-        <v>-474400</v>
+        <v>-264900</v>
       </c>
       <c r="J94" s="3">
+        <v>-471200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-412700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-89800</v>
+        <v>-90100</v>
       </c>
       <c r="E96" s="3">
-        <v>-86400</v>
+        <v>-89200</v>
       </c>
       <c r="F96" s="3">
-        <v>-81900</v>
+        <v>-85800</v>
       </c>
       <c r="G96" s="3">
-        <v>-83700</v>
+        <v>-81300</v>
       </c>
       <c r="H96" s="3">
-        <v>-73500</v>
+        <v>-83100</v>
       </c>
       <c r="I96" s="3">
-        <v>-67500</v>
+        <v>-73000</v>
       </c>
       <c r="J96" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-66100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1338900</v>
+        <v>765200</v>
       </c>
       <c r="E100" s="3">
-        <v>116000</v>
+        <v>1329700</v>
       </c>
       <c r="F100" s="3">
-        <v>563000</v>
+        <v>115200</v>
       </c>
       <c r="G100" s="3">
-        <v>-56200</v>
+        <v>559200</v>
       </c>
       <c r="H100" s="3">
-        <v>360800</v>
+        <v>-55900</v>
       </c>
       <c r="I100" s="3">
-        <v>-132900</v>
+        <v>358300</v>
       </c>
       <c r="J100" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="K100" s="3">
         <v>566100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2100</v>
-      </c>
       <c r="F101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>53500</v>
+        <v>86800</v>
       </c>
       <c r="E102" s="3">
-        <v>-275700</v>
+        <v>53100</v>
       </c>
       <c r="F102" s="3">
-        <v>332400</v>
+        <v>-273800</v>
       </c>
       <c r="G102" s="3">
-        <v>-175900</v>
+        <v>330100</v>
       </c>
       <c r="H102" s="3">
-        <v>174000</v>
+        <v>-174700</v>
       </c>
       <c r="I102" s="3">
-        <v>-391600</v>
+        <v>172800</v>
       </c>
       <c r="J102" s="3">
+        <v>-389000</v>
+      </c>
+      <c r="K102" s="3">
         <v>394100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>AQN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,180 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>671900</v>
+        <v>758000</v>
       </c>
       <c r="E8" s="3">
-        <v>808200</v>
+        <v>673600</v>
       </c>
       <c r="F8" s="3">
-        <v>627200</v>
+        <v>672200</v>
       </c>
       <c r="G8" s="3">
-        <v>479100</v>
+        <v>808500</v>
       </c>
       <c r="H8" s="3">
-        <v>437700</v>
+        <v>627500</v>
       </c>
       <c r="I8" s="3">
+        <v>479300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>437800</v>
+      </c>
+      <c r="K8" s="3">
         <v>592200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>558700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>468900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>440700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>413300</v>
+        <v>459100</v>
       </c>
       <c r="E9" s="3">
-        <v>553600</v>
+        <v>384700</v>
       </c>
       <c r="F9" s="3">
-        <v>354600</v>
+        <v>413400</v>
       </c>
       <c r="G9" s="3">
-        <v>250700</v>
+        <v>553800</v>
       </c>
       <c r="H9" s="3">
-        <v>241500</v>
+        <v>354700</v>
       </c>
       <c r="I9" s="3">
+        <v>250800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K9" s="3">
         <v>324800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>305600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>258400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>251800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>258700</v>
+        <v>298900</v>
       </c>
       <c r="E10" s="3">
-        <v>254600</v>
+        <v>288900</v>
       </c>
       <c r="F10" s="3">
-        <v>272700</v>
+        <v>258800</v>
       </c>
       <c r="G10" s="3">
-        <v>228300</v>
+        <v>254700</v>
       </c>
       <c r="H10" s="3">
-        <v>196200</v>
+        <v>272800</v>
       </c>
       <c r="I10" s="3">
+        <v>228400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>196300</v>
+      </c>
+      <c r="K10" s="3">
         <v>267400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>253100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>210500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +923,90 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>10300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>18900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>8200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>125000</v>
+        <v>141200</v>
       </c>
       <c r="E15" s="3">
-        <v>124100</v>
+        <v>123000</v>
       </c>
       <c r="F15" s="3">
+        <v>125100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>124200</v>
+      </c>
+      <c r="H15" s="3">
         <v>112200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>91100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>96400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>100500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>98900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>84400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>564300</v>
+        <v>599600</v>
       </c>
       <c r="E17" s="3">
-        <v>701300</v>
+        <v>530900</v>
       </c>
       <c r="F17" s="3">
-        <v>497200</v>
+        <v>564500</v>
       </c>
       <c r="G17" s="3">
-        <v>361900</v>
+        <v>701600</v>
       </c>
       <c r="H17" s="3">
-        <v>381400</v>
+        <v>497400</v>
       </c>
       <c r="I17" s="3">
+        <v>362100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>381500</v>
+      </c>
+      <c r="K17" s="3">
         <v>439300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>436000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>364400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>107600</v>
+        <v>158300</v>
       </c>
       <c r="E18" s="3">
-        <v>106900</v>
+        <v>142700</v>
       </c>
       <c r="F18" s="3">
-        <v>130000</v>
+        <v>107700</v>
       </c>
       <c r="G18" s="3">
-        <v>117100</v>
+        <v>107000</v>
       </c>
       <c r="H18" s="3">
+        <v>130100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J18" s="3">
         <v>56300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>152800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>122700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>104500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1108,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="F20" s="3">
         <v>69300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-75600</v>
       </c>
-      <c r="F20" s="3">
-        <v>613000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>613200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-23900</v>
       </c>
-      <c r="H20" s="3">
-        <v>408300</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>408400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-212500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>147600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>125100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>302000</v>
+        <v>390300</v>
       </c>
       <c r="E21" s="3">
+        <v>113900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>302100</v>
+      </c>
+      <c r="G21" s="3">
         <v>155500</v>
       </c>
-      <c r="F21" s="3">
-        <v>855100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>184300</v>
-      </c>
       <c r="H21" s="3">
-        <v>561000</v>
+        <v>855500</v>
       </c>
       <c r="I21" s="3">
+        <v>184400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>561200</v>
+      </c>
+      <c r="K21" s="3">
         <v>40800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>369200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>314000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>65800</v>
+      </c>
+      <c r="F22" s="3">
         <v>74100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>63200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>57700</v>
       </c>
-      <c r="G22" s="3">
-        <v>58000</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>58100</v>
+      </c>
+      <c r="J22" s="3">
         <v>57100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>58900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>60300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>58600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>185200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="F23" s="3">
         <v>102800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-31800</v>
       </c>
-      <c r="F23" s="3">
-        <v>685300</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>685500</v>
+      </c>
+      <c r="I23" s="3">
         <v>35200</v>
       </c>
-      <c r="H23" s="3">
-        <v>407500</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>407600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-118600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>209900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>171000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>215700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-27600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>65100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-25100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>59800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-17500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>28200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>108100</v>
+        <v>182900</v>
       </c>
       <c r="E26" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>108200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
-        <v>620200</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>620500</v>
+      </c>
+      <c r="I26" s="3">
         <v>60300</v>
       </c>
-      <c r="H26" s="3">
-        <v>347700</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>347900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-101100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>194000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>142900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F27" s="3">
         <v>128600</v>
       </c>
-      <c r="E27" s="3">
-        <v>14900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>639500</v>
-      </c>
       <c r="G27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>639800</v>
+      </c>
+      <c r="I27" s="3">
         <v>68500</v>
       </c>
-      <c r="H27" s="3">
-        <v>362000</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-84000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>216500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>145700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1354,17 +1475,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>151800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-69300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>75600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-613000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-613200</v>
+      </c>
+      <c r="I32" s="3">
         <v>23900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-408300</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-408400</v>
+      </c>
+      <c r="K32" s="3">
         <v>212500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-147600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-125100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-194900</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F33" s="3">
         <v>128600</v>
       </c>
-      <c r="E33" s="3">
-        <v>14900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>639500</v>
-      </c>
       <c r="G33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>639800</v>
+      </c>
+      <c r="I33" s="3">
         <v>68500</v>
       </c>
-      <c r="H33" s="3">
-        <v>362000</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-84000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>216500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>145700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F35" s="3">
         <v>128600</v>
       </c>
-      <c r="E35" s="3">
-        <v>14900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>639500</v>
-      </c>
       <c r="G35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>639800</v>
+      </c>
+      <c r="I35" s="3">
         <v>68500</v>
       </c>
-      <c r="H35" s="3">
-        <v>362000</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-84000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>216500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>145700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1791,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>259200</v>
+        <v>159500</v>
       </c>
       <c r="E41" s="3">
-        <v>181500</v>
+        <v>243200</v>
       </c>
       <c r="F41" s="3">
-        <v>129400</v>
+        <v>259300</v>
       </c>
       <c r="G41" s="3">
-        <v>405300</v>
+        <v>181600</v>
       </c>
       <c r="H41" s="3">
-        <v>76800</v>
+        <v>129500</v>
       </c>
       <c r="I41" s="3">
+        <v>405400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K41" s="3">
         <v>251500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>79600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>146800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>83800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,232 +1863,280 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>326300</v>
+        <v>383200</v>
       </c>
       <c r="E43" s="3">
-        <v>378100</v>
+        <v>330900</v>
       </c>
       <c r="F43" s="3">
-        <v>298500</v>
+        <v>326500</v>
       </c>
       <c r="G43" s="3">
-        <v>199200</v>
+        <v>378300</v>
       </c>
       <c r="H43" s="3">
-        <v>190900</v>
+        <v>298600</v>
       </c>
       <c r="I43" s="3">
+        <v>199300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>191000</v>
+      </c>
+      <c r="K43" s="3">
         <v>234700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>227800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>182100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>127500</v>
+      </c>
+      <c r="F44" s="3">
         <v>138200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>136600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>132600</v>
       </c>
-      <c r="G44" s="3">
-        <v>104000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>103500</v>
-      </c>
       <c r="I44" s="3">
+        <v>104100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K44" s="3">
         <v>86800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>76800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>75400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>348100</v>
+        <v>521600</v>
       </c>
       <c r="E45" s="3">
-        <v>328400</v>
+        <v>468000</v>
       </c>
       <c r="F45" s="3">
-        <v>324700</v>
+        <v>348200</v>
       </c>
       <c r="G45" s="3">
-        <v>259800</v>
+        <v>328500</v>
       </c>
       <c r="H45" s="3">
+        <v>324800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>259900</v>
+      </c>
+      <c r="J45" s="3">
         <v>222900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>243800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>269500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>232500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>235400</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1071800</v>
+        <v>1196200</v>
       </c>
       <c r="E46" s="3">
-        <v>1024600</v>
+        <v>1169600</v>
       </c>
       <c r="F46" s="3">
-        <v>885200</v>
+        <v>1072300</v>
       </c>
       <c r="G46" s="3">
-        <v>968300</v>
+        <v>1025000</v>
       </c>
       <c r="H46" s="3">
-        <v>594100</v>
+        <v>885600</v>
       </c>
       <c r="I46" s="3">
+        <v>968700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>594400</v>
+      </c>
+      <c r="K46" s="3">
         <v>816800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>653700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>636800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>597900</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2843300</v>
+        <v>2987300</v>
       </c>
       <c r="E47" s="3">
-        <v>2886300</v>
+        <v>2812600</v>
       </c>
       <c r="F47" s="3">
-        <v>2613900</v>
+        <v>2844400</v>
       </c>
       <c r="G47" s="3">
-        <v>2249800</v>
+        <v>2887500</v>
       </c>
       <c r="H47" s="3">
-        <v>2095900</v>
+        <v>2614900</v>
       </c>
       <c r="I47" s="3">
+        <v>2250700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2096700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1650600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1803800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1764600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13891100</v>
+        <v>14071400</v>
       </c>
       <c r="E48" s="3">
-        <v>12449500</v>
+        <v>14142700</v>
       </c>
       <c r="F48" s="3">
-        <v>10498500</v>
+        <v>13896600</v>
       </c>
       <c r="G48" s="3">
-        <v>9276300</v>
+        <v>12454300</v>
       </c>
       <c r="H48" s="3">
-        <v>9098600</v>
+        <v>10502600</v>
       </c>
       <c r="I48" s="3">
+        <v>9280000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9102200</v>
+      </c>
+      <c r="K48" s="3">
         <v>8927000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9211700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8837100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1684600</v>
+        <v>1664700</v>
       </c>
       <c r="E49" s="3">
-        <v>1687700</v>
+        <v>1672100</v>
       </c>
       <c r="F49" s="3">
-        <v>1685600</v>
+        <v>1685300</v>
       </c>
       <c r="G49" s="3">
-        <v>1378700</v>
+        <v>1688300</v>
       </c>
       <c r="H49" s="3">
-        <v>1371300</v>
+        <v>1686300</v>
       </c>
       <c r="I49" s="3">
+        <v>1379200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1371800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1368400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1374800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1286400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1295400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2205,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1467800</v>
+        <v>1470500</v>
       </c>
       <c r="E52" s="3">
-        <v>1423500</v>
+        <v>1482600</v>
       </c>
       <c r="F52" s="3">
-        <v>1161400</v>
+        <v>1468400</v>
       </c>
       <c r="G52" s="3">
-        <v>1081200</v>
+        <v>1424000</v>
       </c>
       <c r="H52" s="3">
-        <v>1091400</v>
+        <v>1161900</v>
       </c>
       <c r="I52" s="3">
+        <v>1081600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1091800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1122400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>855000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1094900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20958700</v>
+        <v>21390200</v>
       </c>
       <c r="E54" s="3">
-        <v>19471500</v>
+        <v>21279500</v>
       </c>
       <c r="F54" s="3">
-        <v>16844600</v>
+        <v>20966900</v>
       </c>
       <c r="G54" s="3">
-        <v>14954300</v>
+        <v>19479100</v>
       </c>
       <c r="H54" s="3">
-        <v>14251300</v>
+        <v>16851200</v>
       </c>
       <c r="I54" s="3">
+        <v>14960200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>14256900</v>
+      </c>
+      <c r="K54" s="3">
         <v>13885200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13899000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13619800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12870000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2355,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>213300</v>
+        <v>236100</v>
       </c>
       <c r="E57" s="3">
-        <v>190100</v>
+        <v>184700</v>
       </c>
       <c r="F57" s="3">
-        <v>244800</v>
+        <v>213400</v>
       </c>
       <c r="G57" s="3">
-        <v>185100</v>
+        <v>190200</v>
       </c>
       <c r="H57" s="3">
-        <v>118400</v>
+        <v>244900</v>
       </c>
       <c r="I57" s="3">
+        <v>185200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>118500</v>
+      </c>
+      <c r="K57" s="3">
         <v>91500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>191500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>97600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>658600</v>
+        <v>454200</v>
       </c>
       <c r="E58" s="3">
-        <v>790900</v>
+        <v>658400</v>
       </c>
       <c r="F58" s="3">
+        <v>658900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>791200</v>
+      </c>
+      <c r="H58" s="3">
         <v>178200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>8800</v>
       </c>
-      <c r="H58" s="3">
-        <v>282600</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>282700</v>
+      </c>
+      <c r="K58" s="3">
         <v>205100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>286600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>270100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>858800</v>
+        <v>1048800</v>
       </c>
       <c r="E59" s="3">
-        <v>807900</v>
+        <v>1046300</v>
       </c>
       <c r="F59" s="3">
-        <v>793700</v>
+        <v>859200</v>
       </c>
       <c r="G59" s="3">
-        <v>614800</v>
+        <v>808200</v>
       </c>
       <c r="H59" s="3">
-        <v>553000</v>
+        <v>794000</v>
       </c>
       <c r="I59" s="3">
+        <v>615000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>553200</v>
+      </c>
+      <c r="K59" s="3">
         <v>604700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>632700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>502400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1730700</v>
+        <v>1739100</v>
       </c>
       <c r="E60" s="3">
-        <v>1788900</v>
+        <v>1889500</v>
       </c>
       <c r="F60" s="3">
-        <v>1216700</v>
+        <v>1731400</v>
       </c>
       <c r="G60" s="3">
-        <v>808700</v>
+        <v>1789600</v>
       </c>
       <c r="H60" s="3">
-        <v>954000</v>
+        <v>1217200</v>
       </c>
       <c r="I60" s="3">
+        <v>809000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>954400</v>
+      </c>
+      <c r="K60" s="3">
         <v>901300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1110800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>870100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>582600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7777000</v>
+        <v>7461000</v>
       </c>
       <c r="E61" s="3">
-        <v>7302100</v>
+        <v>8096100</v>
       </c>
       <c r="F61" s="3">
-        <v>5602900</v>
+        <v>7780000</v>
       </c>
       <c r="G61" s="3">
-        <v>5058000</v>
+        <v>7305000</v>
       </c>
       <c r="H61" s="3">
-        <v>5009800</v>
+        <v>5605100</v>
       </c>
       <c r="I61" s="3">
+        <v>5060000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5011800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5150900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4721800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5214600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4839900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2569300</v>
+        <v>2376000</v>
       </c>
       <c r="E62" s="3">
-        <v>2381100</v>
+        <v>2519200</v>
       </c>
       <c r="F62" s="3">
-        <v>2395800</v>
+        <v>2570300</v>
       </c>
       <c r="G62" s="3">
-        <v>2033800</v>
+        <v>2382000</v>
       </c>
       <c r="H62" s="3">
-        <v>2102900</v>
+        <v>2396700</v>
       </c>
       <c r="I62" s="3">
+        <v>2034600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2103800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2057100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2030700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2015400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1989000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14367700</v>
+        <v>13924100</v>
       </c>
       <c r="E66" s="3">
-        <v>12750900</v>
+        <v>14768200</v>
       </c>
       <c r="F66" s="3">
-        <v>10216300</v>
+        <v>14373300</v>
       </c>
       <c r="G66" s="3">
-        <v>8919100</v>
+        <v>12755900</v>
       </c>
       <c r="H66" s="3">
-        <v>9105100</v>
+        <v>10220300</v>
       </c>
       <c r="I66" s="3">
+        <v>8922600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9108600</v>
+      </c>
+      <c r="K66" s="3">
         <v>9171200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8963000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9245200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8575900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,40 +2823,52 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>234900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>234900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>234900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>234900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>234900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>234900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>234900</v>
+      </c>
+      <c r="K70" s="3">
         <v>234800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="L70" s="3">
         <v>234800</v>
       </c>
-      <c r="F70" s="3">
-        <v>234800</v>
-      </c>
-      <c r="G70" s="3">
-        <v>234800</v>
-      </c>
-      <c r="H70" s="3">
-        <v>234800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>234800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>234800</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>236400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>236400</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-262100</v>
+        <v>-367500</v>
       </c>
       <c r="E72" s="3">
+        <v>-438300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-262200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-51400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>58300</v>
       </c>
-      <c r="G72" s="3">
-        <v>-461800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-412000</v>
-      </c>
       <c r="I72" s="3">
+        <v>-462000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-412100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-664000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-467600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-593700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-640500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6356200</v>
+        <v>7231300</v>
       </c>
       <c r="E76" s="3">
-        <v>6485800</v>
+        <v>6276400</v>
       </c>
       <c r="F76" s="3">
-        <v>6393600</v>
+        <v>6358700</v>
       </c>
       <c r="G76" s="3">
-        <v>5800500</v>
+        <v>6488400</v>
       </c>
       <c r="H76" s="3">
-        <v>4911500</v>
+        <v>6396100</v>
       </c>
       <c r="I76" s="3">
+        <v>5802800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4913400</v>
+      </c>
+      <c r="K76" s="3">
         <v>4479200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4701300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4138200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4057800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F81" s="3">
         <v>128600</v>
       </c>
-      <c r="E81" s="3">
-        <v>14900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>639500</v>
-      </c>
       <c r="G81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>639800</v>
+      </c>
+      <c r="I81" s="3">
         <v>68500</v>
       </c>
-      <c r="H81" s="3">
-        <v>362000</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-84000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>216500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>145700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>125000</v>
+        <v>141200</v>
       </c>
       <c r="E83" s="3">
-        <v>124100</v>
+        <v>123000</v>
       </c>
       <c r="F83" s="3">
+        <v>125100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>124200</v>
+      </c>
+      <c r="H83" s="3">
         <v>112200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>91100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>96400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>100500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>98900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>84400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>218100</v>
+      </c>
+      <c r="F89" s="3">
         <v>131600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-310200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>221600</v>
-      </c>
       <c r="G89" s="3">
+        <v>-310300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>221700</v>
+      </c>
+      <c r="I89" s="3">
         <v>154700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>182100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>85200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>213300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>241200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-519400</v>
+        <v>-374500</v>
       </c>
       <c r="E91" s="3">
-        <v>-376300</v>
+        <v>-443500</v>
       </c>
       <c r="F91" s="3">
-        <v>-332500</v>
+        <v>-519600</v>
       </c>
       <c r="G91" s="3">
-        <v>-232700</v>
+        <v>-376400</v>
       </c>
       <c r="H91" s="3">
-        <v>-237400</v>
+        <v>-332700</v>
       </c>
       <c r="I91" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-237500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-198600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-226800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-244000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-135500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-810600</v>
+        <v>90500</v>
       </c>
       <c r="E94" s="3">
-        <v>-966400</v>
+        <v>-604100</v>
       </c>
       <c r="F94" s="3">
-        <v>-608600</v>
+        <v>-810900</v>
       </c>
       <c r="G94" s="3">
-        <v>-388800</v>
+        <v>-966800</v>
       </c>
       <c r="H94" s="3">
-        <v>-304300</v>
+        <v>-608800</v>
       </c>
       <c r="I94" s="3">
+        <v>-388900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-304500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-264900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-471200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-412700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3678,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-90100</v>
+        <v>-107300</v>
       </c>
       <c r="E96" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-89200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-85800</v>
       </c>
-      <c r="G96" s="3">
-        <v>-81300</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="J96" s="3">
         <v>-83100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-73000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-67000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-66100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3826,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>765200</v>
+        <v>-328700</v>
       </c>
       <c r="E100" s="3">
-        <v>1329700</v>
+        <v>365800</v>
       </c>
       <c r="F100" s="3">
-        <v>115200</v>
+        <v>765500</v>
       </c>
       <c r="G100" s="3">
-        <v>559200</v>
+        <v>1330200</v>
       </c>
       <c r="H100" s="3">
+        <v>115300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>559400</v>
+      </c>
+      <c r="J100" s="3">
         <v>-55900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>358300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-132000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>566100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>3500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-5700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>86800</v>
+        <v>-78300</v>
       </c>
       <c r="E102" s="3">
-        <v>53100</v>
+        <v>-21800</v>
       </c>
       <c r="F102" s="3">
-        <v>-273800</v>
+        <v>86900</v>
       </c>
       <c r="G102" s="3">
-        <v>330100</v>
+        <v>53200</v>
       </c>
       <c r="H102" s="3">
+        <v>-273900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>330200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-174700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>172800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-389000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>394100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-24200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>758000</v>
+        <v>775900</v>
       </c>
       <c r="E8" s="3">
-        <v>673600</v>
+        <v>689500</v>
       </c>
       <c r="F8" s="3">
-        <v>672200</v>
+        <v>688100</v>
       </c>
       <c r="G8" s="3">
-        <v>808500</v>
+        <v>827600</v>
       </c>
       <c r="H8" s="3">
-        <v>627500</v>
+        <v>642300</v>
       </c>
       <c r="I8" s="3">
-        <v>479300</v>
+        <v>490600</v>
       </c>
       <c r="J8" s="3">
-        <v>437800</v>
+        <v>448200</v>
       </c>
       <c r="K8" s="3">
         <v>592200</v>
@@ -767,25 +767,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>459100</v>
+        <v>469900</v>
       </c>
       <c r="E9" s="3">
-        <v>384700</v>
+        <v>393800</v>
       </c>
       <c r="F9" s="3">
-        <v>413400</v>
+        <v>423200</v>
       </c>
       <c r="G9" s="3">
-        <v>553800</v>
+        <v>566900</v>
       </c>
       <c r="H9" s="3">
-        <v>354700</v>
+        <v>363100</v>
       </c>
       <c r="I9" s="3">
-        <v>250800</v>
+        <v>256800</v>
       </c>
       <c r="J9" s="3">
-        <v>241600</v>
+        <v>247300</v>
       </c>
       <c r="K9" s="3">
         <v>324800</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>298900</v>
+        <v>305900</v>
       </c>
       <c r="E10" s="3">
-        <v>288900</v>
+        <v>295700</v>
       </c>
       <c r="F10" s="3">
-        <v>258800</v>
+        <v>264900</v>
       </c>
       <c r="G10" s="3">
-        <v>254700</v>
+        <v>260700</v>
       </c>
       <c r="H10" s="3">
-        <v>272800</v>
+        <v>279200</v>
       </c>
       <c r="I10" s="3">
-        <v>228400</v>
+        <v>233800</v>
       </c>
       <c r="J10" s="3">
-        <v>196300</v>
+        <v>200900</v>
       </c>
       <c r="K10" s="3">
         <v>267400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-24500</v>
+        <v>-25100</v>
       </c>
       <c r="E14" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F14" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="3">
         <v>2700</v>
       </c>
       <c r="H14" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="I14" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J14" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -973,25 +973,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>141200</v>
+        <v>144500</v>
       </c>
       <c r="E15" s="3">
-        <v>123000</v>
+        <v>125900</v>
       </c>
       <c r="F15" s="3">
-        <v>125100</v>
+        <v>128000</v>
       </c>
       <c r="G15" s="3">
-        <v>124200</v>
+        <v>127100</v>
       </c>
       <c r="H15" s="3">
-        <v>112200</v>
+        <v>114800</v>
       </c>
       <c r="I15" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="J15" s="3">
-        <v>96400</v>
+        <v>98700</v>
       </c>
       <c r="K15" s="3">
         <v>100500</v>
@@ -1024,25 +1024,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>599600</v>
+        <v>613800</v>
       </c>
       <c r="E17" s="3">
-        <v>530900</v>
+        <v>543500</v>
       </c>
       <c r="F17" s="3">
-        <v>564500</v>
+        <v>577800</v>
       </c>
       <c r="G17" s="3">
-        <v>701600</v>
+        <v>718100</v>
       </c>
       <c r="H17" s="3">
-        <v>497400</v>
+        <v>509200</v>
       </c>
       <c r="I17" s="3">
-        <v>362100</v>
+        <v>370600</v>
       </c>
       <c r="J17" s="3">
-        <v>381500</v>
+        <v>390500</v>
       </c>
       <c r="K17" s="3">
         <v>439300</v>
@@ -1062,25 +1062,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>158300</v>
+        <v>162100</v>
       </c>
       <c r="E18" s="3">
-        <v>142700</v>
+        <v>146100</v>
       </c>
       <c r="F18" s="3">
-        <v>107700</v>
+        <v>110200</v>
       </c>
       <c r="G18" s="3">
-        <v>107000</v>
+        <v>109500</v>
       </c>
       <c r="H18" s="3">
-        <v>130100</v>
+        <v>133100</v>
       </c>
       <c r="I18" s="3">
-        <v>117200</v>
+        <v>119900</v>
       </c>
       <c r="J18" s="3">
-        <v>56300</v>
+        <v>57600</v>
       </c>
       <c r="K18" s="3">
         <v>152800</v>
@@ -1116,25 +1116,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>90700</v>
+        <v>92900</v>
       </c>
       <c r="E20" s="3">
-        <v>-151800</v>
+        <v>-155400</v>
       </c>
       <c r="F20" s="3">
-        <v>69300</v>
+        <v>70900</v>
       </c>
       <c r="G20" s="3">
-        <v>-75600</v>
+        <v>-77400</v>
       </c>
       <c r="H20" s="3">
-        <v>613200</v>
+        <v>627700</v>
       </c>
       <c r="I20" s="3">
-        <v>-23900</v>
+        <v>-24500</v>
       </c>
       <c r="J20" s="3">
-        <v>408400</v>
+        <v>418100</v>
       </c>
       <c r="K20" s="3">
         <v>-212500</v>
@@ -1154,25 +1154,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>390300</v>
+        <v>399500</v>
       </c>
       <c r="E21" s="3">
-        <v>113900</v>
+        <v>116600</v>
       </c>
       <c r="F21" s="3">
-        <v>302100</v>
+        <v>309200</v>
       </c>
       <c r="G21" s="3">
-        <v>155500</v>
+        <v>159200</v>
       </c>
       <c r="H21" s="3">
-        <v>855500</v>
+        <v>875700</v>
       </c>
       <c r="I21" s="3">
-        <v>184400</v>
+        <v>188800</v>
       </c>
       <c r="J21" s="3">
-        <v>561200</v>
+        <v>574400</v>
       </c>
       <c r="K21" s="3">
         <v>40800</v>
@@ -1192,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>63900</v>
+        <v>65400</v>
       </c>
       <c r="E22" s="3">
-        <v>65800</v>
+        <v>67400</v>
       </c>
       <c r="F22" s="3">
-        <v>74100</v>
+        <v>75900</v>
       </c>
       <c r="G22" s="3">
-        <v>63200</v>
+        <v>64700</v>
       </c>
       <c r="H22" s="3">
-        <v>57700</v>
+        <v>59100</v>
       </c>
       <c r="I22" s="3">
-        <v>58100</v>
+        <v>59400</v>
       </c>
       <c r="J22" s="3">
-        <v>57100</v>
+        <v>58500</v>
       </c>
       <c r="K22" s="3">
         <v>58900</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>185200</v>
+        <v>189500</v>
       </c>
       <c r="E23" s="3">
-        <v>-74900</v>
+        <v>-76700</v>
       </c>
       <c r="F23" s="3">
-        <v>102800</v>
+        <v>105300</v>
       </c>
       <c r="G23" s="3">
-        <v>-31800</v>
+        <v>-32600</v>
       </c>
       <c r="H23" s="3">
-        <v>685500</v>
+        <v>701700</v>
       </c>
       <c r="I23" s="3">
-        <v>35200</v>
+        <v>36000</v>
       </c>
       <c r="J23" s="3">
-        <v>407600</v>
+        <v>417300</v>
       </c>
       <c r="K23" s="3">
         <v>-118600</v>
@@ -1271,22 +1271,22 @@
         <v>2300</v>
       </c>
       <c r="E24" s="3">
-        <v>-24700</v>
+        <v>-25300</v>
       </c>
       <c r="F24" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="G24" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="H24" s="3">
-        <v>65100</v>
+        <v>66600</v>
       </c>
       <c r="I24" s="3">
-        <v>-25100</v>
+        <v>-25700</v>
       </c>
       <c r="J24" s="3">
-        <v>59800</v>
+        <v>61200</v>
       </c>
       <c r="K24" s="3">
         <v>-17500</v>
@@ -1344,25 +1344,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>182900</v>
+        <v>187200</v>
       </c>
       <c r="E26" s="3">
-        <v>-50200</v>
+        <v>-51400</v>
       </c>
       <c r="F26" s="3">
-        <v>108200</v>
+        <v>110700</v>
       </c>
       <c r="G26" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H26" s="3">
-        <v>620500</v>
+        <v>635100</v>
       </c>
       <c r="I26" s="3">
-        <v>60300</v>
+        <v>61700</v>
       </c>
       <c r="J26" s="3">
-        <v>347900</v>
+        <v>356100</v>
       </c>
       <c r="K26" s="3">
         <v>-101100</v>
@@ -1382,25 +1382,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>220900</v>
+        <v>226100</v>
       </c>
       <c r="E27" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="F27" s="3">
-        <v>128600</v>
+        <v>131700</v>
       </c>
       <c r="G27" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="H27" s="3">
-        <v>639800</v>
+        <v>654900</v>
       </c>
       <c r="I27" s="3">
-        <v>68500</v>
+        <v>70100</v>
       </c>
       <c r="J27" s="3">
-        <v>362200</v>
+        <v>370700</v>
       </c>
       <c r="K27" s="3">
         <v>-84000</v>
@@ -1572,25 +1572,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-90700</v>
+        <v>-92900</v>
       </c>
       <c r="E32" s="3">
-        <v>151800</v>
+        <v>155400</v>
       </c>
       <c r="F32" s="3">
-        <v>-69300</v>
+        <v>-70900</v>
       </c>
       <c r="G32" s="3">
-        <v>75600</v>
+        <v>77400</v>
       </c>
       <c r="H32" s="3">
-        <v>-613200</v>
+        <v>-627700</v>
       </c>
       <c r="I32" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="J32" s="3">
-        <v>-408400</v>
+        <v>-418100</v>
       </c>
       <c r="K32" s="3">
         <v>212500</v>
@@ -1610,25 +1610,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>220900</v>
+        <v>226100</v>
       </c>
       <c r="E33" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="F33" s="3">
-        <v>128600</v>
+        <v>131700</v>
       </c>
       <c r="G33" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="H33" s="3">
-        <v>639800</v>
+        <v>654900</v>
       </c>
       <c r="I33" s="3">
-        <v>68500</v>
+        <v>70100</v>
       </c>
       <c r="J33" s="3">
-        <v>362200</v>
+        <v>370700</v>
       </c>
       <c r="K33" s="3">
         <v>-84000</v>
@@ -1686,25 +1686,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>220900</v>
+        <v>226100</v>
       </c>
       <c r="E35" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="F35" s="3">
-        <v>128600</v>
+        <v>131700</v>
       </c>
       <c r="G35" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="H35" s="3">
-        <v>639800</v>
+        <v>654900</v>
       </c>
       <c r="I35" s="3">
-        <v>68500</v>
+        <v>70100</v>
       </c>
       <c r="J35" s="3">
-        <v>362200</v>
+        <v>370700</v>
       </c>
       <c r="K35" s="3">
         <v>-84000</v>
@@ -1799,25 +1799,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159500</v>
+        <v>163300</v>
       </c>
       <c r="E41" s="3">
-        <v>243200</v>
+        <v>248900</v>
       </c>
       <c r="F41" s="3">
-        <v>259300</v>
+        <v>265500</v>
       </c>
       <c r="G41" s="3">
-        <v>181600</v>
+        <v>185800</v>
       </c>
       <c r="H41" s="3">
-        <v>129500</v>
+        <v>132500</v>
       </c>
       <c r="I41" s="3">
-        <v>405400</v>
+        <v>415000</v>
       </c>
       <c r="J41" s="3">
-        <v>76900</v>
+        <v>78700</v>
       </c>
       <c r="K41" s="3">
         <v>251500</v>
@@ -1875,25 +1875,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>383200</v>
+        <v>392300</v>
       </c>
       <c r="E43" s="3">
-        <v>330900</v>
+        <v>338700</v>
       </c>
       <c r="F43" s="3">
-        <v>326500</v>
+        <v>334200</v>
       </c>
       <c r="G43" s="3">
-        <v>378300</v>
+        <v>387200</v>
       </c>
       <c r="H43" s="3">
-        <v>298600</v>
+        <v>305700</v>
       </c>
       <c r="I43" s="3">
-        <v>199300</v>
+        <v>204000</v>
       </c>
       <c r="J43" s="3">
-        <v>191000</v>
+        <v>195500</v>
       </c>
       <c r="K43" s="3">
         <v>234700</v>
@@ -1913,25 +1913,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>132000</v>
+        <v>135100</v>
       </c>
       <c r="E44" s="3">
-        <v>127500</v>
+        <v>130500</v>
       </c>
       <c r="F44" s="3">
-        <v>138200</v>
+        <v>141500</v>
       </c>
       <c r="G44" s="3">
-        <v>136600</v>
+        <v>139800</v>
       </c>
       <c r="H44" s="3">
-        <v>132600</v>
+        <v>135800</v>
       </c>
       <c r="I44" s="3">
-        <v>104100</v>
+        <v>106500</v>
       </c>
       <c r="J44" s="3">
-        <v>103600</v>
+        <v>106000</v>
       </c>
       <c r="K44" s="3">
         <v>86800</v>
@@ -1951,25 +1951,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>521600</v>
+        <v>533900</v>
       </c>
       <c r="E45" s="3">
-        <v>468000</v>
+        <v>479000</v>
       </c>
       <c r="F45" s="3">
-        <v>348200</v>
+        <v>356400</v>
       </c>
       <c r="G45" s="3">
-        <v>328500</v>
+        <v>336300</v>
       </c>
       <c r="H45" s="3">
-        <v>324800</v>
+        <v>332500</v>
       </c>
       <c r="I45" s="3">
-        <v>259900</v>
+        <v>266000</v>
       </c>
       <c r="J45" s="3">
-        <v>222900</v>
+        <v>228200</v>
       </c>
       <c r="K45" s="3">
         <v>243800</v>
@@ -1989,25 +1989,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1196200</v>
+        <v>1224500</v>
       </c>
       <c r="E46" s="3">
-        <v>1169600</v>
+        <v>1197200</v>
       </c>
       <c r="F46" s="3">
-        <v>1072300</v>
+        <v>1097600</v>
       </c>
       <c r="G46" s="3">
-        <v>1025000</v>
+        <v>1049200</v>
       </c>
       <c r="H46" s="3">
-        <v>885600</v>
+        <v>906500</v>
       </c>
       <c r="I46" s="3">
-        <v>968700</v>
+        <v>991500</v>
       </c>
       <c r="J46" s="3">
-        <v>594400</v>
+        <v>608400</v>
       </c>
       <c r="K46" s="3">
         <v>816800</v>
@@ -2027,25 +2027,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2987300</v>
+        <v>3057900</v>
       </c>
       <c r="E47" s="3">
-        <v>2812600</v>
+        <v>2879000</v>
       </c>
       <c r="F47" s="3">
-        <v>2844400</v>
+        <v>2911600</v>
       </c>
       <c r="G47" s="3">
-        <v>2887500</v>
+        <v>2955700</v>
       </c>
       <c r="H47" s="3">
-        <v>2614900</v>
+        <v>2676600</v>
       </c>
       <c r="I47" s="3">
-        <v>2250700</v>
+        <v>2303900</v>
       </c>
       <c r="J47" s="3">
-        <v>2096700</v>
+        <v>2146300</v>
       </c>
       <c r="K47" s="3">
         <v>1650600</v>
@@ -2065,25 +2065,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14071400</v>
+        <v>14403800</v>
       </c>
       <c r="E48" s="3">
-        <v>14142700</v>
+        <v>14476700</v>
       </c>
       <c r="F48" s="3">
-        <v>13896600</v>
+        <v>14224800</v>
       </c>
       <c r="G48" s="3">
-        <v>12454300</v>
+        <v>12748500</v>
       </c>
       <c r="H48" s="3">
-        <v>10502600</v>
+        <v>10750700</v>
       </c>
       <c r="I48" s="3">
-        <v>9280000</v>
+        <v>9499200</v>
       </c>
       <c r="J48" s="3">
-        <v>9102200</v>
+        <v>9317200</v>
       </c>
       <c r="K48" s="3">
         <v>8927000</v>
@@ -2103,25 +2103,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1664700</v>
+        <v>1704000</v>
       </c>
       <c r="E49" s="3">
-        <v>1672100</v>
+        <v>1711600</v>
       </c>
       <c r="F49" s="3">
-        <v>1685300</v>
+        <v>1725100</v>
       </c>
       <c r="G49" s="3">
-        <v>1688300</v>
+        <v>1728200</v>
       </c>
       <c r="H49" s="3">
-        <v>1686300</v>
+        <v>1726100</v>
       </c>
       <c r="I49" s="3">
-        <v>1379200</v>
+        <v>1411800</v>
       </c>
       <c r="J49" s="3">
-        <v>1371800</v>
+        <v>1404200</v>
       </c>
       <c r="K49" s="3">
         <v>1368400</v>
@@ -2217,25 +2217,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1470500</v>
+        <v>1505300</v>
       </c>
       <c r="E52" s="3">
-        <v>1482600</v>
+        <v>1517600</v>
       </c>
       <c r="F52" s="3">
-        <v>1468400</v>
+        <v>1503000</v>
       </c>
       <c r="G52" s="3">
-        <v>1424000</v>
+        <v>1457600</v>
       </c>
       <c r="H52" s="3">
-        <v>1161900</v>
+        <v>1189300</v>
       </c>
       <c r="I52" s="3">
-        <v>1081600</v>
+        <v>1107100</v>
       </c>
       <c r="J52" s="3">
-        <v>1091800</v>
+        <v>1117600</v>
       </c>
       <c r="K52" s="3">
         <v>1122400</v>
@@ -2293,25 +2293,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21390200</v>
+        <v>21895400</v>
       </c>
       <c r="E54" s="3">
-        <v>21279500</v>
+        <v>21782100</v>
       </c>
       <c r="F54" s="3">
-        <v>20966900</v>
+        <v>21462100</v>
       </c>
       <c r="G54" s="3">
-        <v>19479100</v>
+        <v>19939200</v>
       </c>
       <c r="H54" s="3">
-        <v>16851200</v>
+        <v>17249300</v>
       </c>
       <c r="I54" s="3">
-        <v>14960200</v>
+        <v>15313600</v>
       </c>
       <c r="J54" s="3">
-        <v>14256900</v>
+        <v>14593700</v>
       </c>
       <c r="K54" s="3">
         <v>13885200</v>
@@ -2363,25 +2363,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>236100</v>
+        <v>241700</v>
       </c>
       <c r="E57" s="3">
-        <v>184700</v>
+        <v>189000</v>
       </c>
       <c r="F57" s="3">
-        <v>213400</v>
+        <v>218400</v>
       </c>
       <c r="G57" s="3">
-        <v>190200</v>
+        <v>194700</v>
       </c>
       <c r="H57" s="3">
-        <v>244900</v>
+        <v>250700</v>
       </c>
       <c r="I57" s="3">
-        <v>185200</v>
+        <v>189500</v>
       </c>
       <c r="J57" s="3">
-        <v>118500</v>
+        <v>121300</v>
       </c>
       <c r="K57" s="3">
         <v>91500</v>
@@ -2401,25 +2401,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>454200</v>
+        <v>464900</v>
       </c>
       <c r="E58" s="3">
-        <v>658400</v>
+        <v>674000</v>
       </c>
       <c r="F58" s="3">
-        <v>658900</v>
+        <v>674400</v>
       </c>
       <c r="G58" s="3">
-        <v>791200</v>
+        <v>809900</v>
       </c>
       <c r="H58" s="3">
-        <v>178200</v>
+        <v>182500</v>
       </c>
       <c r="I58" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="J58" s="3">
-        <v>282700</v>
+        <v>289400</v>
       </c>
       <c r="K58" s="3">
         <v>205100</v>
@@ -2439,25 +2439,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1048800</v>
+        <v>1073600</v>
       </c>
       <c r="E59" s="3">
-        <v>1046300</v>
+        <v>1071100</v>
       </c>
       <c r="F59" s="3">
-        <v>859200</v>
+        <v>879500</v>
       </c>
       <c r="G59" s="3">
-        <v>808200</v>
+        <v>827300</v>
       </c>
       <c r="H59" s="3">
-        <v>794000</v>
+        <v>812800</v>
       </c>
       <c r="I59" s="3">
-        <v>615000</v>
+        <v>629600</v>
       </c>
       <c r="J59" s="3">
-        <v>553200</v>
+        <v>566300</v>
       </c>
       <c r="K59" s="3">
         <v>604700</v>
@@ -2477,25 +2477,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1739100</v>
+        <v>1780100</v>
       </c>
       <c r="E60" s="3">
-        <v>1889500</v>
+        <v>1934100</v>
       </c>
       <c r="F60" s="3">
-        <v>1731400</v>
+        <v>1772300</v>
       </c>
       <c r="G60" s="3">
-        <v>1789600</v>
+        <v>1831900</v>
       </c>
       <c r="H60" s="3">
-        <v>1217200</v>
+        <v>1245900</v>
       </c>
       <c r="I60" s="3">
-        <v>809000</v>
+        <v>828100</v>
       </c>
       <c r="J60" s="3">
-        <v>954400</v>
+        <v>977000</v>
       </c>
       <c r="K60" s="3">
         <v>901300</v>
@@ -2515,25 +2515,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7461000</v>
+        <v>7637200</v>
       </c>
       <c r="E61" s="3">
-        <v>8096100</v>
+        <v>8287300</v>
       </c>
       <c r="F61" s="3">
-        <v>7780000</v>
+        <v>7963800</v>
       </c>
       <c r="G61" s="3">
-        <v>7305000</v>
+        <v>7477500</v>
       </c>
       <c r="H61" s="3">
-        <v>5605100</v>
+        <v>5737500</v>
       </c>
       <c r="I61" s="3">
-        <v>5060000</v>
+        <v>5179500</v>
       </c>
       <c r="J61" s="3">
-        <v>5011800</v>
+        <v>5130100</v>
       </c>
       <c r="K61" s="3">
         <v>5150900</v>
@@ -2553,25 +2553,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2376000</v>
+        <v>2432100</v>
       </c>
       <c r="E62" s="3">
-        <v>2519200</v>
+        <v>2578700</v>
       </c>
       <c r="F62" s="3">
-        <v>2570300</v>
+        <v>2631000</v>
       </c>
       <c r="G62" s="3">
-        <v>2382000</v>
+        <v>2438300</v>
       </c>
       <c r="H62" s="3">
-        <v>2396700</v>
+        <v>2453300</v>
       </c>
       <c r="I62" s="3">
-        <v>2034600</v>
+        <v>2082700</v>
       </c>
       <c r="J62" s="3">
-        <v>2103800</v>
+        <v>2153500</v>
       </c>
       <c r="K62" s="3">
         <v>2057100</v>
@@ -2705,25 +2705,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13924100</v>
+        <v>14253000</v>
       </c>
       <c r="E66" s="3">
-        <v>14768200</v>
+        <v>15117100</v>
       </c>
       <c r="F66" s="3">
-        <v>14373300</v>
+        <v>14712800</v>
       </c>
       <c r="G66" s="3">
-        <v>12755900</v>
+        <v>13057200</v>
       </c>
       <c r="H66" s="3">
-        <v>10220300</v>
+        <v>10461700</v>
       </c>
       <c r="I66" s="3">
-        <v>8922600</v>
+        <v>9133300</v>
       </c>
       <c r="J66" s="3">
-        <v>9108600</v>
+        <v>9323800</v>
       </c>
       <c r="K66" s="3">
         <v>9171200</v>
@@ -2835,25 +2835,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>234900</v>
+        <v>240400</v>
       </c>
       <c r="E70" s="3">
-        <v>234900</v>
+        <v>240400</v>
       </c>
       <c r="F70" s="3">
-        <v>234900</v>
+        <v>240400</v>
       </c>
       <c r="G70" s="3">
-        <v>234900</v>
+        <v>240400</v>
       </c>
       <c r="H70" s="3">
-        <v>234900</v>
+        <v>240400</v>
       </c>
       <c r="I70" s="3">
-        <v>234900</v>
+        <v>240400</v>
       </c>
       <c r="J70" s="3">
-        <v>234900</v>
+        <v>240400</v>
       </c>
       <c r="K70" s="3">
         <v>234800</v>
@@ -2911,25 +2911,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-367500</v>
+        <v>-376200</v>
       </c>
       <c r="E72" s="3">
-        <v>-438300</v>
+        <v>-448700</v>
       </c>
       <c r="F72" s="3">
-        <v>-262200</v>
+        <v>-268400</v>
       </c>
       <c r="G72" s="3">
-        <v>-51400</v>
+        <v>-52600</v>
       </c>
       <c r="H72" s="3">
-        <v>58300</v>
+        <v>59700</v>
       </c>
       <c r="I72" s="3">
-        <v>-462000</v>
+        <v>-472900</v>
       </c>
       <c r="J72" s="3">
-        <v>-412100</v>
+        <v>-421800</v>
       </c>
       <c r="K72" s="3">
         <v>-664000</v>
@@ -3063,25 +3063,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7231300</v>
+        <v>7402100</v>
       </c>
       <c r="E76" s="3">
-        <v>6276400</v>
+        <v>6424600</v>
       </c>
       <c r="F76" s="3">
-        <v>6358700</v>
+        <v>6508900</v>
       </c>
       <c r="G76" s="3">
-        <v>6488400</v>
+        <v>6641600</v>
       </c>
       <c r="H76" s="3">
-        <v>6396100</v>
+        <v>6547100</v>
       </c>
       <c r="I76" s="3">
-        <v>5802800</v>
+        <v>5939800</v>
       </c>
       <c r="J76" s="3">
-        <v>4913400</v>
+        <v>5029500</v>
       </c>
       <c r="K76" s="3">
         <v>4479200</v>
@@ -3182,25 +3182,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>220900</v>
+        <v>226100</v>
       </c>
       <c r="E81" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="F81" s="3">
-        <v>128600</v>
+        <v>131700</v>
       </c>
       <c r="G81" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="H81" s="3">
-        <v>639800</v>
+        <v>654900</v>
       </c>
       <c r="I81" s="3">
-        <v>68500</v>
+        <v>70100</v>
       </c>
       <c r="J81" s="3">
-        <v>362200</v>
+        <v>370700</v>
       </c>
       <c r="K81" s="3">
         <v>-84000</v>
@@ -3236,25 +3236,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>141200</v>
+        <v>144500</v>
       </c>
       <c r="E83" s="3">
-        <v>123000</v>
+        <v>125900</v>
       </c>
       <c r="F83" s="3">
-        <v>125100</v>
+        <v>128000</v>
       </c>
       <c r="G83" s="3">
-        <v>124200</v>
+        <v>127100</v>
       </c>
       <c r="H83" s="3">
-        <v>112200</v>
+        <v>114800</v>
       </c>
       <c r="I83" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="J83" s="3">
-        <v>96400</v>
+        <v>98700</v>
       </c>
       <c r="K83" s="3">
         <v>100500</v>
@@ -3464,25 +3464,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>161200</v>
+        <v>165000</v>
       </c>
       <c r="E89" s="3">
-        <v>218100</v>
+        <v>223300</v>
       </c>
       <c r="F89" s="3">
-        <v>131600</v>
+        <v>134700</v>
       </c>
       <c r="G89" s="3">
-        <v>-310300</v>
+        <v>-317700</v>
       </c>
       <c r="H89" s="3">
-        <v>221700</v>
+        <v>226900</v>
       </c>
       <c r="I89" s="3">
-        <v>154700</v>
+        <v>158400</v>
       </c>
       <c r="J89" s="3">
-        <v>182100</v>
+        <v>186400</v>
       </c>
       <c r="K89" s="3">
         <v>85200</v>
@@ -3518,25 +3518,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-374500</v>
+        <v>-383300</v>
       </c>
       <c r="E91" s="3">
-        <v>-443500</v>
+        <v>-454000</v>
       </c>
       <c r="F91" s="3">
-        <v>-519600</v>
+        <v>-531900</v>
       </c>
       <c r="G91" s="3">
-        <v>-376400</v>
+        <v>-385300</v>
       </c>
       <c r="H91" s="3">
-        <v>-332700</v>
+        <v>-340500</v>
       </c>
       <c r="I91" s="3">
-        <v>-232800</v>
+        <v>-238300</v>
       </c>
       <c r="J91" s="3">
-        <v>-237500</v>
+        <v>-243100</v>
       </c>
       <c r="K91" s="3">
         <v>-198600</v>
@@ -3632,25 +3632,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>90500</v>
+        <v>92600</v>
       </c>
       <c r="E94" s="3">
-        <v>-604100</v>
+        <v>-618400</v>
       </c>
       <c r="F94" s="3">
-        <v>-810900</v>
+        <v>-830000</v>
       </c>
       <c r="G94" s="3">
-        <v>-966800</v>
+        <v>-989600</v>
       </c>
       <c r="H94" s="3">
-        <v>-608800</v>
+        <v>-623200</v>
       </c>
       <c r="I94" s="3">
-        <v>-388900</v>
+        <v>-398100</v>
       </c>
       <c r="J94" s="3">
-        <v>-304500</v>
+        <v>-311700</v>
       </c>
       <c r="K94" s="3">
         <v>-264900</v>
@@ -3686,25 +3686,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-107300</v>
+        <v>-109800</v>
       </c>
       <c r="E96" s="3">
-        <v>-104700</v>
+        <v>-107200</v>
       </c>
       <c r="F96" s="3">
-        <v>-90200</v>
+        <v>-92300</v>
       </c>
       <c r="G96" s="3">
-        <v>-89200</v>
+        <v>-91300</v>
       </c>
       <c r="H96" s="3">
-        <v>-85800</v>
+        <v>-87800</v>
       </c>
       <c r="I96" s="3">
-        <v>-81400</v>
+        <v>-83300</v>
       </c>
       <c r="J96" s="3">
-        <v>-83100</v>
+        <v>-85100</v>
       </c>
       <c r="K96" s="3">
         <v>-73000</v>
@@ -3838,25 +3838,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-328700</v>
+        <v>-336500</v>
       </c>
       <c r="E100" s="3">
-        <v>365800</v>
+        <v>374500</v>
       </c>
       <c r="F100" s="3">
-        <v>765500</v>
+        <v>783600</v>
       </c>
       <c r="G100" s="3">
-        <v>1330200</v>
+        <v>1361600</v>
       </c>
       <c r="H100" s="3">
-        <v>115300</v>
+        <v>118000</v>
       </c>
       <c r="I100" s="3">
-        <v>559400</v>
+        <v>572600</v>
       </c>
       <c r="J100" s="3">
-        <v>-55900</v>
+        <v>-57200</v>
       </c>
       <c r="K100" s="3">
         <v>358300</v>
@@ -3879,7 +3879,7 @@
         <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I101" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J101" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K101" s="3">
         <v>-5700</v>
@@ -3914,25 +3914,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-78300</v>
+        <v>-80100</v>
       </c>
       <c r="E102" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="F102" s="3">
-        <v>86900</v>
+        <v>88900</v>
       </c>
       <c r="G102" s="3">
-        <v>53200</v>
+        <v>54400</v>
       </c>
       <c r="H102" s="3">
-        <v>-273900</v>
+        <v>-280400</v>
       </c>
       <c r="I102" s="3">
-        <v>330200</v>
+        <v>338000</v>
       </c>
       <c r="J102" s="3">
-        <v>-174700</v>
+        <v>-178900</v>
       </c>
       <c r="K102" s="3">
         <v>172800</v>

--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>AQN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,206 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>775900</v>
+        <v>806800</v>
       </c>
       <c r="E8" s="3">
-        <v>689500</v>
+        <v>950800</v>
       </c>
       <c r="F8" s="3">
-        <v>688100</v>
+        <v>768700</v>
       </c>
       <c r="G8" s="3">
-        <v>827600</v>
+        <v>683200</v>
       </c>
       <c r="H8" s="3">
-        <v>642300</v>
+        <v>681700</v>
       </c>
       <c r="I8" s="3">
+        <v>820000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>636400</v>
+      </c>
+      <c r="K8" s="3">
         <v>490600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>448200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>592200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>558700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>468900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>440700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>469900</v>
+        <v>487600</v>
       </c>
       <c r="E9" s="3">
-        <v>393800</v>
+        <v>596400</v>
       </c>
       <c r="F9" s="3">
-        <v>423200</v>
+        <v>465600</v>
       </c>
       <c r="G9" s="3">
-        <v>566900</v>
+        <v>390200</v>
       </c>
       <c r="H9" s="3">
-        <v>363100</v>
+        <v>419300</v>
       </c>
       <c r="I9" s="3">
+        <v>561700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>359700</v>
+      </c>
+      <c r="K9" s="3">
         <v>256800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>247300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>324800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>305600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>258400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>251800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>305900</v>
+        <v>319200</v>
       </c>
       <c r="E10" s="3">
-        <v>295700</v>
+        <v>354400</v>
       </c>
       <c r="F10" s="3">
-        <v>264900</v>
+        <v>303100</v>
       </c>
       <c r="G10" s="3">
-        <v>260700</v>
+        <v>293000</v>
       </c>
       <c r="H10" s="3">
-        <v>279200</v>
+        <v>262400</v>
       </c>
       <c r="I10" s="3">
+        <v>258300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>276600</v>
+      </c>
+      <c r="K10" s="3">
         <v>233800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>267400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>253100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>210500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,84 +963,102 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-25100</v>
+        <v>7600</v>
       </c>
       <c r="E14" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>-24900</v>
       </c>
       <c r="G14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="H14" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>19400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>8200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>144500</v>
+        <v>145500</v>
       </c>
       <c r="E15" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>143200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>124800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>126900</v>
+      </c>
+      <c r="I15" s="3">
         <v>125900</v>
       </c>
-      <c r="F15" s="3">
-        <v>128000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>127100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>114800</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
+        <v>113800</v>
+      </c>
+      <c r="K15" s="3">
         <v>93300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>98700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>100500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>98900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>84400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>613800</v>
+        <v>672400</v>
       </c>
       <c r="E17" s="3">
-        <v>543500</v>
+        <v>775600</v>
       </c>
       <c r="F17" s="3">
-        <v>577800</v>
+        <v>608100</v>
       </c>
       <c r="G17" s="3">
-        <v>718100</v>
+        <v>538500</v>
       </c>
       <c r="H17" s="3">
-        <v>509200</v>
+        <v>572500</v>
       </c>
       <c r="I17" s="3">
+        <v>711500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>504500</v>
+      </c>
+      <c r="K17" s="3">
         <v>370600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>390500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>439300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>436000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>364400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>162100</v>
+        <v>134500</v>
       </c>
       <c r="E18" s="3">
-        <v>146100</v>
+        <v>175200</v>
       </c>
       <c r="F18" s="3">
-        <v>110200</v>
+        <v>160600</v>
       </c>
       <c r="G18" s="3">
-        <v>109500</v>
+        <v>144700</v>
       </c>
       <c r="H18" s="3">
-        <v>133100</v>
+        <v>109200</v>
       </c>
       <c r="I18" s="3">
+        <v>108500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K18" s="3">
         <v>119900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>57600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>152800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>122700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>104500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1176,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>92900</v>
+        <v>-161100</v>
       </c>
       <c r="E20" s="3">
-        <v>-155400</v>
+        <v>-20100</v>
       </c>
       <c r="F20" s="3">
-        <v>70900</v>
+        <v>92000</v>
       </c>
       <c r="G20" s="3">
-        <v>-77400</v>
+        <v>-154000</v>
       </c>
       <c r="H20" s="3">
-        <v>627700</v>
+        <v>70300</v>
       </c>
       <c r="I20" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>621900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>418100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-212500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>147600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>125100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>399500</v>
+        <v>118900</v>
       </c>
       <c r="E21" s="3">
-        <v>116600</v>
+        <v>310100</v>
       </c>
       <c r="F21" s="3">
-        <v>309200</v>
+        <v>395800</v>
       </c>
       <c r="G21" s="3">
-        <v>159200</v>
+        <v>115500</v>
       </c>
       <c r="H21" s="3">
-        <v>875700</v>
+        <v>306400</v>
       </c>
       <c r="I21" s="3">
+        <v>157700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>867600</v>
+      </c>
+      <c r="K21" s="3">
         <v>188800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>574400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>40800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>369200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>314000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65400</v>
+        <v>83500</v>
       </c>
       <c r="E22" s="3">
-        <v>67400</v>
+        <v>74900</v>
       </c>
       <c r="F22" s="3">
-        <v>75900</v>
+        <v>64800</v>
       </c>
       <c r="G22" s="3">
-        <v>64700</v>
+        <v>66800</v>
       </c>
       <c r="H22" s="3">
-        <v>59100</v>
+        <v>75200</v>
       </c>
       <c r="I22" s="3">
+        <v>64100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K22" s="3">
         <v>59400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>58500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>58900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>60300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>58600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>189500</v>
+        <v>-110000</v>
       </c>
       <c r="E23" s="3">
-        <v>-76700</v>
+        <v>80200</v>
       </c>
       <c r="F23" s="3">
-        <v>105300</v>
+        <v>187800</v>
       </c>
       <c r="G23" s="3">
-        <v>-32600</v>
+        <v>-76000</v>
       </c>
       <c r="H23" s="3">
-        <v>701700</v>
+        <v>104300</v>
       </c>
       <c r="I23" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>695300</v>
+      </c>
+      <c r="K23" s="3">
         <v>36000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>417300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-118600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>209900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>171000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>215700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G24" s="3">
-        <v>-28200</v>
+        <v>-25100</v>
       </c>
       <c r="H24" s="3">
-        <v>66600</v>
+        <v>-5400</v>
       </c>
       <c r="I24" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-25700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>61200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-17500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>28200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187200</v>
+        <v>-80500</v>
       </c>
       <c r="E26" s="3">
-        <v>-51400</v>
+        <v>68000</v>
       </c>
       <c r="F26" s="3">
-        <v>110700</v>
+        <v>185500</v>
       </c>
       <c r="G26" s="3">
-        <v>-4400</v>
+        <v>-50900</v>
       </c>
       <c r="H26" s="3">
-        <v>635100</v>
+        <v>109700</v>
       </c>
       <c r="I26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>629300</v>
+      </c>
+      <c r="K26" s="3">
         <v>61700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>356100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-101100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>194000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>142900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>226100</v>
+        <v>-46000</v>
       </c>
       <c r="E27" s="3">
-        <v>-39400</v>
+        <v>114700</v>
       </c>
       <c r="F27" s="3">
-        <v>131700</v>
+        <v>224100</v>
       </c>
       <c r="G27" s="3">
-        <v>15300</v>
+        <v>-39000</v>
       </c>
       <c r="H27" s="3">
-        <v>654900</v>
+        <v>130500</v>
       </c>
       <c r="I27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>648800</v>
+      </c>
+      <c r="K27" s="3">
         <v>70100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>370700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-84000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>216500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>145700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,46 +1568,58 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-92900</v>
+        <v>161100</v>
       </c>
       <c r="E32" s="3">
-        <v>155400</v>
+        <v>20100</v>
       </c>
       <c r="F32" s="3">
-        <v>-70900</v>
+        <v>-92000</v>
       </c>
       <c r="G32" s="3">
-        <v>77400</v>
+        <v>154000</v>
       </c>
       <c r="H32" s="3">
-        <v>-627700</v>
+        <v>-70300</v>
       </c>
       <c r="I32" s="3">
+        <v>76700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-621900</v>
+      </c>
+      <c r="K32" s="3">
         <v>24500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-418100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>212500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-147600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-125100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-194900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>226100</v>
+        <v>-46000</v>
       </c>
       <c r="E33" s="3">
-        <v>-39400</v>
+        <v>114700</v>
       </c>
       <c r="F33" s="3">
-        <v>131700</v>
+        <v>224100</v>
       </c>
       <c r="G33" s="3">
-        <v>15300</v>
+        <v>-39000</v>
       </c>
       <c r="H33" s="3">
-        <v>654900</v>
+        <v>130500</v>
       </c>
       <c r="I33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>648800</v>
+      </c>
+      <c r="K33" s="3">
         <v>70100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>370700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-84000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>216500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>145700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>226100</v>
+        <v>-46000</v>
       </c>
       <c r="E35" s="3">
-        <v>-39400</v>
+        <v>114700</v>
       </c>
       <c r="F35" s="3">
-        <v>131700</v>
+        <v>224100</v>
       </c>
       <c r="G35" s="3">
-        <v>15300</v>
+        <v>-39000</v>
       </c>
       <c r="H35" s="3">
-        <v>654900</v>
+        <v>130500</v>
       </c>
       <c r="I35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>648800</v>
+      </c>
+      <c r="K35" s="3">
         <v>70100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>370700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-84000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>216500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>145700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>163300</v>
+        <v>109900</v>
       </c>
       <c r="E41" s="3">
-        <v>248900</v>
+        <v>120500</v>
       </c>
       <c r="F41" s="3">
-        <v>265500</v>
+        <v>161800</v>
       </c>
       <c r="G41" s="3">
-        <v>185800</v>
+        <v>246600</v>
       </c>
       <c r="H41" s="3">
-        <v>132500</v>
+        <v>263000</v>
       </c>
       <c r="I41" s="3">
+        <v>184100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>131300</v>
+      </c>
+      <c r="K41" s="3">
         <v>415000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>78700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>251500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>79600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>146800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>83800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,274 +2049,322 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>392300</v>
+        <v>446500</v>
       </c>
       <c r="E43" s="3">
-        <v>338700</v>
+        <v>435300</v>
       </c>
       <c r="F43" s="3">
-        <v>334200</v>
+        <v>388700</v>
       </c>
       <c r="G43" s="3">
-        <v>387200</v>
+        <v>335600</v>
       </c>
       <c r="H43" s="3">
-        <v>305700</v>
+        <v>331100</v>
       </c>
       <c r="I43" s="3">
+        <v>383600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>302900</v>
+      </c>
+      <c r="K43" s="3">
         <v>204000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>195500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>234700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>227800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>182100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>135100</v>
+        <v>150300</v>
       </c>
       <c r="E44" s="3">
-        <v>130500</v>
+        <v>144000</v>
       </c>
       <c r="F44" s="3">
-        <v>141500</v>
+        <v>133800</v>
       </c>
       <c r="G44" s="3">
-        <v>139800</v>
+        <v>129300</v>
       </c>
       <c r="H44" s="3">
-        <v>135800</v>
+        <v>140200</v>
       </c>
       <c r="I44" s="3">
+        <v>138600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>134500</v>
+      </c>
+      <c r="K44" s="3">
         <v>106500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>106000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>86800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>76800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>75400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>533900</v>
+        <v>514800</v>
       </c>
       <c r="E45" s="3">
-        <v>479000</v>
+        <v>530100</v>
       </c>
       <c r="F45" s="3">
-        <v>356400</v>
+        <v>529000</v>
       </c>
       <c r="G45" s="3">
-        <v>336300</v>
+        <v>474600</v>
       </c>
       <c r="H45" s="3">
-        <v>332500</v>
+        <v>353200</v>
       </c>
       <c r="I45" s="3">
+        <v>333200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>329500</v>
+      </c>
+      <c r="K45" s="3">
         <v>266000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>228200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>243800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>269500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>232500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>235400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1224500</v>
+        <v>1221500</v>
       </c>
       <c r="E46" s="3">
-        <v>1197200</v>
+        <v>1229900</v>
       </c>
       <c r="F46" s="3">
-        <v>1097600</v>
+        <v>1213200</v>
       </c>
       <c r="G46" s="3">
-        <v>1049200</v>
+        <v>1186200</v>
       </c>
       <c r="H46" s="3">
-        <v>906500</v>
+        <v>1087500</v>
       </c>
       <c r="I46" s="3">
+        <v>1039500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>898200</v>
+      </c>
+      <c r="K46" s="3">
         <v>991500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>608400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>816800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>653700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>636800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>597900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3057900</v>
+        <v>2826300</v>
       </c>
       <c r="E47" s="3">
-        <v>2879000</v>
+        <v>2974800</v>
       </c>
       <c r="F47" s="3">
-        <v>2911600</v>
+        <v>3029800</v>
       </c>
       <c r="G47" s="3">
-        <v>2955700</v>
+        <v>2852500</v>
       </c>
       <c r="H47" s="3">
-        <v>2676600</v>
+        <v>2884800</v>
       </c>
       <c r="I47" s="3">
+        <v>2928500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2652000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2303900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2146300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1650600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1803800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1764600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14403800</v>
+        <v>15356000</v>
       </c>
       <c r="E48" s="3">
-        <v>14476700</v>
+        <v>15211800</v>
       </c>
       <c r="F48" s="3">
-        <v>14224800</v>
+        <v>14271300</v>
       </c>
       <c r="G48" s="3">
-        <v>12748500</v>
+        <v>14343500</v>
       </c>
       <c r="H48" s="3">
-        <v>10750700</v>
+        <v>14094000</v>
       </c>
       <c r="I48" s="3">
+        <v>12631200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10651800</v>
+      </c>
+      <c r="K48" s="3">
         <v>9499200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9317200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8927000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9211700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8837100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1704000</v>
+        <v>1807000</v>
       </c>
       <c r="E49" s="3">
-        <v>1711600</v>
+        <v>1821700</v>
       </c>
       <c r="F49" s="3">
-        <v>1725100</v>
+        <v>1688300</v>
       </c>
       <c r="G49" s="3">
-        <v>1728200</v>
+        <v>1695800</v>
       </c>
       <c r="H49" s="3">
-        <v>1726100</v>
+        <v>1709200</v>
       </c>
       <c r="I49" s="3">
+        <v>1712300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1710200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1411800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1404200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1368400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1374800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1286400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1295400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1505300</v>
+        <v>1713700</v>
       </c>
       <c r="E52" s="3">
-        <v>1517600</v>
+        <v>1598400</v>
       </c>
       <c r="F52" s="3">
-        <v>1503000</v>
+        <v>1491400</v>
       </c>
       <c r="G52" s="3">
-        <v>1457600</v>
+        <v>1503700</v>
       </c>
       <c r="H52" s="3">
-        <v>1189300</v>
+        <v>1489200</v>
       </c>
       <c r="I52" s="3">
+        <v>1444200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1178400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1107100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1117600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1122400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>855000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1094900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21895400</v>
+        <v>22924400</v>
       </c>
       <c r="E54" s="3">
-        <v>21782100</v>
+        <v>22836500</v>
       </c>
       <c r="F54" s="3">
-        <v>21462100</v>
+        <v>21694000</v>
       </c>
       <c r="G54" s="3">
-        <v>19939200</v>
+        <v>21581700</v>
       </c>
       <c r="H54" s="3">
-        <v>17249300</v>
+        <v>21264700</v>
       </c>
       <c r="I54" s="3">
+        <v>19755800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>17090600</v>
+      </c>
+      <c r="K54" s="3">
         <v>15313600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14593700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13885200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13899000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13619800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12870000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,236 +2617,274 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>241700</v>
+        <v>187900</v>
       </c>
       <c r="E57" s="3">
-        <v>189000</v>
+        <v>146900</v>
       </c>
       <c r="F57" s="3">
-        <v>218400</v>
+        <v>239500</v>
       </c>
       <c r="G57" s="3">
-        <v>194700</v>
+        <v>187300</v>
       </c>
       <c r="H57" s="3">
-        <v>250700</v>
+        <v>216400</v>
       </c>
       <c r="I57" s="3">
+        <v>192900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>248300</v>
+      </c>
+      <c r="K57" s="3">
         <v>189500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>121300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>91500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>191500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>97600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>464900</v>
+        <v>235900</v>
       </c>
       <c r="E58" s="3">
-        <v>674000</v>
+        <v>23600</v>
       </c>
       <c r="F58" s="3">
-        <v>674400</v>
+        <v>460600</v>
       </c>
       <c r="G58" s="3">
-        <v>809900</v>
+        <v>667800</v>
       </c>
       <c r="H58" s="3">
-        <v>182500</v>
+        <v>668200</v>
       </c>
       <c r="I58" s="3">
+        <v>802400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>180800</v>
+      </c>
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>289400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>205100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>286600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>270100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1073600</v>
+        <v>1155400</v>
       </c>
       <c r="E59" s="3">
-        <v>1071100</v>
+        <v>1107800</v>
       </c>
       <c r="F59" s="3">
-        <v>879500</v>
+        <v>1063700</v>
       </c>
       <c r="G59" s="3">
-        <v>827300</v>
+        <v>1061200</v>
       </c>
       <c r="H59" s="3">
-        <v>812800</v>
+        <v>871400</v>
       </c>
       <c r="I59" s="3">
+        <v>819700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>805300</v>
+      </c>
+      <c r="K59" s="3">
         <v>629600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>566300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>604700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>632700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>502400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1780100</v>
+        <v>1579100</v>
       </c>
       <c r="E60" s="3">
-        <v>1934100</v>
+        <v>1278300</v>
       </c>
       <c r="F60" s="3">
-        <v>1772300</v>
+        <v>1763800</v>
       </c>
       <c r="G60" s="3">
-        <v>1831900</v>
+        <v>1916300</v>
       </c>
       <c r="H60" s="3">
-        <v>1245900</v>
+        <v>1756000</v>
       </c>
       <c r="I60" s="3">
+        <v>1815000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1234400</v>
+      </c>
+      <c r="K60" s="3">
         <v>828100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>977000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>901300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1110800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>870100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>582600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7637200</v>
+        <v>9399200</v>
       </c>
       <c r="E61" s="3">
-        <v>8287300</v>
+        <v>9270500</v>
       </c>
       <c r="F61" s="3">
-        <v>7963800</v>
+        <v>7567000</v>
       </c>
       <c r="G61" s="3">
-        <v>7477500</v>
+        <v>8211100</v>
       </c>
       <c r="H61" s="3">
-        <v>5737500</v>
+        <v>7890500</v>
       </c>
       <c r="I61" s="3">
+        <v>7408700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5684700</v>
+      </c>
+      <c r="K61" s="3">
         <v>5179500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5130100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5150900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4721800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5214600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4839900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2432100</v>
+        <v>2449800</v>
       </c>
       <c r="E62" s="3">
-        <v>2578700</v>
+        <v>2475100</v>
       </c>
       <c r="F62" s="3">
-        <v>2631000</v>
+        <v>2409700</v>
       </c>
       <c r="G62" s="3">
-        <v>2438300</v>
+        <v>2554900</v>
       </c>
       <c r="H62" s="3">
-        <v>2453300</v>
+        <v>2606800</v>
       </c>
       <c r="I62" s="3">
+        <v>2415800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2430700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2082700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2153500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2057100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2030700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2015400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1989000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14253000</v>
+        <v>15676200</v>
       </c>
       <c r="E66" s="3">
-        <v>15117100</v>
+        <v>15336200</v>
       </c>
       <c r="F66" s="3">
-        <v>14712800</v>
+        <v>14121800</v>
       </c>
       <c r="G66" s="3">
-        <v>13057200</v>
+        <v>14978000</v>
       </c>
       <c r="H66" s="3">
-        <v>10461700</v>
+        <v>14577500</v>
       </c>
       <c r="I66" s="3">
+        <v>12937100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>10365500</v>
+      </c>
+      <c r="K66" s="3">
         <v>9133300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9323800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9171200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8963000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9245200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8575900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,46 +3159,58 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>238200</v>
+      </c>
+      <c r="F70" s="3">
+        <v>238200</v>
+      </c>
+      <c r="G70" s="3">
+        <v>238200</v>
+      </c>
+      <c r="H70" s="3">
+        <v>238200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>238200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>238200</v>
+      </c>
+      <c r="K70" s="3">
         <v>240400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="L70" s="3">
         <v>240400</v>
       </c>
-      <c r="F70" s="3">
-        <v>240400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>240400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>240400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>240400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>240400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>234800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>234800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>236400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>236400</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-376200</v>
+        <v>-614400</v>
       </c>
       <c r="E72" s="3">
-        <v>-448700</v>
+        <v>-408200</v>
       </c>
       <c r="F72" s="3">
-        <v>-268400</v>
+        <v>-372800</v>
       </c>
       <c r="G72" s="3">
-        <v>-52600</v>
+        <v>-444600</v>
       </c>
       <c r="H72" s="3">
-        <v>59700</v>
+        <v>-265900</v>
       </c>
       <c r="I72" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-472900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-421800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-664000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-467600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-593700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-640500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7402100</v>
+        <v>7010000</v>
       </c>
       <c r="E76" s="3">
-        <v>6424600</v>
+        <v>7262200</v>
       </c>
       <c r="F76" s="3">
-        <v>6508900</v>
+        <v>7334000</v>
       </c>
       <c r="G76" s="3">
-        <v>6641600</v>
+        <v>6365500</v>
       </c>
       <c r="H76" s="3">
-        <v>6547100</v>
+        <v>6449100</v>
       </c>
       <c r="I76" s="3">
+        <v>6580500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6486900</v>
+      </c>
+      <c r="K76" s="3">
         <v>5939800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5029500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4479200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4701300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4138200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4057800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>226100</v>
+        <v>-46000</v>
       </c>
       <c r="E81" s="3">
-        <v>-39400</v>
+        <v>114700</v>
       </c>
       <c r="F81" s="3">
-        <v>131700</v>
+        <v>224100</v>
       </c>
       <c r="G81" s="3">
-        <v>15300</v>
+        <v>-39000</v>
       </c>
       <c r="H81" s="3">
-        <v>654900</v>
+        <v>130500</v>
       </c>
       <c r="I81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>648800</v>
+      </c>
+      <c r="K81" s="3">
         <v>70100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>370700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-84000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>216500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>145700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>144500</v>
+        <v>145500</v>
       </c>
       <c r="E83" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>143200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>124800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>126900</v>
+      </c>
+      <c r="I83" s="3">
         <v>125900</v>
       </c>
-      <c r="F83" s="3">
-        <v>128000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>127100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>114800</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>113800</v>
+      </c>
+      <c r="K83" s="3">
         <v>93300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>98700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>100500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>98900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>84400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>165000</v>
+        <v>347200</v>
       </c>
       <c r="E89" s="3">
-        <v>223300</v>
+        <v>214800</v>
       </c>
       <c r="F89" s="3">
-        <v>134700</v>
+        <v>163500</v>
       </c>
       <c r="G89" s="3">
-        <v>-317700</v>
+        <v>221200</v>
       </c>
       <c r="H89" s="3">
-        <v>226900</v>
+        <v>133500</v>
       </c>
       <c r="I89" s="3">
+        <v>-314700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>224900</v>
+      </c>
+      <c r="K89" s="3">
         <v>158400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>186400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>85200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>213300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>241200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-383300</v>
+        <v>-492200</v>
       </c>
       <c r="E91" s="3">
-        <v>-454000</v>
+        <v>-423500</v>
       </c>
       <c r="F91" s="3">
-        <v>-531900</v>
+        <v>-379800</v>
       </c>
       <c r="G91" s="3">
-        <v>-385300</v>
+        <v>-449800</v>
       </c>
       <c r="H91" s="3">
-        <v>-340500</v>
+        <v>-527000</v>
       </c>
       <c r="I91" s="3">
+        <v>-381800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-337400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-238300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-243100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-198600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-226800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-244000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-135500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>92600</v>
+        <v>-569000</v>
       </c>
       <c r="E94" s="3">
-        <v>-618400</v>
+        <v>-1302200</v>
       </c>
       <c r="F94" s="3">
-        <v>-830000</v>
+        <v>91800</v>
       </c>
       <c r="G94" s="3">
-        <v>-989600</v>
+        <v>-612700</v>
       </c>
       <c r="H94" s="3">
-        <v>-623200</v>
+        <v>-822400</v>
       </c>
       <c r="I94" s="3">
+        <v>-980500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-617500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-398100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-311700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-264900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-471200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-412700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,46 +4146,54 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-109800</v>
+        <v>-121700</v>
       </c>
       <c r="E96" s="3">
-        <v>-107200</v>
+        <v>-120700</v>
       </c>
       <c r="F96" s="3">
-        <v>-92300</v>
+        <v>-108800</v>
       </c>
       <c r="G96" s="3">
-        <v>-91300</v>
+        <v>-106200</v>
       </c>
       <c r="H96" s="3">
-        <v>-87800</v>
+        <v>-91500</v>
       </c>
       <c r="I96" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-83300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-85100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-73000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-67000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-66100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-336500</v>
+        <v>230000</v>
       </c>
       <c r="E100" s="3">
-        <v>374500</v>
+        <v>1038800</v>
       </c>
       <c r="F100" s="3">
-        <v>783600</v>
+        <v>-333400</v>
       </c>
       <c r="G100" s="3">
-        <v>1361600</v>
+        <v>371000</v>
       </c>
       <c r="H100" s="3">
-        <v>118000</v>
+        <v>776400</v>
       </c>
       <c r="I100" s="3">
+        <v>1349100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K100" s="3">
         <v>572600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-57200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>358300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-132000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>566100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>5100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-80100</v>
+        <v>5100</v>
       </c>
       <c r="E102" s="3">
-        <v>-22300</v>
+        <v>-47900</v>
       </c>
       <c r="F102" s="3">
-        <v>88900</v>
+        <v>-79400</v>
       </c>
       <c r="G102" s="3">
-        <v>54400</v>
+        <v>-22100</v>
       </c>
       <c r="H102" s="3">
-        <v>-280400</v>
+        <v>88100</v>
       </c>
       <c r="I102" s="3">
+        <v>53900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-277800</v>
+      </c>
+      <c r="K102" s="3">
         <v>338000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-178900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>172800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-389000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>394100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-24200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>806800</v>
+        <v>831400</v>
       </c>
       <c r="E8" s="3">
-        <v>950800</v>
+        <v>979800</v>
       </c>
       <c r="F8" s="3">
-        <v>768700</v>
+        <v>792200</v>
       </c>
       <c r="G8" s="3">
-        <v>683200</v>
+        <v>704000</v>
       </c>
       <c r="H8" s="3">
-        <v>681700</v>
+        <v>702500</v>
       </c>
       <c r="I8" s="3">
-        <v>820000</v>
+        <v>845000</v>
       </c>
       <c r="J8" s="3">
-        <v>636400</v>
+        <v>655800</v>
       </c>
       <c r="K8" s="3">
         <v>490600</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>487600</v>
+        <v>502500</v>
       </c>
       <c r="E9" s="3">
-        <v>596400</v>
+        <v>614600</v>
       </c>
       <c r="F9" s="3">
-        <v>465600</v>
+        <v>479800</v>
       </c>
       <c r="G9" s="3">
-        <v>390200</v>
+        <v>402100</v>
       </c>
       <c r="H9" s="3">
-        <v>419300</v>
+        <v>432100</v>
       </c>
       <c r="I9" s="3">
-        <v>561700</v>
+        <v>578800</v>
       </c>
       <c r="J9" s="3">
-        <v>359700</v>
+        <v>370700</v>
       </c>
       <c r="K9" s="3">
         <v>256800</v>
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>319200</v>
+        <v>329000</v>
       </c>
       <c r="E10" s="3">
-        <v>354400</v>
+        <v>365200</v>
       </c>
       <c r="F10" s="3">
-        <v>303100</v>
+        <v>312400</v>
       </c>
       <c r="G10" s="3">
-        <v>293000</v>
+        <v>301900</v>
       </c>
       <c r="H10" s="3">
-        <v>262400</v>
+        <v>270400</v>
       </c>
       <c r="I10" s="3">
-        <v>258300</v>
+        <v>266200</v>
       </c>
       <c r="J10" s="3">
-        <v>276600</v>
+        <v>285100</v>
       </c>
       <c r="K10" s="3">
         <v>233800</v>
@@ -975,25 +975,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1100</v>
-      </c>
       <c r="I14" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J14" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="K14" s="3">
         <v>3800</v>
@@ -1019,25 +1019,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>145500</v>
+        <v>149900</v>
       </c>
       <c r="E15" s="3">
-        <v>155000</v>
+        <v>159800</v>
       </c>
       <c r="F15" s="3">
-        <v>143200</v>
+        <v>147600</v>
       </c>
       <c r="G15" s="3">
-        <v>124800</v>
+        <v>128600</v>
       </c>
       <c r="H15" s="3">
-        <v>126900</v>
+        <v>130700</v>
       </c>
       <c r="I15" s="3">
-        <v>125900</v>
+        <v>129800</v>
       </c>
       <c r="J15" s="3">
-        <v>113800</v>
+        <v>117300</v>
       </c>
       <c r="K15" s="3">
         <v>93300</v>
@@ -1078,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>672400</v>
+        <v>692900</v>
       </c>
       <c r="E17" s="3">
-        <v>775600</v>
+        <v>799200</v>
       </c>
       <c r="F17" s="3">
-        <v>608100</v>
+        <v>626700</v>
       </c>
       <c r="G17" s="3">
-        <v>538500</v>
+        <v>554900</v>
       </c>
       <c r="H17" s="3">
-        <v>572500</v>
+        <v>590000</v>
       </c>
       <c r="I17" s="3">
-        <v>711500</v>
+        <v>733200</v>
       </c>
       <c r="J17" s="3">
-        <v>504500</v>
+        <v>519800</v>
       </c>
       <c r="K17" s="3">
         <v>370600</v>
@@ -1122,25 +1122,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>134500</v>
+        <v>138600</v>
       </c>
       <c r="E18" s="3">
-        <v>175200</v>
+        <v>180600</v>
       </c>
       <c r="F18" s="3">
-        <v>160600</v>
+        <v>165500</v>
       </c>
       <c r="G18" s="3">
-        <v>144700</v>
+        <v>149100</v>
       </c>
       <c r="H18" s="3">
-        <v>109200</v>
+        <v>112500</v>
       </c>
       <c r="I18" s="3">
-        <v>108500</v>
+        <v>111800</v>
       </c>
       <c r="J18" s="3">
-        <v>131900</v>
+        <v>135900</v>
       </c>
       <c r="K18" s="3">
         <v>119900</v>
@@ -1184,25 +1184,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-161100</v>
+        <v>-166000</v>
       </c>
       <c r="E20" s="3">
-        <v>-20100</v>
+        <v>-20800</v>
       </c>
       <c r="F20" s="3">
-        <v>92000</v>
+        <v>94800</v>
       </c>
       <c r="G20" s="3">
-        <v>-154000</v>
+        <v>-158600</v>
       </c>
       <c r="H20" s="3">
-        <v>70300</v>
+        <v>72400</v>
       </c>
       <c r="I20" s="3">
-        <v>-76700</v>
+        <v>-79000</v>
       </c>
       <c r="J20" s="3">
-        <v>621900</v>
+        <v>640900</v>
       </c>
       <c r="K20" s="3">
         <v>-24500</v>
@@ -1228,25 +1228,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>118900</v>
+        <v>122500</v>
       </c>
       <c r="E21" s="3">
-        <v>310100</v>
+        <v>319600</v>
       </c>
       <c r="F21" s="3">
-        <v>395800</v>
+        <v>407900</v>
       </c>
       <c r="G21" s="3">
-        <v>115500</v>
+        <v>119100</v>
       </c>
       <c r="H21" s="3">
-        <v>306400</v>
+        <v>315700</v>
       </c>
       <c r="I21" s="3">
-        <v>157700</v>
+        <v>162500</v>
       </c>
       <c r="J21" s="3">
-        <v>867600</v>
+        <v>894100</v>
       </c>
       <c r="K21" s="3">
         <v>188800</v>
@@ -1272,25 +1272,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>83500</v>
+        <v>86000</v>
       </c>
       <c r="E22" s="3">
-        <v>74900</v>
+        <v>77200</v>
       </c>
       <c r="F22" s="3">
-        <v>64800</v>
+        <v>66800</v>
       </c>
       <c r="G22" s="3">
-        <v>66800</v>
+        <v>68800</v>
       </c>
       <c r="H22" s="3">
-        <v>75200</v>
+        <v>77500</v>
       </c>
       <c r="I22" s="3">
-        <v>64100</v>
+        <v>66000</v>
       </c>
       <c r="J22" s="3">
-        <v>58600</v>
+        <v>60300</v>
       </c>
       <c r="K22" s="3">
         <v>59400</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-110000</v>
+        <v>-113400</v>
       </c>
       <c r="E23" s="3">
-        <v>80200</v>
+        <v>82600</v>
       </c>
       <c r="F23" s="3">
-        <v>187800</v>
+        <v>193500</v>
       </c>
       <c r="G23" s="3">
-        <v>-76000</v>
+        <v>-78300</v>
       </c>
       <c r="H23" s="3">
-        <v>104300</v>
+        <v>107500</v>
       </c>
       <c r="I23" s="3">
-        <v>-32300</v>
+        <v>-33300</v>
       </c>
       <c r="J23" s="3">
-        <v>695300</v>
+        <v>716500</v>
       </c>
       <c r="K23" s="3">
         <v>36000</v>
@@ -1360,25 +1360,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-29500</v>
+        <v>-30400</v>
       </c>
       <c r="E24" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="F24" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G24" s="3">
-        <v>-25100</v>
+        <v>-25800</v>
       </c>
       <c r="H24" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="I24" s="3">
-        <v>-28000</v>
+        <v>-28800</v>
       </c>
       <c r="J24" s="3">
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="K24" s="3">
         <v>-25700</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-80500</v>
+        <v>-83000</v>
       </c>
       <c r="E26" s="3">
-        <v>68000</v>
+        <v>70100</v>
       </c>
       <c r="F26" s="3">
-        <v>185500</v>
+        <v>191100</v>
       </c>
       <c r="G26" s="3">
-        <v>-50900</v>
+        <v>-52500</v>
       </c>
       <c r="H26" s="3">
-        <v>109700</v>
+        <v>113100</v>
       </c>
       <c r="I26" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J26" s="3">
-        <v>629300</v>
+        <v>648500</v>
       </c>
       <c r="K26" s="3">
         <v>61700</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46000</v>
+        <v>-47400</v>
       </c>
       <c r="E27" s="3">
-        <v>114700</v>
+        <v>118200</v>
       </c>
       <c r="F27" s="3">
-        <v>224100</v>
+        <v>230900</v>
       </c>
       <c r="G27" s="3">
-        <v>-39000</v>
+        <v>-40200</v>
       </c>
       <c r="H27" s="3">
-        <v>130500</v>
+        <v>134400</v>
       </c>
       <c r="I27" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="J27" s="3">
-        <v>648800</v>
+        <v>668600</v>
       </c>
       <c r="K27" s="3">
         <v>70100</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>161100</v>
+        <v>166000</v>
       </c>
       <c r="E32" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="F32" s="3">
-        <v>-92000</v>
+        <v>-94800</v>
       </c>
       <c r="G32" s="3">
-        <v>154000</v>
+        <v>158600</v>
       </c>
       <c r="H32" s="3">
-        <v>-70300</v>
+        <v>-72400</v>
       </c>
       <c r="I32" s="3">
-        <v>76700</v>
+        <v>79000</v>
       </c>
       <c r="J32" s="3">
-        <v>-621900</v>
+        <v>-640900</v>
       </c>
       <c r="K32" s="3">
         <v>24500</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46000</v>
+        <v>-47400</v>
       </c>
       <c r="E33" s="3">
-        <v>114700</v>
+        <v>118200</v>
       </c>
       <c r="F33" s="3">
-        <v>224100</v>
+        <v>230900</v>
       </c>
       <c r="G33" s="3">
-        <v>-39000</v>
+        <v>-40200</v>
       </c>
       <c r="H33" s="3">
-        <v>130500</v>
+        <v>134400</v>
       </c>
       <c r="I33" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="J33" s="3">
-        <v>648800</v>
+        <v>668600</v>
       </c>
       <c r="K33" s="3">
         <v>70100</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46000</v>
+        <v>-47400</v>
       </c>
       <c r="E35" s="3">
-        <v>114700</v>
+        <v>118200</v>
       </c>
       <c r="F35" s="3">
-        <v>224100</v>
+        <v>230900</v>
       </c>
       <c r="G35" s="3">
-        <v>-39000</v>
+        <v>-40200</v>
       </c>
       <c r="H35" s="3">
-        <v>130500</v>
+        <v>134400</v>
       </c>
       <c r="I35" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="J35" s="3">
-        <v>648800</v>
+        <v>668600</v>
       </c>
       <c r="K35" s="3">
         <v>70100</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>109900</v>
+        <v>113200</v>
       </c>
       <c r="E41" s="3">
-        <v>120500</v>
+        <v>124100</v>
       </c>
       <c r="F41" s="3">
-        <v>161800</v>
+        <v>166700</v>
       </c>
       <c r="G41" s="3">
-        <v>246600</v>
+        <v>254200</v>
       </c>
       <c r="H41" s="3">
-        <v>263000</v>
+        <v>271000</v>
       </c>
       <c r="I41" s="3">
-        <v>184100</v>
+        <v>189800</v>
       </c>
       <c r="J41" s="3">
-        <v>131300</v>
+        <v>135300</v>
       </c>
       <c r="K41" s="3">
         <v>415000</v>
@@ -2061,25 +2061,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>446500</v>
+        <v>460100</v>
       </c>
       <c r="E43" s="3">
-        <v>435300</v>
+        <v>448600</v>
       </c>
       <c r="F43" s="3">
-        <v>388700</v>
+        <v>400500</v>
       </c>
       <c r="G43" s="3">
-        <v>335600</v>
+        <v>345900</v>
       </c>
       <c r="H43" s="3">
-        <v>331100</v>
+        <v>341200</v>
       </c>
       <c r="I43" s="3">
-        <v>383600</v>
+        <v>395300</v>
       </c>
       <c r="J43" s="3">
-        <v>302900</v>
+        <v>312100</v>
       </c>
       <c r="K43" s="3">
         <v>204000</v>
@@ -2105,25 +2105,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>150300</v>
+        <v>154900</v>
       </c>
       <c r="E44" s="3">
-        <v>144000</v>
+        <v>148300</v>
       </c>
       <c r="F44" s="3">
-        <v>133800</v>
+        <v>137900</v>
       </c>
       <c r="G44" s="3">
-        <v>129300</v>
+        <v>133200</v>
       </c>
       <c r="H44" s="3">
-        <v>140200</v>
+        <v>144500</v>
       </c>
       <c r="I44" s="3">
+        <v>142800</v>
+      </c>
+      <c r="J44" s="3">
         <v>138600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>134500</v>
       </c>
       <c r="K44" s="3">
         <v>106500</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>514800</v>
+        <v>530500</v>
       </c>
       <c r="E45" s="3">
-        <v>530100</v>
+        <v>546300</v>
       </c>
       <c r="F45" s="3">
-        <v>529000</v>
+        <v>545100</v>
       </c>
       <c r="G45" s="3">
-        <v>474600</v>
+        <v>489100</v>
       </c>
       <c r="H45" s="3">
-        <v>353200</v>
+        <v>363900</v>
       </c>
       <c r="I45" s="3">
-        <v>333200</v>
+        <v>343300</v>
       </c>
       <c r="J45" s="3">
-        <v>329500</v>
+        <v>339500</v>
       </c>
       <c r="K45" s="3">
         <v>266000</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1221500</v>
+        <v>1258700</v>
       </c>
       <c r="E46" s="3">
-        <v>1229900</v>
+        <v>1267400</v>
       </c>
       <c r="F46" s="3">
-        <v>1213200</v>
+        <v>1250200</v>
       </c>
       <c r="G46" s="3">
-        <v>1186200</v>
+        <v>1222300</v>
       </c>
       <c r="H46" s="3">
-        <v>1087500</v>
+        <v>1120600</v>
       </c>
       <c r="I46" s="3">
-        <v>1039500</v>
+        <v>1071200</v>
       </c>
       <c r="J46" s="3">
-        <v>898200</v>
+        <v>925500</v>
       </c>
       <c r="K46" s="3">
         <v>991500</v>
@@ -2237,25 +2237,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2826300</v>
+        <v>2912400</v>
       </c>
       <c r="E47" s="3">
-        <v>2974800</v>
+        <v>3065500</v>
       </c>
       <c r="F47" s="3">
-        <v>3029800</v>
+        <v>3122100</v>
       </c>
       <c r="G47" s="3">
-        <v>2852500</v>
+        <v>2939500</v>
       </c>
       <c r="H47" s="3">
-        <v>2884800</v>
+        <v>2972800</v>
       </c>
       <c r="I47" s="3">
-        <v>2928500</v>
+        <v>3017800</v>
       </c>
       <c r="J47" s="3">
-        <v>2652000</v>
+        <v>2732900</v>
       </c>
       <c r="K47" s="3">
         <v>2303900</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15356000</v>
+        <v>15824200</v>
       </c>
       <c r="E48" s="3">
-        <v>15211800</v>
+        <v>15675600</v>
       </c>
       <c r="F48" s="3">
-        <v>14271300</v>
+        <v>14706300</v>
       </c>
       <c r="G48" s="3">
-        <v>14343500</v>
+        <v>14780800</v>
       </c>
       <c r="H48" s="3">
-        <v>14094000</v>
+        <v>14523600</v>
       </c>
       <c r="I48" s="3">
-        <v>12631200</v>
+        <v>13016300</v>
       </c>
       <c r="J48" s="3">
-        <v>10651800</v>
+        <v>10976500</v>
       </c>
       <c r="K48" s="3">
         <v>9499200</v>
@@ -2325,25 +2325,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1807000</v>
+        <v>1862000</v>
       </c>
       <c r="E49" s="3">
-        <v>1821700</v>
+        <v>1877200</v>
       </c>
       <c r="F49" s="3">
-        <v>1688300</v>
+        <v>1739800</v>
       </c>
       <c r="G49" s="3">
-        <v>1695800</v>
+        <v>1747500</v>
       </c>
       <c r="H49" s="3">
-        <v>1709200</v>
+        <v>1761300</v>
       </c>
       <c r="I49" s="3">
-        <v>1712300</v>
+        <v>1764500</v>
       </c>
       <c r="J49" s="3">
-        <v>1710200</v>
+        <v>1762400</v>
       </c>
       <c r="K49" s="3">
         <v>1411800</v>
@@ -2457,25 +2457,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1713700</v>
+        <v>1766000</v>
       </c>
       <c r="E52" s="3">
-        <v>1598400</v>
+        <v>1647100</v>
       </c>
       <c r="F52" s="3">
-        <v>1491400</v>
+        <v>1536900</v>
       </c>
       <c r="G52" s="3">
-        <v>1503700</v>
+        <v>1549500</v>
       </c>
       <c r="H52" s="3">
-        <v>1489200</v>
+        <v>1534600</v>
       </c>
       <c r="I52" s="3">
-        <v>1444200</v>
+        <v>1488300</v>
       </c>
       <c r="J52" s="3">
-        <v>1178400</v>
+        <v>1214300</v>
       </c>
       <c r="K52" s="3">
         <v>1107100</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22924400</v>
+        <v>23623300</v>
       </c>
       <c r="E54" s="3">
-        <v>22836500</v>
+        <v>23532700</v>
       </c>
       <c r="F54" s="3">
-        <v>21694000</v>
+        <v>22355400</v>
       </c>
       <c r="G54" s="3">
-        <v>21581700</v>
+        <v>22239700</v>
       </c>
       <c r="H54" s="3">
-        <v>21264700</v>
+        <v>21913000</v>
       </c>
       <c r="I54" s="3">
-        <v>19755800</v>
+        <v>20358100</v>
       </c>
       <c r="J54" s="3">
-        <v>17090600</v>
+        <v>17611600</v>
       </c>
       <c r="K54" s="3">
         <v>15313600</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>187900</v>
+        <v>193600</v>
       </c>
       <c r="E57" s="3">
-        <v>146900</v>
+        <v>151400</v>
       </c>
       <c r="F57" s="3">
-        <v>239500</v>
+        <v>246800</v>
       </c>
       <c r="G57" s="3">
-        <v>187300</v>
+        <v>193000</v>
       </c>
       <c r="H57" s="3">
-        <v>216400</v>
+        <v>223000</v>
       </c>
       <c r="I57" s="3">
-        <v>192900</v>
+        <v>198800</v>
       </c>
       <c r="J57" s="3">
-        <v>248300</v>
+        <v>255900</v>
       </c>
       <c r="K57" s="3">
         <v>189500</v>
@@ -2669,25 +2669,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>235900</v>
+        <v>243000</v>
       </c>
       <c r="E58" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="F58" s="3">
-        <v>460600</v>
+        <v>474600</v>
       </c>
       <c r="G58" s="3">
-        <v>667800</v>
+        <v>688200</v>
       </c>
       <c r="H58" s="3">
-        <v>668200</v>
+        <v>688600</v>
       </c>
       <c r="I58" s="3">
-        <v>802400</v>
+        <v>826900</v>
       </c>
       <c r="J58" s="3">
-        <v>180800</v>
+        <v>186300</v>
       </c>
       <c r="K58" s="3">
         <v>9000</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1155400</v>
+        <v>1190600</v>
       </c>
       <c r="E59" s="3">
-        <v>1107800</v>
+        <v>1141500</v>
       </c>
       <c r="F59" s="3">
-        <v>1063700</v>
+        <v>1096100</v>
       </c>
       <c r="G59" s="3">
-        <v>1061200</v>
+        <v>1093600</v>
       </c>
       <c r="H59" s="3">
-        <v>871400</v>
+        <v>897900</v>
       </c>
       <c r="I59" s="3">
-        <v>819700</v>
+        <v>844700</v>
       </c>
       <c r="J59" s="3">
-        <v>805300</v>
+        <v>829900</v>
       </c>
       <c r="K59" s="3">
         <v>629600</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1579100</v>
+        <v>1627300</v>
       </c>
       <c r="E60" s="3">
-        <v>1278300</v>
+        <v>1317300</v>
       </c>
       <c r="F60" s="3">
-        <v>1763800</v>
+        <v>1817500</v>
       </c>
       <c r="G60" s="3">
-        <v>1916300</v>
+        <v>1974700</v>
       </c>
       <c r="H60" s="3">
-        <v>1756000</v>
+        <v>1809600</v>
       </c>
       <c r="I60" s="3">
-        <v>1815000</v>
+        <v>1870400</v>
       </c>
       <c r="J60" s="3">
-        <v>1234400</v>
+        <v>1272100</v>
       </c>
       <c r="K60" s="3">
         <v>828100</v>
@@ -2801,25 +2801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9399200</v>
+        <v>9685700</v>
       </c>
       <c r="E61" s="3">
-        <v>9270500</v>
+        <v>9553100</v>
       </c>
       <c r="F61" s="3">
-        <v>7567000</v>
+        <v>7797700</v>
       </c>
       <c r="G61" s="3">
-        <v>8211100</v>
+        <v>8461400</v>
       </c>
       <c r="H61" s="3">
-        <v>7890500</v>
+        <v>8131100</v>
       </c>
       <c r="I61" s="3">
-        <v>7408700</v>
+        <v>7634600</v>
       </c>
       <c r="J61" s="3">
-        <v>5684700</v>
+        <v>5858100</v>
       </c>
       <c r="K61" s="3">
         <v>5179500</v>
@@ -2845,25 +2845,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2449800</v>
+        <v>2524500</v>
       </c>
       <c r="E62" s="3">
-        <v>2475100</v>
+        <v>2550500</v>
       </c>
       <c r="F62" s="3">
-        <v>2409700</v>
+        <v>2483200</v>
       </c>
       <c r="G62" s="3">
-        <v>2554900</v>
+        <v>2632800</v>
       </c>
       <c r="H62" s="3">
-        <v>2606800</v>
+        <v>2686300</v>
       </c>
       <c r="I62" s="3">
-        <v>2415800</v>
+        <v>2489500</v>
       </c>
       <c r="J62" s="3">
-        <v>2430700</v>
+        <v>2504800</v>
       </c>
       <c r="K62" s="3">
         <v>2082700</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15676200</v>
+        <v>16154100</v>
       </c>
       <c r="E66" s="3">
-        <v>15336200</v>
+        <v>15803700</v>
       </c>
       <c r="F66" s="3">
-        <v>14121800</v>
+        <v>14552400</v>
       </c>
       <c r="G66" s="3">
-        <v>14978000</v>
+        <v>15434600</v>
       </c>
       <c r="H66" s="3">
-        <v>14577500</v>
+        <v>15021900</v>
       </c>
       <c r="I66" s="3">
-        <v>12937100</v>
+        <v>13331500</v>
       </c>
       <c r="J66" s="3">
-        <v>10365500</v>
+        <v>10681500</v>
       </c>
       <c r="K66" s="3">
         <v>9133300</v>
@@ -3171,25 +3171,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>238200</v>
+        <v>245400</v>
       </c>
       <c r="E70" s="3">
-        <v>238200</v>
+        <v>245400</v>
       </c>
       <c r="F70" s="3">
-        <v>238200</v>
+        <v>245400</v>
       </c>
       <c r="G70" s="3">
-        <v>238200</v>
+        <v>245400</v>
       </c>
       <c r="H70" s="3">
-        <v>238200</v>
+        <v>245400</v>
       </c>
       <c r="I70" s="3">
-        <v>238200</v>
+        <v>245400</v>
       </c>
       <c r="J70" s="3">
-        <v>238200</v>
+        <v>245400</v>
       </c>
       <c r="K70" s="3">
         <v>240400</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-614400</v>
+        <v>-633100</v>
       </c>
       <c r="E72" s="3">
-        <v>-408200</v>
+        <v>-420700</v>
       </c>
       <c r="F72" s="3">
-        <v>-372800</v>
+        <v>-384100</v>
       </c>
       <c r="G72" s="3">
-        <v>-444600</v>
+        <v>-458100</v>
       </c>
       <c r="H72" s="3">
-        <v>-265900</v>
+        <v>-274000</v>
       </c>
       <c r="I72" s="3">
-        <v>-52100</v>
+        <v>-53700</v>
       </c>
       <c r="J72" s="3">
-        <v>59100</v>
+        <v>60900</v>
       </c>
       <c r="K72" s="3">
         <v>-472900</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7010000</v>
+        <v>7223700</v>
       </c>
       <c r="E76" s="3">
-        <v>7262200</v>
+        <v>7483600</v>
       </c>
       <c r="F76" s="3">
-        <v>7334000</v>
+        <v>7557600</v>
       </c>
       <c r="G76" s="3">
-        <v>6365500</v>
+        <v>6559600</v>
       </c>
       <c r="H76" s="3">
-        <v>6449100</v>
+        <v>6645700</v>
       </c>
       <c r="I76" s="3">
-        <v>6580500</v>
+        <v>6781200</v>
       </c>
       <c r="J76" s="3">
-        <v>6486900</v>
+        <v>6684700</v>
       </c>
       <c r="K76" s="3">
         <v>5939800</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46000</v>
+        <v>-47400</v>
       </c>
       <c r="E81" s="3">
-        <v>114700</v>
+        <v>118200</v>
       </c>
       <c r="F81" s="3">
-        <v>224100</v>
+        <v>230900</v>
       </c>
       <c r="G81" s="3">
-        <v>-39000</v>
+        <v>-40200</v>
       </c>
       <c r="H81" s="3">
-        <v>130500</v>
+        <v>134400</v>
       </c>
       <c r="I81" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="J81" s="3">
-        <v>648800</v>
+        <v>668600</v>
       </c>
       <c r="K81" s="3">
         <v>70100</v>
@@ -3634,25 +3634,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>145500</v>
+        <v>149900</v>
       </c>
       <c r="E83" s="3">
-        <v>155000</v>
+        <v>159800</v>
       </c>
       <c r="F83" s="3">
-        <v>143200</v>
+        <v>147600</v>
       </c>
       <c r="G83" s="3">
-        <v>124800</v>
+        <v>128600</v>
       </c>
       <c r="H83" s="3">
-        <v>126900</v>
+        <v>130700</v>
       </c>
       <c r="I83" s="3">
-        <v>125900</v>
+        <v>129800</v>
       </c>
       <c r="J83" s="3">
-        <v>113800</v>
+        <v>117300</v>
       </c>
       <c r="K83" s="3">
         <v>93300</v>
@@ -3898,25 +3898,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>347200</v>
+        <v>357800</v>
       </c>
       <c r="E89" s="3">
-        <v>214800</v>
+        <v>221400</v>
       </c>
       <c r="F89" s="3">
-        <v>163500</v>
+        <v>168500</v>
       </c>
       <c r="G89" s="3">
-        <v>221200</v>
+        <v>228000</v>
       </c>
       <c r="H89" s="3">
-        <v>133500</v>
+        <v>137600</v>
       </c>
       <c r="I89" s="3">
-        <v>-314700</v>
+        <v>-324300</v>
       </c>
       <c r="J89" s="3">
-        <v>224900</v>
+        <v>231700</v>
       </c>
       <c r="K89" s="3">
         <v>158400</v>
@@ -3960,25 +3960,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-492200</v>
+        <v>-507200</v>
       </c>
       <c r="E91" s="3">
-        <v>-423500</v>
+        <v>-436400</v>
       </c>
       <c r="F91" s="3">
-        <v>-379800</v>
+        <v>-391400</v>
       </c>
       <c r="G91" s="3">
-        <v>-449800</v>
+        <v>-463500</v>
       </c>
       <c r="H91" s="3">
-        <v>-527000</v>
+        <v>-543000</v>
       </c>
       <c r="I91" s="3">
-        <v>-381800</v>
+        <v>-393400</v>
       </c>
       <c r="J91" s="3">
-        <v>-337400</v>
+        <v>-347700</v>
       </c>
       <c r="K91" s="3">
         <v>-238300</v>
@@ -4092,25 +4092,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-569000</v>
+        <v>-586300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1302200</v>
+        <v>-1341900</v>
       </c>
       <c r="F94" s="3">
-        <v>91800</v>
+        <v>94600</v>
       </c>
       <c r="G94" s="3">
-        <v>-612700</v>
+        <v>-631400</v>
       </c>
       <c r="H94" s="3">
-        <v>-822400</v>
+        <v>-847500</v>
       </c>
       <c r="I94" s="3">
-        <v>-980500</v>
+        <v>-1010400</v>
       </c>
       <c r="J94" s="3">
-        <v>-617500</v>
+        <v>-636300</v>
       </c>
       <c r="K94" s="3">
         <v>-398100</v>
@@ -4154,25 +4154,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-121700</v>
+        <v>-125400</v>
       </c>
       <c r="E96" s="3">
-        <v>-120700</v>
+        <v>-124400</v>
       </c>
       <c r="F96" s="3">
-        <v>-108800</v>
+        <v>-112100</v>
       </c>
       <c r="G96" s="3">
-        <v>-106200</v>
+        <v>-109400</v>
       </c>
       <c r="H96" s="3">
-        <v>-91500</v>
+        <v>-94300</v>
       </c>
       <c r="I96" s="3">
-        <v>-90500</v>
+        <v>-93200</v>
       </c>
       <c r="J96" s="3">
-        <v>-87000</v>
+        <v>-89700</v>
       </c>
       <c r="K96" s="3">
         <v>-83300</v>
@@ -4330,25 +4330,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>230000</v>
+        <v>237000</v>
       </c>
       <c r="E100" s="3">
-        <v>1038800</v>
+        <v>1070500</v>
       </c>
       <c r="F100" s="3">
-        <v>-333400</v>
+        <v>-343600</v>
       </c>
       <c r="G100" s="3">
-        <v>371000</v>
+        <v>382300</v>
       </c>
       <c r="H100" s="3">
-        <v>776400</v>
+        <v>800100</v>
       </c>
       <c r="I100" s="3">
-        <v>1349100</v>
+        <v>1390200</v>
       </c>
       <c r="J100" s="3">
-        <v>116900</v>
+        <v>120500</v>
       </c>
       <c r="K100" s="3">
         <v>572600</v>
@@ -4374,16 +4374,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H101" s="3">
         <v>600</v>
@@ -4418,25 +4418,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E102" s="3">
-        <v>-47900</v>
+        <v>-49300</v>
       </c>
       <c r="F102" s="3">
-        <v>-79400</v>
+        <v>-81800</v>
       </c>
       <c r="G102" s="3">
-        <v>-22100</v>
+        <v>-22800</v>
       </c>
       <c r="H102" s="3">
-        <v>88100</v>
+        <v>90800</v>
       </c>
       <c r="I102" s="3">
-        <v>53900</v>
+        <v>55600</v>
       </c>
       <c r="J102" s="3">
-        <v>-277800</v>
+        <v>-286300</v>
       </c>
       <c r="K102" s="3">
         <v>338000</v>

--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>AQN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>831400</v>
+        <v>921800</v>
       </c>
       <c r="E8" s="3">
-        <v>979800</v>
+        <v>863200</v>
       </c>
       <c r="F8" s="3">
-        <v>792200</v>
+        <v>1017300</v>
       </c>
       <c r="G8" s="3">
-        <v>704000</v>
+        <v>822400</v>
       </c>
       <c r="H8" s="3">
-        <v>702500</v>
+        <v>730900</v>
       </c>
       <c r="I8" s="3">
-        <v>845000</v>
+        <v>729400</v>
       </c>
       <c r="J8" s="3">
+        <v>877300</v>
+      </c>
+      <c r="K8" s="3">
         <v>655800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>490600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>448200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>592200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>558700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>468900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>440700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>502500</v>
+        <v>558900</v>
       </c>
       <c r="E9" s="3">
-        <v>614600</v>
+        <v>521700</v>
       </c>
       <c r="F9" s="3">
-        <v>479800</v>
+        <v>638100</v>
       </c>
       <c r="G9" s="3">
-        <v>402100</v>
+        <v>498100</v>
       </c>
       <c r="H9" s="3">
-        <v>432100</v>
+        <v>417500</v>
       </c>
       <c r="I9" s="3">
-        <v>578800</v>
+        <v>448600</v>
       </c>
       <c r="J9" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K9" s="3">
         <v>370700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>256800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>247300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>324800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>305600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>258400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>251800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>329000</v>
+        <v>362900</v>
       </c>
       <c r="E10" s="3">
-        <v>365200</v>
+        <v>341500</v>
       </c>
       <c r="F10" s="3">
-        <v>312400</v>
+        <v>379200</v>
       </c>
       <c r="G10" s="3">
-        <v>301900</v>
+        <v>324300</v>
       </c>
       <c r="H10" s="3">
-        <v>270400</v>
+        <v>313400</v>
       </c>
       <c r="I10" s="3">
-        <v>266200</v>
+        <v>280800</v>
       </c>
       <c r="J10" s="3">
+        <v>276400</v>
+      </c>
+      <c r="K10" s="3">
         <v>285100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>233800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>267400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>253100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>210500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="E14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
-        <v>-25700</v>
-      </c>
       <c r="G14" s="3">
-        <v>2300</v>
+        <v>-26600</v>
       </c>
       <c r="H14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
-        <v>2800</v>
-      </c>
       <c r="J14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K14" s="3">
         <v>10700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>8200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>149900</v>
+        <v>149600</v>
       </c>
       <c r="E15" s="3">
-        <v>159800</v>
+        <v>155600</v>
       </c>
       <c r="F15" s="3">
-        <v>147600</v>
+        <v>165900</v>
       </c>
       <c r="G15" s="3">
-        <v>128600</v>
+        <v>153200</v>
       </c>
       <c r="H15" s="3">
-        <v>130700</v>
+        <v>133500</v>
       </c>
       <c r="I15" s="3">
-        <v>129800</v>
+        <v>135700</v>
       </c>
       <c r="J15" s="3">
+        <v>134700</v>
+      </c>
+      <c r="K15" s="3">
         <v>117300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>93300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>98700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>98900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>84400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>692900</v>
+        <v>743600</v>
       </c>
       <c r="E17" s="3">
-        <v>799200</v>
+        <v>719400</v>
       </c>
       <c r="F17" s="3">
-        <v>626700</v>
+        <v>829800</v>
       </c>
       <c r="G17" s="3">
-        <v>554900</v>
+        <v>650600</v>
       </c>
       <c r="H17" s="3">
-        <v>590000</v>
+        <v>576100</v>
       </c>
       <c r="I17" s="3">
-        <v>733200</v>
+        <v>612500</v>
       </c>
       <c r="J17" s="3">
+        <v>761200</v>
+      </c>
+      <c r="K17" s="3">
         <v>519800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>370600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>390500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>439300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>436000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>364400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>138600</v>
+        <v>178300</v>
       </c>
       <c r="E18" s="3">
-        <v>180600</v>
+        <v>143900</v>
       </c>
       <c r="F18" s="3">
-        <v>165500</v>
+        <v>187500</v>
       </c>
       <c r="G18" s="3">
-        <v>149100</v>
+        <v>171800</v>
       </c>
       <c r="H18" s="3">
-        <v>112500</v>
+        <v>154800</v>
       </c>
       <c r="I18" s="3">
-        <v>111800</v>
+        <v>116800</v>
       </c>
       <c r="J18" s="3">
+        <v>116100</v>
+      </c>
+      <c r="K18" s="3">
         <v>135900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>57600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>122700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-166000</v>
+        <v>-388200</v>
       </c>
       <c r="E20" s="3">
-        <v>-20800</v>
+        <v>-172300</v>
       </c>
       <c r="F20" s="3">
-        <v>94800</v>
+        <v>-21500</v>
       </c>
       <c r="G20" s="3">
-        <v>-158600</v>
+        <v>98400</v>
       </c>
       <c r="H20" s="3">
-        <v>72400</v>
+        <v>-164700</v>
       </c>
       <c r="I20" s="3">
-        <v>-79000</v>
+        <v>75200</v>
       </c>
       <c r="J20" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="K20" s="3">
         <v>640900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>418100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-212500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>147600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>125100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>122500</v>
+        <v>-60300</v>
       </c>
       <c r="E21" s="3">
-        <v>319600</v>
+        <v>127200</v>
       </c>
       <c r="F21" s="3">
-        <v>407900</v>
+        <v>331800</v>
       </c>
       <c r="G21" s="3">
-        <v>119100</v>
+        <v>423500</v>
       </c>
       <c r="H21" s="3">
-        <v>315700</v>
+        <v>123600</v>
       </c>
       <c r="I21" s="3">
-        <v>162500</v>
+        <v>327800</v>
       </c>
       <c r="J21" s="3">
+        <v>168800</v>
+      </c>
+      <c r="K21" s="3">
         <v>894100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>188800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>574400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>369200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>314000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>86000</v>
+        <v>103800</v>
       </c>
       <c r="E22" s="3">
-        <v>77200</v>
+        <v>89300</v>
       </c>
       <c r="F22" s="3">
-        <v>66800</v>
+        <v>80100</v>
       </c>
       <c r="G22" s="3">
-        <v>68800</v>
+        <v>69300</v>
       </c>
       <c r="H22" s="3">
-        <v>77500</v>
+        <v>71400</v>
       </c>
       <c r="I22" s="3">
-        <v>66000</v>
+        <v>80400</v>
       </c>
       <c r="J22" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K22" s="3">
         <v>60300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-113400</v>
+        <v>-313700</v>
       </c>
       <c r="E23" s="3">
-        <v>82600</v>
+        <v>-117700</v>
       </c>
       <c r="F23" s="3">
-        <v>193500</v>
+        <v>85800</v>
       </c>
       <c r="G23" s="3">
-        <v>-78300</v>
+        <v>200900</v>
       </c>
       <c r="H23" s="3">
-        <v>107500</v>
+        <v>-81300</v>
       </c>
       <c r="I23" s="3">
-        <v>-33300</v>
+        <v>111600</v>
       </c>
       <c r="J23" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="K23" s="3">
         <v>716500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>417300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-118600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>209900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>171000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>215700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-30400</v>
+        <v>-27000</v>
       </c>
       <c r="E24" s="3">
-        <v>12600</v>
+        <v>-31600</v>
       </c>
       <c r="F24" s="3">
-        <v>2400</v>
+        <v>13100</v>
       </c>
       <c r="G24" s="3">
-        <v>-25800</v>
+        <v>2500</v>
       </c>
       <c r="H24" s="3">
-        <v>-5600</v>
+        <v>-26800</v>
       </c>
       <c r="I24" s="3">
-        <v>-28800</v>
+        <v>-5800</v>
       </c>
       <c r="J24" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="K24" s="3">
         <v>68000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-83000</v>
+        <v>-286700</v>
       </c>
       <c r="E26" s="3">
-        <v>70100</v>
+        <v>-86200</v>
       </c>
       <c r="F26" s="3">
-        <v>191100</v>
+        <v>72700</v>
       </c>
       <c r="G26" s="3">
-        <v>-52500</v>
+        <v>198400</v>
       </c>
       <c r="H26" s="3">
-        <v>113100</v>
+        <v>-54500</v>
       </c>
       <c r="I26" s="3">
-        <v>-4400</v>
+        <v>117400</v>
       </c>
       <c r="J26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K26" s="3">
         <v>648500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>356100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-101100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>194000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>142900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-47400</v>
+        <v>-272900</v>
       </c>
       <c r="E27" s="3">
-        <v>118200</v>
+        <v>-49200</v>
       </c>
       <c r="F27" s="3">
-        <v>230900</v>
+        <v>122700</v>
       </c>
       <c r="G27" s="3">
-        <v>-40200</v>
+        <v>239700</v>
       </c>
       <c r="H27" s="3">
-        <v>134400</v>
+        <v>-41700</v>
       </c>
       <c r="I27" s="3">
-        <v>15600</v>
+        <v>139600</v>
       </c>
       <c r="J27" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K27" s="3">
         <v>668600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>70100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>370700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-84000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>216500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>145700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,8 +1661,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1609,17 +1670,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>166000</v>
+        <v>388200</v>
       </c>
       <c r="E32" s="3">
-        <v>20800</v>
+        <v>172300</v>
       </c>
       <c r="F32" s="3">
-        <v>-94800</v>
+        <v>21500</v>
       </c>
       <c r="G32" s="3">
-        <v>158600</v>
+        <v>-98400</v>
       </c>
       <c r="H32" s="3">
-        <v>-72400</v>
+        <v>164700</v>
       </c>
       <c r="I32" s="3">
-        <v>79000</v>
+        <v>-75200</v>
       </c>
       <c r="J32" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-640900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-418100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>212500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-147600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-125100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-194900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-47400</v>
+        <v>-272900</v>
       </c>
       <c r="E33" s="3">
-        <v>118200</v>
+        <v>-49200</v>
       </c>
       <c r="F33" s="3">
-        <v>230900</v>
+        <v>122700</v>
       </c>
       <c r="G33" s="3">
-        <v>-40200</v>
+        <v>239700</v>
       </c>
       <c r="H33" s="3">
-        <v>134400</v>
+        <v>-41700</v>
       </c>
       <c r="I33" s="3">
-        <v>15600</v>
+        <v>139600</v>
       </c>
       <c r="J33" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K33" s="3">
         <v>668600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>70100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>370700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-84000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>216500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>145700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-47400</v>
+        <v>-272900</v>
       </c>
       <c r="E35" s="3">
-        <v>118200</v>
+        <v>-49200</v>
       </c>
       <c r="F35" s="3">
-        <v>230900</v>
+        <v>122700</v>
       </c>
       <c r="G35" s="3">
-        <v>-40200</v>
+        <v>239700</v>
       </c>
       <c r="H35" s="3">
-        <v>134400</v>
+        <v>-41700</v>
       </c>
       <c r="I35" s="3">
-        <v>15600</v>
+        <v>139600</v>
       </c>
       <c r="J35" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K35" s="3">
         <v>668600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>70100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>370700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-84000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>216500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>145700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113200</v>
+        <v>158100</v>
       </c>
       <c r="E41" s="3">
-        <v>124100</v>
+        <v>117500</v>
       </c>
       <c r="F41" s="3">
-        <v>166700</v>
+        <v>128900</v>
       </c>
       <c r="G41" s="3">
-        <v>254200</v>
+        <v>173100</v>
       </c>
       <c r="H41" s="3">
-        <v>271000</v>
+        <v>263900</v>
       </c>
       <c r="I41" s="3">
-        <v>189800</v>
+        <v>281400</v>
       </c>
       <c r="J41" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K41" s="3">
         <v>135300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>415000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>251500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>146800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2145,340 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>460100</v>
+        <v>483600</v>
       </c>
       <c r="E43" s="3">
-        <v>448600</v>
+        <v>477700</v>
       </c>
       <c r="F43" s="3">
-        <v>400500</v>
+        <v>465700</v>
       </c>
       <c r="G43" s="3">
-        <v>345900</v>
+        <v>415800</v>
       </c>
       <c r="H43" s="3">
-        <v>341200</v>
+        <v>359100</v>
       </c>
       <c r="I43" s="3">
-        <v>395300</v>
+        <v>354200</v>
       </c>
       <c r="J43" s="3">
+        <v>410400</v>
+      </c>
+      <c r="K43" s="3">
         <v>312100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>204000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>195500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>234700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>227800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>182100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>154900</v>
+        <v>169500</v>
       </c>
       <c r="E44" s="3">
-        <v>148300</v>
+        <v>160800</v>
       </c>
       <c r="F44" s="3">
-        <v>137900</v>
+        <v>154000</v>
       </c>
       <c r="G44" s="3">
-        <v>133200</v>
+        <v>143200</v>
       </c>
       <c r="H44" s="3">
-        <v>144500</v>
+        <v>138300</v>
       </c>
       <c r="I44" s="3">
-        <v>142800</v>
+        <v>150000</v>
       </c>
       <c r="J44" s="3">
+        <v>148200</v>
+      </c>
+      <c r="K44" s="3">
         <v>138600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>106500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>106000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>76800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>75400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>530500</v>
+        <v>662900</v>
       </c>
       <c r="E45" s="3">
-        <v>546300</v>
+        <v>550800</v>
       </c>
       <c r="F45" s="3">
-        <v>545100</v>
+        <v>567200</v>
       </c>
       <c r="G45" s="3">
-        <v>489100</v>
+        <v>565900</v>
       </c>
       <c r="H45" s="3">
-        <v>363900</v>
+        <v>507800</v>
       </c>
       <c r="I45" s="3">
-        <v>343300</v>
+        <v>377800</v>
       </c>
       <c r="J45" s="3">
+        <v>356500</v>
+      </c>
+      <c r="K45" s="3">
         <v>339500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>266000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>228200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>243800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>269500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>232500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>235400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1258700</v>
+        <v>1474200</v>
       </c>
       <c r="E46" s="3">
-        <v>1267400</v>
+        <v>1306800</v>
       </c>
       <c r="F46" s="3">
-        <v>1250200</v>
+        <v>1315800</v>
       </c>
       <c r="G46" s="3">
-        <v>1222300</v>
+        <v>1298000</v>
       </c>
       <c r="H46" s="3">
-        <v>1120600</v>
+        <v>1269100</v>
       </c>
       <c r="I46" s="3">
-        <v>1071200</v>
+        <v>1163500</v>
       </c>
       <c r="J46" s="3">
+        <v>1112100</v>
+      </c>
+      <c r="K46" s="3">
         <v>925500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>991500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>608400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>816800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>653700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>636800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>597900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2912400</v>
+        <v>2663700</v>
       </c>
       <c r="E47" s="3">
-        <v>3065500</v>
+        <v>3023700</v>
       </c>
       <c r="F47" s="3">
-        <v>3122100</v>
+        <v>3182600</v>
       </c>
       <c r="G47" s="3">
-        <v>2939500</v>
+        <v>3241400</v>
       </c>
       <c r="H47" s="3">
-        <v>2972800</v>
+        <v>3051800</v>
       </c>
       <c r="I47" s="3">
-        <v>3017800</v>
+        <v>3086400</v>
       </c>
       <c r="J47" s="3">
+        <v>3133100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2732900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2303900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2146300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1650600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1803800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1764600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15824200</v>
+        <v>16459900</v>
       </c>
       <c r="E48" s="3">
-        <v>15675600</v>
+        <v>16428900</v>
       </c>
       <c r="F48" s="3">
-        <v>14706300</v>
+        <v>16274700</v>
       </c>
       <c r="G48" s="3">
-        <v>14780800</v>
+        <v>15268400</v>
       </c>
       <c r="H48" s="3">
-        <v>14523600</v>
+        <v>15345700</v>
       </c>
       <c r="I48" s="3">
-        <v>13016300</v>
+        <v>15078700</v>
       </c>
       <c r="J48" s="3">
+        <v>13513800</v>
+      </c>
+      <c r="K48" s="3">
         <v>10976500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9499200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9317200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8927000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9211700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8837100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1862000</v>
+        <v>1922100</v>
       </c>
       <c r="E49" s="3">
-        <v>1877200</v>
+        <v>1933200</v>
       </c>
       <c r="F49" s="3">
-        <v>1739800</v>
+        <v>1949000</v>
       </c>
       <c r="G49" s="3">
-        <v>1747500</v>
+        <v>1806300</v>
       </c>
       <c r="H49" s="3">
-        <v>1761300</v>
+        <v>1814300</v>
       </c>
       <c r="I49" s="3">
-        <v>1764500</v>
+        <v>1828600</v>
       </c>
       <c r="J49" s="3">
+        <v>1832000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1762400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1411800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1404200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1368400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1374800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1286400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1295400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1766000</v>
+        <v>1889400</v>
       </c>
       <c r="E52" s="3">
-        <v>1647100</v>
+        <v>1833500</v>
       </c>
       <c r="F52" s="3">
-        <v>1536900</v>
+        <v>1710100</v>
       </c>
       <c r="G52" s="3">
-        <v>1549500</v>
+        <v>1595600</v>
       </c>
       <c r="H52" s="3">
-        <v>1534600</v>
+        <v>1608700</v>
       </c>
       <c r="I52" s="3">
-        <v>1488300</v>
+        <v>1593300</v>
       </c>
       <c r="J52" s="3">
+        <v>1545100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1214300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1107100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1117600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1122400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>855000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1094900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23623300</v>
+        <v>24409300</v>
       </c>
       <c r="E54" s="3">
-        <v>23532700</v>
+        <v>24526200</v>
       </c>
       <c r="F54" s="3">
-        <v>22355400</v>
+        <v>24432100</v>
       </c>
       <c r="G54" s="3">
-        <v>22239700</v>
+        <v>23209800</v>
       </c>
       <c r="H54" s="3">
-        <v>21913000</v>
+        <v>23089600</v>
       </c>
       <c r="I54" s="3">
-        <v>20358100</v>
+        <v>22750500</v>
       </c>
       <c r="J54" s="3">
+        <v>21136100</v>
+      </c>
+      <c r="K54" s="3">
         <v>17611600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15313600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14593700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13885200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13899000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13619800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12870000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>193600</v>
+        <v>185400</v>
       </c>
       <c r="E57" s="3">
-        <v>151400</v>
+        <v>201000</v>
       </c>
       <c r="F57" s="3">
-        <v>246800</v>
+        <v>157200</v>
       </c>
       <c r="G57" s="3">
-        <v>193000</v>
+        <v>256200</v>
       </c>
       <c r="H57" s="3">
-        <v>223000</v>
+        <v>200400</v>
       </c>
       <c r="I57" s="3">
-        <v>198800</v>
+        <v>231600</v>
       </c>
       <c r="J57" s="3">
+        <v>206400</v>
+      </c>
+      <c r="K57" s="3">
         <v>255900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>189500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>121300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>91500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>191500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>97600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>243000</v>
+        <v>638600</v>
       </c>
       <c r="E58" s="3">
-        <v>24400</v>
+        <v>252300</v>
       </c>
       <c r="F58" s="3">
-        <v>474600</v>
+        <v>25300</v>
       </c>
       <c r="G58" s="3">
-        <v>688200</v>
+        <v>492800</v>
       </c>
       <c r="H58" s="3">
-        <v>688600</v>
+        <v>714500</v>
       </c>
       <c r="I58" s="3">
-        <v>826900</v>
+        <v>714900</v>
       </c>
       <c r="J58" s="3">
+        <v>858500</v>
+      </c>
+      <c r="K58" s="3">
         <v>186300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>289400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>205100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>286600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>270100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1190600</v>
+        <v>1233700</v>
       </c>
       <c r="E59" s="3">
-        <v>1141500</v>
+        <v>1236100</v>
       </c>
       <c r="F59" s="3">
-        <v>1096100</v>
+        <v>1185100</v>
       </c>
       <c r="G59" s="3">
-        <v>1093600</v>
+        <v>1138000</v>
       </c>
       <c r="H59" s="3">
-        <v>897900</v>
+        <v>1135400</v>
       </c>
       <c r="I59" s="3">
-        <v>844700</v>
+        <v>932200</v>
       </c>
       <c r="J59" s="3">
+        <v>877000</v>
+      </c>
+      <c r="K59" s="3">
         <v>829900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>629600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>566300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>604700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>632700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>502400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1627300</v>
+        <v>2057700</v>
       </c>
       <c r="E60" s="3">
-        <v>1317300</v>
+        <v>1689400</v>
       </c>
       <c r="F60" s="3">
-        <v>1817500</v>
+        <v>1367600</v>
       </c>
       <c r="G60" s="3">
-        <v>1974700</v>
+        <v>1887000</v>
       </c>
       <c r="H60" s="3">
-        <v>1809600</v>
+        <v>2050200</v>
       </c>
       <c r="I60" s="3">
-        <v>1870400</v>
+        <v>1878700</v>
       </c>
       <c r="J60" s="3">
+        <v>1941900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1272100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>828100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>977000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>901300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1110800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>870100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>582600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9685700</v>
+        <v>10015000</v>
       </c>
       <c r="E61" s="3">
-        <v>9553100</v>
+        <v>10055900</v>
       </c>
       <c r="F61" s="3">
-        <v>7797700</v>
+        <v>9918200</v>
       </c>
       <c r="G61" s="3">
-        <v>8461400</v>
+        <v>8095700</v>
       </c>
       <c r="H61" s="3">
-        <v>8131100</v>
+        <v>8784800</v>
       </c>
       <c r="I61" s="3">
-        <v>7634600</v>
+        <v>8441800</v>
       </c>
       <c r="J61" s="3">
+        <v>7926400</v>
+      </c>
+      <c r="K61" s="3">
         <v>5858100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5179500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5130100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5150900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4721800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5214600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4839900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2524500</v>
+        <v>2571600</v>
       </c>
       <c r="E62" s="3">
-        <v>2550500</v>
+        <v>2621000</v>
       </c>
       <c r="F62" s="3">
-        <v>2483200</v>
+        <v>2648000</v>
       </c>
       <c r="G62" s="3">
-        <v>2632800</v>
+        <v>2578100</v>
       </c>
       <c r="H62" s="3">
-        <v>2686300</v>
+        <v>2733500</v>
       </c>
       <c r="I62" s="3">
-        <v>2489500</v>
+        <v>2789000</v>
       </c>
       <c r="J62" s="3">
+        <v>2584600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2504800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2082700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2153500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2057100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2030700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2015400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1989000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16154100</v>
+        <v>17016600</v>
       </c>
       <c r="E66" s="3">
-        <v>15803700</v>
+        <v>16771500</v>
       </c>
       <c r="F66" s="3">
-        <v>14552400</v>
+        <v>16407700</v>
       </c>
       <c r="G66" s="3">
-        <v>15434600</v>
+        <v>15108500</v>
       </c>
       <c r="H66" s="3">
-        <v>15021900</v>
+        <v>16024500</v>
       </c>
       <c r="I66" s="3">
-        <v>13331500</v>
+        <v>15596000</v>
       </c>
       <c r="J66" s="3">
+        <v>13841000</v>
+      </c>
+      <c r="K66" s="3">
         <v>10681500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9133300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9323800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9171200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8963000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9245200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8575900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,52 +3330,58 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="K70" s="3">
         <v>245400</v>
-      </c>
-      <c r="E70" s="3">
-        <v>245400</v>
-      </c>
-      <c r="F70" s="3">
-        <v>245400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>245400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>245400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>245400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>245400</v>
-      </c>
-      <c r="K70" s="3">
-        <v>240400</v>
       </c>
       <c r="L70" s="3">
         <v>240400</v>
       </c>
       <c r="M70" s="3">
-        <v>234800</v>
+        <v>240400</v>
       </c>
       <c r="N70" s="3">
         <v>234800</v>
       </c>
       <c r="O70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="P70" s="3">
         <v>236400</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>236400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-633100</v>
+        <v>-1101200</v>
       </c>
       <c r="E72" s="3">
-        <v>-420700</v>
+        <v>-657300</v>
       </c>
       <c r="F72" s="3">
-        <v>-384100</v>
+        <v>-436800</v>
       </c>
       <c r="G72" s="3">
-        <v>-458100</v>
+        <v>-398800</v>
       </c>
       <c r="H72" s="3">
-        <v>-274000</v>
+        <v>-475600</v>
       </c>
       <c r="I72" s="3">
-        <v>-53700</v>
+        <v>-284500</v>
       </c>
       <c r="J72" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="K72" s="3">
         <v>60900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-472900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-421800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-664000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-467600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-593700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-640500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7223700</v>
+        <v>7137800</v>
       </c>
       <c r="E76" s="3">
-        <v>7483600</v>
+        <v>7499800</v>
       </c>
       <c r="F76" s="3">
-        <v>7557600</v>
+        <v>7769600</v>
       </c>
       <c r="G76" s="3">
-        <v>6559600</v>
+        <v>7846400</v>
       </c>
       <c r="H76" s="3">
-        <v>6645700</v>
+        <v>6810300</v>
       </c>
       <c r="I76" s="3">
-        <v>6781200</v>
+        <v>6899700</v>
       </c>
       <c r="J76" s="3">
+        <v>7040300</v>
+      </c>
+      <c r="K76" s="3">
         <v>6684700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5939800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5029500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4479200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4701300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4138200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4057800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-47400</v>
+        <v>-272900</v>
       </c>
       <c r="E81" s="3">
-        <v>118200</v>
+        <v>-49200</v>
       </c>
       <c r="F81" s="3">
-        <v>230900</v>
+        <v>122700</v>
       </c>
       <c r="G81" s="3">
-        <v>-40200</v>
+        <v>239700</v>
       </c>
       <c r="H81" s="3">
-        <v>134400</v>
+        <v>-41700</v>
       </c>
       <c r="I81" s="3">
-        <v>15600</v>
+        <v>139600</v>
       </c>
       <c r="J81" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K81" s="3">
         <v>668600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>70100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>370700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-84000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>216500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>145700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>149900</v>
+        <v>149600</v>
       </c>
       <c r="E83" s="3">
-        <v>159800</v>
+        <v>155600</v>
       </c>
       <c r="F83" s="3">
-        <v>147600</v>
+        <v>165900</v>
       </c>
       <c r="G83" s="3">
-        <v>128600</v>
+        <v>153200</v>
       </c>
       <c r="H83" s="3">
-        <v>130700</v>
+        <v>133500</v>
       </c>
       <c r="I83" s="3">
-        <v>129800</v>
+        <v>135700</v>
       </c>
       <c r="J83" s="3">
+        <v>134700</v>
+      </c>
+      <c r="K83" s="3">
         <v>117300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>98700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>98900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>84400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>357800</v>
+        <v>-42000</v>
       </c>
       <c r="E89" s="3">
-        <v>221400</v>
+        <v>371500</v>
       </c>
       <c r="F89" s="3">
-        <v>168500</v>
+        <v>229800</v>
       </c>
       <c r="G89" s="3">
-        <v>228000</v>
+        <v>174900</v>
       </c>
       <c r="H89" s="3">
-        <v>137600</v>
+        <v>236700</v>
       </c>
       <c r="I89" s="3">
-        <v>-324300</v>
+        <v>142800</v>
       </c>
       <c r="J89" s="3">
+        <v>-336700</v>
+      </c>
+      <c r="K89" s="3">
         <v>231700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>158400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>186400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>85200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>213300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>241200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-507200</v>
+        <v>-260800</v>
       </c>
       <c r="E91" s="3">
-        <v>-436400</v>
+        <v>-526600</v>
       </c>
       <c r="F91" s="3">
-        <v>-391400</v>
+        <v>-453100</v>
       </c>
       <c r="G91" s="3">
-        <v>-463500</v>
+        <v>-406300</v>
       </c>
       <c r="H91" s="3">
-        <v>-543000</v>
+        <v>-481200</v>
       </c>
       <c r="I91" s="3">
-        <v>-393400</v>
+        <v>-563800</v>
       </c>
       <c r="J91" s="3">
+        <v>-408400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-347700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-238300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-243100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-198600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-226800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-244000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-135500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-586300</v>
+        <v>-261800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1341900</v>
+        <v>-608700</v>
       </c>
       <c r="F94" s="3">
-        <v>94600</v>
+        <v>-1393200</v>
       </c>
       <c r="G94" s="3">
-        <v>-631400</v>
+        <v>98200</v>
       </c>
       <c r="H94" s="3">
-        <v>-847500</v>
+        <v>-655500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1010400</v>
+        <v>-879800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1049100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-636300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-398100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-311700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-264900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-471200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-412700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-125400</v>
+        <v>-130500</v>
       </c>
       <c r="E96" s="3">
-        <v>-124400</v>
+        <v>-130200</v>
       </c>
       <c r="F96" s="3">
-        <v>-112100</v>
+        <v>-129100</v>
       </c>
       <c r="G96" s="3">
-        <v>-109400</v>
+        <v>-116400</v>
       </c>
       <c r="H96" s="3">
-        <v>-94300</v>
+        <v>-113600</v>
       </c>
       <c r="I96" s="3">
-        <v>-93200</v>
+        <v>-97900</v>
       </c>
       <c r="J96" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-89700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-83300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-85100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-73000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-67000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-66100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>237000</v>
+        <v>345800</v>
       </c>
       <c r="E100" s="3">
-        <v>1070500</v>
+        <v>246000</v>
       </c>
       <c r="F100" s="3">
-        <v>-343600</v>
+        <v>1111400</v>
       </c>
       <c r="G100" s="3">
-        <v>382300</v>
+        <v>-356700</v>
       </c>
       <c r="H100" s="3">
-        <v>800100</v>
+        <v>396900</v>
       </c>
       <c r="I100" s="3">
-        <v>1390200</v>
+        <v>830600</v>
       </c>
       <c r="J100" s="3">
+        <v>1443400</v>
+      </c>
+      <c r="K100" s="3">
         <v>120500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>572600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-57200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>358300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-132000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>566100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3200</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>800</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>600</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5200</v>
+        <v>40000</v>
       </c>
       <c r="E102" s="3">
-        <v>-49300</v>
+        <v>5400</v>
       </c>
       <c r="F102" s="3">
-        <v>-81800</v>
+        <v>-51200</v>
       </c>
       <c r="G102" s="3">
-        <v>-22800</v>
+        <v>-84900</v>
       </c>
       <c r="H102" s="3">
-        <v>90800</v>
+        <v>-23600</v>
       </c>
       <c r="I102" s="3">
-        <v>55600</v>
+        <v>94300</v>
       </c>
       <c r="J102" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-286300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>338000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-178900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>172800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-389000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>394100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>AQN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>921800</v>
+        <v>1051100</v>
       </c>
       <c r="E8" s="3">
-        <v>863200</v>
+        <v>997000</v>
       </c>
       <c r="F8" s="3">
-        <v>1017300</v>
+        <v>900000</v>
       </c>
       <c r="G8" s="3">
-        <v>822400</v>
+        <v>842800</v>
       </c>
       <c r="H8" s="3">
-        <v>730900</v>
+        <v>989800</v>
       </c>
       <c r="I8" s="3">
+        <v>803000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>713600</v>
+      </c>
+      <c r="K8" s="3">
         <v>729400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>877300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>655800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>490600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>448200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>592200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>558700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>468900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>440700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>558900</v>
+        <v>668600</v>
       </c>
       <c r="E9" s="3">
-        <v>521700</v>
+        <v>641200</v>
       </c>
       <c r="F9" s="3">
-        <v>638100</v>
+        <v>545700</v>
       </c>
       <c r="G9" s="3">
-        <v>498100</v>
+        <v>509300</v>
       </c>
       <c r="H9" s="3">
-        <v>417500</v>
+        <v>620300</v>
       </c>
       <c r="I9" s="3">
+        <v>486300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>407600</v>
+      </c>
+      <c r="K9" s="3">
         <v>448600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>370700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>256800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>247300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>324800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>305600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>258400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>251800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>362900</v>
+        <v>382500</v>
       </c>
       <c r="E10" s="3">
-        <v>341500</v>
+        <v>355700</v>
       </c>
       <c r="F10" s="3">
-        <v>379200</v>
+        <v>354300</v>
       </c>
       <c r="G10" s="3">
-        <v>324300</v>
+        <v>333500</v>
       </c>
       <c r="H10" s="3">
-        <v>313400</v>
+        <v>369500</v>
       </c>
       <c r="I10" s="3">
+        <v>316600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>306000</v>
+      </c>
+      <c r="K10" s="3">
         <v>280800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>276400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>285100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>233800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>267400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>253100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>210500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1022,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9500</v>
+        <v>3700</v>
       </c>
       <c r="E14" s="3">
-        <v>8100</v>
+        <v>236600</v>
       </c>
       <c r="F14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2400</v>
-      </c>
       <c r="I14" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>10700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>19400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>8200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>164200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>146100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>151900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>162000</v>
+      </c>
+      <c r="I15" s="3">
         <v>149600</v>
       </c>
-      <c r="E15" s="3">
-        <v>155600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>165900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>153200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>133500</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
+        <v>130300</v>
+      </c>
+      <c r="K15" s="3">
         <v>135700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>134700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>117300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>93300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>98700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>100500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>98900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>84400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>743600</v>
+        <v>862500</v>
       </c>
       <c r="E17" s="3">
-        <v>719400</v>
+        <v>1077800</v>
       </c>
       <c r="F17" s="3">
-        <v>829800</v>
+        <v>726000</v>
       </c>
       <c r="G17" s="3">
-        <v>650600</v>
+        <v>702300</v>
       </c>
       <c r="H17" s="3">
-        <v>576100</v>
+        <v>807500</v>
       </c>
       <c r="I17" s="3">
+        <v>635200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>562500</v>
+      </c>
+      <c r="K17" s="3">
         <v>612500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>761200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>519800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>370600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>390500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>439300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>436000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>364400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>178300</v>
+        <v>188600</v>
       </c>
       <c r="E18" s="3">
-        <v>143900</v>
+        <v>-80800</v>
       </c>
       <c r="F18" s="3">
-        <v>187500</v>
+        <v>174100</v>
       </c>
       <c r="G18" s="3">
-        <v>171800</v>
+        <v>140500</v>
       </c>
       <c r="H18" s="3">
-        <v>154800</v>
+        <v>182300</v>
       </c>
       <c r="I18" s="3">
+        <v>167700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K18" s="3">
         <v>116800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>116100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>135900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>119900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>57600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>152800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>122700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>104500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-388200</v>
+        <v>292300</v>
       </c>
       <c r="E20" s="3">
-        <v>-172300</v>
+        <v>28500</v>
       </c>
       <c r="F20" s="3">
-        <v>-21500</v>
+        <v>-379000</v>
       </c>
       <c r="G20" s="3">
-        <v>98400</v>
+        <v>-168200</v>
       </c>
       <c r="H20" s="3">
-        <v>-164700</v>
+        <v>-20300</v>
       </c>
       <c r="I20" s="3">
+        <v>96100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-160800</v>
+      </c>
+      <c r="K20" s="3">
         <v>75200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-82100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>640900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-24500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>418100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-212500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>147600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>125100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-60300</v>
+        <v>645100</v>
       </c>
       <c r="E21" s="3">
-        <v>127200</v>
+        <v>102700</v>
       </c>
       <c r="F21" s="3">
-        <v>331800</v>
+        <v>-58900</v>
       </c>
       <c r="G21" s="3">
-        <v>423500</v>
+        <v>124200</v>
       </c>
       <c r="H21" s="3">
-        <v>123600</v>
+        <v>323900</v>
       </c>
       <c r="I21" s="3">
+        <v>413400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K21" s="3">
         <v>327800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>168800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>894100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>188800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>574400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>40800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>369200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>314000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>103800</v>
+        <v>110600</v>
       </c>
       <c r="E22" s="3">
-        <v>89300</v>
+        <v>109400</v>
       </c>
       <c r="F22" s="3">
-        <v>80100</v>
+        <v>101300</v>
       </c>
       <c r="G22" s="3">
-        <v>69300</v>
+        <v>87200</v>
       </c>
       <c r="H22" s="3">
-        <v>71400</v>
+        <v>78200</v>
       </c>
       <c r="I22" s="3">
+        <v>67700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K22" s="3">
         <v>80400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>68600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>60300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>59400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>58500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>58900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>60300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>58600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-313700</v>
+        <v>370300</v>
       </c>
       <c r="E23" s="3">
-        <v>-117700</v>
+        <v>-161600</v>
       </c>
       <c r="F23" s="3">
-        <v>85800</v>
+        <v>-306200</v>
       </c>
       <c r="G23" s="3">
-        <v>200900</v>
+        <v>-114900</v>
       </c>
       <c r="H23" s="3">
-        <v>-81300</v>
+        <v>83800</v>
       </c>
       <c r="I23" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="K23" s="3">
         <v>111600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-34500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>716500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>36000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>417300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-118600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>209900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>171000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>215700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-27000</v>
+        <v>33300</v>
       </c>
       <c r="E24" s="3">
-        <v>-31600</v>
+        <v>-38700</v>
       </c>
       <c r="F24" s="3">
-        <v>13100</v>
+        <v>-26300</v>
       </c>
       <c r="G24" s="3">
-        <v>2500</v>
+        <v>-30800</v>
       </c>
       <c r="H24" s="3">
-        <v>-26800</v>
+        <v>12800</v>
       </c>
       <c r="I24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-5800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-29900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>68000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-25700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>61200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-17500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>15900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>28200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-286700</v>
+        <v>337000</v>
       </c>
       <c r="E26" s="3">
-        <v>-86200</v>
+        <v>-123000</v>
       </c>
       <c r="F26" s="3">
-        <v>72700</v>
+        <v>-279900</v>
       </c>
       <c r="G26" s="3">
-        <v>198400</v>
+        <v>-84100</v>
       </c>
       <c r="H26" s="3">
-        <v>-54500</v>
+        <v>71000</v>
       </c>
       <c r="I26" s="3">
+        <v>193700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="K26" s="3">
         <v>117400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>648500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>61700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>356100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-101100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>194000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>142900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-272900</v>
+        <v>361900</v>
       </c>
       <c r="E27" s="3">
-        <v>-49200</v>
+        <v>-103300</v>
       </c>
       <c r="F27" s="3">
-        <v>122700</v>
+        <v>-266400</v>
       </c>
       <c r="G27" s="3">
-        <v>239700</v>
+        <v>-48100</v>
       </c>
       <c r="H27" s="3">
-        <v>-41700</v>
+        <v>119800</v>
       </c>
       <c r="I27" s="3">
+        <v>234000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K27" s="3">
         <v>139600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>668600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>70100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>370700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-84000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>216500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>145700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,26 +1785,32 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>388200</v>
+        <v>-292300</v>
       </c>
       <c r="E32" s="3">
-        <v>172300</v>
+        <v>-28500</v>
       </c>
       <c r="F32" s="3">
-        <v>21500</v>
+        <v>379000</v>
       </c>
       <c r="G32" s="3">
-        <v>-98400</v>
+        <v>168200</v>
       </c>
       <c r="H32" s="3">
-        <v>164700</v>
+        <v>20300</v>
       </c>
       <c r="I32" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>160800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-75200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>82100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-640900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>24500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-418100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>212500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-147600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-125100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-194900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-272900</v>
+        <v>361900</v>
       </c>
       <c r="E33" s="3">
-        <v>-49200</v>
+        <v>-103300</v>
       </c>
       <c r="F33" s="3">
-        <v>122700</v>
+        <v>-266400</v>
       </c>
       <c r="G33" s="3">
-        <v>239700</v>
+        <v>-48100</v>
       </c>
       <c r="H33" s="3">
-        <v>-41700</v>
+        <v>119800</v>
       </c>
       <c r="I33" s="3">
+        <v>234000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K33" s="3">
         <v>139600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>668600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>70100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>370700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-84000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>216500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>145700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-272900</v>
+        <v>361900</v>
       </c>
       <c r="E35" s="3">
-        <v>-49200</v>
+        <v>-103300</v>
       </c>
       <c r="F35" s="3">
-        <v>122700</v>
+        <v>-266400</v>
       </c>
       <c r="G35" s="3">
-        <v>239700</v>
+        <v>-48100</v>
       </c>
       <c r="H35" s="3">
-        <v>-41700</v>
+        <v>119800</v>
       </c>
       <c r="I35" s="3">
+        <v>234000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K35" s="3">
         <v>139600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>668600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>70100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>370700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-84000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>216500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>145700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>158100</v>
+        <v>82400</v>
       </c>
       <c r="E41" s="3">
-        <v>117500</v>
+        <v>77800</v>
       </c>
       <c r="F41" s="3">
-        <v>128900</v>
+        <v>154300</v>
       </c>
       <c r="G41" s="3">
-        <v>173100</v>
+        <v>114700</v>
       </c>
       <c r="H41" s="3">
-        <v>263900</v>
+        <v>125800</v>
       </c>
       <c r="I41" s="3">
+        <v>169000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>257600</v>
+      </c>
+      <c r="K41" s="3">
         <v>281400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>197000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>135300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>415000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>78700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>251500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>79600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>146800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>83800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,337 +2327,385 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>483600</v>
+        <v>547900</v>
       </c>
       <c r="E43" s="3">
-        <v>477700</v>
+        <v>511700</v>
       </c>
       <c r="F43" s="3">
-        <v>465700</v>
+        <v>472200</v>
       </c>
       <c r="G43" s="3">
-        <v>415800</v>
+        <v>466400</v>
       </c>
       <c r="H43" s="3">
-        <v>359100</v>
+        <v>454700</v>
       </c>
       <c r="I43" s="3">
+        <v>406000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>350600</v>
+      </c>
+      <c r="K43" s="3">
         <v>354200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>410400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>312100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>204000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>195500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>234700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>227800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>182100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>169500</v>
+        <v>189600</v>
       </c>
       <c r="E44" s="3">
-        <v>160800</v>
+        <v>174900</v>
       </c>
       <c r="F44" s="3">
-        <v>154000</v>
+        <v>165500</v>
       </c>
       <c r="G44" s="3">
-        <v>143200</v>
+        <v>157000</v>
       </c>
       <c r="H44" s="3">
-        <v>138300</v>
+        <v>150400</v>
       </c>
       <c r="I44" s="3">
+        <v>139800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K44" s="3">
         <v>150000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>148200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>138600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>106500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>106000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>86800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>76800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>75400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>662900</v>
+        <v>593400</v>
       </c>
       <c r="E45" s="3">
-        <v>550800</v>
+        <v>713100</v>
       </c>
       <c r="F45" s="3">
-        <v>567200</v>
+        <v>647200</v>
       </c>
       <c r="G45" s="3">
-        <v>565900</v>
+        <v>537800</v>
       </c>
       <c r="H45" s="3">
-        <v>507800</v>
+        <v>553800</v>
       </c>
       <c r="I45" s="3">
+        <v>552600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>495800</v>
+      </c>
+      <c r="K45" s="3">
         <v>377800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>356500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>339500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>266000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>228200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>243800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>269500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>232500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>235400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1474200</v>
+        <v>1413300</v>
       </c>
       <c r="E46" s="3">
-        <v>1306800</v>
+        <v>1477500</v>
       </c>
       <c r="F46" s="3">
-        <v>1315800</v>
+        <v>1439300</v>
       </c>
       <c r="G46" s="3">
-        <v>1298000</v>
+        <v>1275900</v>
       </c>
       <c r="H46" s="3">
-        <v>1269100</v>
+        <v>1284700</v>
       </c>
       <c r="I46" s="3">
+        <v>1267300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1239000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1163500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1112100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>925500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>991500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>608400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>816800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>653700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>636800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>597900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2663700</v>
+        <v>2743200</v>
       </c>
       <c r="E47" s="3">
-        <v>3023700</v>
+        <v>2438800</v>
       </c>
       <c r="F47" s="3">
-        <v>3182600</v>
+        <v>2600700</v>
       </c>
       <c r="G47" s="3">
-        <v>3241400</v>
+        <v>2952200</v>
       </c>
       <c r="H47" s="3">
-        <v>3051800</v>
+        <v>3107300</v>
       </c>
       <c r="I47" s="3">
+        <v>3164800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2979700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3086400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3133100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2732900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2303900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2146300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1650600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1803800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1764600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16459900</v>
+        <v>16266700</v>
       </c>
       <c r="E48" s="3">
-        <v>16428900</v>
+        <v>16125600</v>
       </c>
       <c r="F48" s="3">
-        <v>16274700</v>
+        <v>16070600</v>
       </c>
       <c r="G48" s="3">
-        <v>15268400</v>
+        <v>16040400</v>
       </c>
       <c r="H48" s="3">
-        <v>15345700</v>
+        <v>15889800</v>
       </c>
       <c r="I48" s="3">
+        <v>14907300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14982800</v>
+      </c>
+      <c r="K48" s="3">
         <v>15078700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13513800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10976500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9499200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9317200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8927000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>9211700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8837100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1922100</v>
+        <v>1930600</v>
       </c>
       <c r="E49" s="3">
-        <v>1933200</v>
+        <v>1913300</v>
       </c>
       <c r="F49" s="3">
-        <v>1949000</v>
+        <v>1876600</v>
       </c>
       <c r="G49" s="3">
-        <v>1806300</v>
+        <v>1887500</v>
       </c>
       <c r="H49" s="3">
-        <v>1814300</v>
+        <v>1902900</v>
       </c>
       <c r="I49" s="3">
+        <v>1763600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1771400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1828600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1832000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1762400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1411800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1404200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1368400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1374800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1286400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1295400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1889400</v>
+        <v>1847800</v>
       </c>
       <c r="E52" s="3">
-        <v>1833500</v>
+        <v>1842000</v>
       </c>
       <c r="F52" s="3">
-        <v>1710100</v>
+        <v>1844700</v>
       </c>
       <c r="G52" s="3">
-        <v>1595600</v>
+        <v>1790100</v>
       </c>
       <c r="H52" s="3">
-        <v>1608700</v>
+        <v>1669600</v>
       </c>
       <c r="I52" s="3">
+        <v>1557900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1570700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1593300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1545100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1214300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1107100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1117600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1122400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>855000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1094900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24409300</v>
+        <v>24201600</v>
       </c>
       <c r="E54" s="3">
-        <v>24526200</v>
+        <v>23797300</v>
       </c>
       <c r="F54" s="3">
-        <v>24432100</v>
+        <v>23832000</v>
       </c>
       <c r="G54" s="3">
-        <v>23209800</v>
+        <v>23946100</v>
       </c>
       <c r="H54" s="3">
-        <v>23089600</v>
+        <v>23854300</v>
       </c>
       <c r="I54" s="3">
+        <v>22660900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>22543600</v>
+      </c>
+      <c r="K54" s="3">
         <v>22750500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21136100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17611600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>15313600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14593700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13885200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13899000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>13619800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12870000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>185400</v>
+        <v>194600</v>
       </c>
       <c r="E57" s="3">
-        <v>201000</v>
+        <v>251200</v>
       </c>
       <c r="F57" s="3">
-        <v>157200</v>
+        <v>181000</v>
       </c>
       <c r="G57" s="3">
-        <v>256200</v>
+        <v>196300</v>
       </c>
       <c r="H57" s="3">
-        <v>200400</v>
+        <v>153500</v>
       </c>
       <c r="I57" s="3">
+        <v>250100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K57" s="3">
         <v>231600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>206400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>255900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>189500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>121300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>91500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>191500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>97600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>638600</v>
+        <v>696100</v>
       </c>
       <c r="E58" s="3">
-        <v>252300</v>
+        <v>571400</v>
       </c>
       <c r="F58" s="3">
-        <v>25300</v>
+        <v>623500</v>
       </c>
       <c r="G58" s="3">
-        <v>492800</v>
+        <v>246400</v>
       </c>
       <c r="H58" s="3">
-        <v>714500</v>
+        <v>24700</v>
       </c>
       <c r="I58" s="3">
+        <v>481100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>697600</v>
+      </c>
+      <c r="K58" s="3">
         <v>714900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>858500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>186300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>289400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>205100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>286600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>270100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1233700</v>
+        <v>982800</v>
       </c>
       <c r="E59" s="3">
-        <v>1236100</v>
+        <v>1248900</v>
       </c>
       <c r="F59" s="3">
-        <v>1185100</v>
+        <v>1204500</v>
       </c>
       <c r="G59" s="3">
-        <v>1138000</v>
+        <v>1206900</v>
       </c>
       <c r="H59" s="3">
-        <v>1135400</v>
+        <v>1157100</v>
       </c>
       <c r="I59" s="3">
+        <v>1111100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1108500</v>
+      </c>
+      <c r="K59" s="3">
         <v>932200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>877000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>829900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>629600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>566300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>604700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>632700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>502400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2057700</v>
+        <v>1873500</v>
       </c>
       <c r="E60" s="3">
-        <v>1689400</v>
+        <v>2071500</v>
       </c>
       <c r="F60" s="3">
-        <v>1367600</v>
+        <v>2009000</v>
       </c>
       <c r="G60" s="3">
-        <v>1887000</v>
+        <v>1649500</v>
       </c>
       <c r="H60" s="3">
-        <v>2050200</v>
+        <v>1335300</v>
       </c>
       <c r="I60" s="3">
+        <v>1842400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2001700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1878700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1941900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1272100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>828100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>977000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>901300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1110800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>870100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>582600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10015000</v>
+        <v>9900000</v>
       </c>
       <c r="E61" s="3">
-        <v>10055900</v>
+        <v>9569800</v>
       </c>
       <c r="F61" s="3">
-        <v>9918200</v>
+        <v>9778100</v>
       </c>
       <c r="G61" s="3">
-        <v>8095700</v>
+        <v>9818100</v>
       </c>
       <c r="H61" s="3">
-        <v>8784800</v>
+        <v>9683700</v>
       </c>
       <c r="I61" s="3">
+        <v>7904200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8577000</v>
+      </c>
+      <c r="K61" s="3">
         <v>8441800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7926400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5858100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5179500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5130100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5150900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4721800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5214600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4839900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2571600</v>
+        <v>2472000</v>
       </c>
       <c r="E62" s="3">
-        <v>2621000</v>
+        <v>2495600</v>
       </c>
       <c r="F62" s="3">
-        <v>2648000</v>
+        <v>2510700</v>
       </c>
       <c r="G62" s="3">
-        <v>2578100</v>
+        <v>2559000</v>
       </c>
       <c r="H62" s="3">
-        <v>2733500</v>
+        <v>2585400</v>
       </c>
       <c r="I62" s="3">
+        <v>2517100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2668800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2789000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2584600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2504800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2082700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2153500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2057100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2030700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2015400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1989000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17016600</v>
+        <v>16809300</v>
       </c>
       <c r="E66" s="3">
-        <v>16771500</v>
+        <v>16750800</v>
       </c>
       <c r="F66" s="3">
-        <v>16407700</v>
+        <v>16614200</v>
       </c>
       <c r="G66" s="3">
-        <v>15108500</v>
+        <v>16374900</v>
       </c>
       <c r="H66" s="3">
-        <v>16024500</v>
+        <v>16019700</v>
       </c>
       <c r="I66" s="3">
+        <v>14751200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>15645500</v>
+      </c>
+      <c r="K66" s="3">
         <v>15596000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13841000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10681500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9133300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9323800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9171200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8963000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9245200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8575900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,55 +3662,67 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>248800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>248800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>248800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>248800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>248800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>248800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>248800</v>
+      </c>
+      <c r="K70" s="3">
         <v>254800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="L70" s="3">
         <v>254800</v>
       </c>
-      <c r="F70" s="3">
-        <v>254800</v>
-      </c>
-      <c r="G70" s="3">
-        <v>254800</v>
-      </c>
-      <c r="H70" s="3">
-        <v>254800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>254800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>254800</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>245400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>240400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>240400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>234800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>234800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>236400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>236400</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1101200</v>
+        <v>-1087400</v>
       </c>
       <c r="E72" s="3">
-        <v>-657300</v>
+        <v>-1347200</v>
       </c>
       <c r="F72" s="3">
-        <v>-436800</v>
+        <v>-1075200</v>
       </c>
       <c r="G72" s="3">
-        <v>-398800</v>
+        <v>-641700</v>
       </c>
       <c r="H72" s="3">
-        <v>-475600</v>
+        <v>-426400</v>
       </c>
       <c r="I72" s="3">
+        <v>-389400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-464400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-284500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-55800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>60900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-472900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-421800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-664000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-467600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-593700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-640500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7137800</v>
+        <v>7143500</v>
       </c>
       <c r="E76" s="3">
-        <v>7499800</v>
+        <v>6797700</v>
       </c>
       <c r="F76" s="3">
-        <v>7769600</v>
+        <v>6969000</v>
       </c>
       <c r="G76" s="3">
-        <v>7846400</v>
+        <v>7322500</v>
       </c>
       <c r="H76" s="3">
-        <v>6810300</v>
+        <v>7585800</v>
       </c>
       <c r="I76" s="3">
+        <v>7660800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6649200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6899700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7040300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6684700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5939800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5029500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4479200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4701300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4138200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4057800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-272900</v>
+        <v>361900</v>
       </c>
       <c r="E81" s="3">
-        <v>-49200</v>
+        <v>-103300</v>
       </c>
       <c r="F81" s="3">
-        <v>122700</v>
+        <v>-266400</v>
       </c>
       <c r="G81" s="3">
-        <v>239700</v>
+        <v>-48100</v>
       </c>
       <c r="H81" s="3">
-        <v>-41700</v>
+        <v>119800</v>
       </c>
       <c r="I81" s="3">
+        <v>234000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K81" s="3">
         <v>139600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>668600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>70100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>370700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-84000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>216500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>145700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>164200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>146100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>151900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>162000</v>
+      </c>
+      <c r="I83" s="3">
         <v>149600</v>
       </c>
-      <c r="E83" s="3">
-        <v>155600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>165900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>153200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>133500</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>130300</v>
+      </c>
+      <c r="K83" s="3">
         <v>135700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>134700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>117300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>93300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>98700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>100500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>98900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>84400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-42000</v>
+        <v>46200</v>
       </c>
       <c r="E89" s="3">
-        <v>371500</v>
+        <v>289800</v>
       </c>
       <c r="F89" s="3">
-        <v>229800</v>
+        <v>-41000</v>
       </c>
       <c r="G89" s="3">
-        <v>174900</v>
+        <v>362700</v>
       </c>
       <c r="H89" s="3">
-        <v>236700</v>
+        <v>224400</v>
       </c>
       <c r="I89" s="3">
+        <v>170800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K89" s="3">
         <v>142800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-336700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>231700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>158400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>186400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>85200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>213300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>241200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-260800</v>
+        <v>-169700</v>
       </c>
       <c r="E91" s="3">
-        <v>-526600</v>
+        <v>-191800</v>
       </c>
       <c r="F91" s="3">
-        <v>-453100</v>
+        <v>-188600</v>
       </c>
       <c r="G91" s="3">
-        <v>-406300</v>
+        <v>-380800</v>
       </c>
       <c r="H91" s="3">
-        <v>-481200</v>
+        <v>-327700</v>
       </c>
       <c r="I91" s="3">
+        <v>-293900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-348100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-563800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-408400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-347700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-238300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-243100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-198600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-226800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-135500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-261800</v>
+        <v>-295900</v>
       </c>
       <c r="E94" s="3">
-        <v>-608700</v>
+        <v>-204100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1393200</v>
+        <v>-255600</v>
       </c>
       <c r="G94" s="3">
-        <v>98200</v>
+        <v>-594300</v>
       </c>
       <c r="H94" s="3">
-        <v>-655500</v>
+        <v>-1360300</v>
       </c>
       <c r="I94" s="3">
+        <v>95900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-640000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-879800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1049100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-636300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-398100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-311700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-264900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-471200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-412700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4847,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-130500</v>
       </c>
-      <c r="E96" s="3">
-        <v>-130200</v>
-      </c>
       <c r="F96" s="3">
-        <v>-129100</v>
+        <v>-127400</v>
       </c>
       <c r="G96" s="3">
-        <v>-116400</v>
+        <v>-127100</v>
       </c>
       <c r="H96" s="3">
-        <v>-113600</v>
+        <v>-126100</v>
       </c>
       <c r="I96" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-110900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-97900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-96800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-89700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-83300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-85100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-73000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-67000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-66100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>345800</v>
+        <v>256900</v>
       </c>
       <c r="E100" s="3">
-        <v>246000</v>
+        <v>-164200</v>
       </c>
       <c r="F100" s="3">
-        <v>1111400</v>
+        <v>337700</v>
       </c>
       <c r="G100" s="3">
-        <v>-356700</v>
+        <v>240200</v>
       </c>
       <c r="H100" s="3">
-        <v>396900</v>
+        <v>1085100</v>
       </c>
       <c r="I100" s="3">
+        <v>-348300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>387500</v>
+      </c>
+      <c r="K100" s="3">
         <v>830600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1443400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>120500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>572600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-57200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>358300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-132000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>566100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40000</v>
+        <v>7800</v>
       </c>
       <c r="E102" s="3">
-        <v>5400</v>
+        <v>-75600</v>
       </c>
       <c r="F102" s="3">
-        <v>-51200</v>
+        <v>39000</v>
       </c>
       <c r="G102" s="3">
-        <v>-84900</v>
+        <v>5300</v>
       </c>
       <c r="H102" s="3">
-        <v>-23600</v>
+        <v>-50000</v>
       </c>
       <c r="I102" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K102" s="3">
         <v>94300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>57700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-286300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>338000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-178900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>172800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-389000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>394100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-24200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>AQN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1051100</v>
+        <v>848100</v>
       </c>
       <c r="E8" s="3">
-        <v>997000</v>
+        <v>1051700</v>
       </c>
       <c r="F8" s="3">
-        <v>900000</v>
+        <v>997500</v>
       </c>
       <c r="G8" s="3">
-        <v>842800</v>
+        <v>900500</v>
       </c>
       <c r="H8" s="3">
-        <v>989800</v>
+        <v>843200</v>
       </c>
       <c r="I8" s="3">
-        <v>803000</v>
+        <v>990300</v>
       </c>
       <c r="J8" s="3">
+        <v>803400</v>
+      </c>
+      <c r="K8" s="3">
         <v>713600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>729400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>877300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>655800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>490600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>448200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>592200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>558700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>468900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>440700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>668600</v>
+        <v>518200</v>
       </c>
       <c r="E9" s="3">
-        <v>641200</v>
+        <v>668900</v>
       </c>
       <c r="F9" s="3">
-        <v>545700</v>
+        <v>641600</v>
       </c>
       <c r="G9" s="3">
-        <v>509300</v>
+        <v>546000</v>
       </c>
       <c r="H9" s="3">
-        <v>620300</v>
+        <v>509600</v>
       </c>
       <c r="I9" s="3">
-        <v>486300</v>
+        <v>620700</v>
       </c>
       <c r="J9" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K9" s="3">
         <v>407600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>448600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>370700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>256800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>247300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>324800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>305600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>258400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>251800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>382500</v>
+        <v>329900</v>
       </c>
       <c r="E10" s="3">
-        <v>355700</v>
+        <v>382700</v>
       </c>
       <c r="F10" s="3">
-        <v>354300</v>
+        <v>355900</v>
       </c>
       <c r="G10" s="3">
-        <v>333500</v>
+        <v>354500</v>
       </c>
       <c r="H10" s="3">
-        <v>369500</v>
+        <v>333600</v>
       </c>
       <c r="I10" s="3">
-        <v>316600</v>
+        <v>369700</v>
       </c>
       <c r="J10" s="3">
+        <v>316800</v>
+      </c>
+      <c r="K10" s="3">
         <v>306000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>280800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>276400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>285100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>233800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>267400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>253100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>210500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
-        <v>236600</v>
-      </c>
       <c r="F14" s="3">
-        <v>9200</v>
+        <v>236700</v>
       </c>
       <c r="G14" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H14" s="3">
         <v>7900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-26000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>8200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>164200</v>
+        <v>160000</v>
       </c>
       <c r="E15" s="3">
-        <v>155000</v>
+        <v>164300</v>
       </c>
       <c r="F15" s="3">
-        <v>146100</v>
+        <v>155100</v>
       </c>
       <c r="G15" s="3">
-        <v>151900</v>
+        <v>146200</v>
       </c>
       <c r="H15" s="3">
+        <v>152000</v>
+      </c>
+      <c r="I15" s="3">
         <v>162000</v>
       </c>
-      <c r="I15" s="3">
-        <v>149600</v>
-      </c>
       <c r="J15" s="3">
+        <v>149700</v>
+      </c>
+      <c r="K15" s="3">
         <v>130300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>135700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>134700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>117300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>93300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>98700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>100500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>98900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>84400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>862500</v>
+        <v>764500</v>
       </c>
       <c r="E17" s="3">
-        <v>1077800</v>
+        <v>863000</v>
       </c>
       <c r="F17" s="3">
-        <v>726000</v>
+        <v>1078300</v>
       </c>
       <c r="G17" s="3">
-        <v>702300</v>
+        <v>726300</v>
       </c>
       <c r="H17" s="3">
-        <v>807500</v>
+        <v>702700</v>
       </c>
       <c r="I17" s="3">
-        <v>635200</v>
+        <v>807900</v>
       </c>
       <c r="J17" s="3">
+        <v>635600</v>
+      </c>
+      <c r="K17" s="3">
         <v>562500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>612500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>761200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>519800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>370600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>390500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>439300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>436000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>364400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>188600</v>
+        <v>83600</v>
       </c>
       <c r="E18" s="3">
+        <v>188700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-80800</v>
       </c>
-      <c r="F18" s="3">
-        <v>174100</v>
-      </c>
       <c r="G18" s="3">
+        <v>174200</v>
+      </c>
+      <c r="H18" s="3">
         <v>140500</v>
       </c>
-      <c r="H18" s="3">
-        <v>182300</v>
-      </c>
       <c r="I18" s="3">
-        <v>167700</v>
+        <v>182400</v>
       </c>
       <c r="J18" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K18" s="3">
         <v>151200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>116800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>116100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>135900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>119900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>57600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>152800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>122700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>104500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>292300</v>
+        <v>-392400</v>
       </c>
       <c r="E20" s="3">
+        <v>292500</v>
+      </c>
+      <c r="F20" s="3">
         <v>28500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-379000</v>
-      </c>
       <c r="G20" s="3">
-        <v>-168200</v>
+        <v>-379200</v>
       </c>
       <c r="H20" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-20300</v>
       </c>
-      <c r="I20" s="3">
-        <v>96100</v>
-      </c>
       <c r="J20" s="3">
+        <v>96200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-160800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>75200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-82100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>640900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>418100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-212500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>147600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>125100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>645100</v>
+        <v>-148800</v>
       </c>
       <c r="E21" s="3">
-        <v>102700</v>
+        <v>645500</v>
       </c>
       <c r="F21" s="3">
+        <v>102800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-58900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124200</v>
       </c>
-      <c r="H21" s="3">
-        <v>323900</v>
-      </c>
       <c r="I21" s="3">
-        <v>413400</v>
+        <v>324100</v>
       </c>
       <c r="J21" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K21" s="3">
         <v>120700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>327800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>168800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>894100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>188800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>574400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>40800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>369200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>314000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E22" s="3">
         <v>110600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>109400</v>
       </c>
-      <c r="F22" s="3">
-        <v>101300</v>
-      </c>
       <c r="G22" s="3">
+        <v>101400</v>
+      </c>
+      <c r="H22" s="3">
         <v>87200</v>
       </c>
-      <c r="H22" s="3">
-        <v>78200</v>
-      </c>
       <c r="I22" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J22" s="3">
         <v>67700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>69700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>80400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>68600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>370300</v>
+        <v>-429900</v>
       </c>
       <c r="E23" s="3">
-        <v>-161600</v>
+        <v>370500</v>
       </c>
       <c r="F23" s="3">
-        <v>-306200</v>
+        <v>-161700</v>
       </c>
       <c r="G23" s="3">
-        <v>-114900</v>
+        <v>-306400</v>
       </c>
       <c r="H23" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="I23" s="3">
         <v>83800</v>
       </c>
-      <c r="I23" s="3">
-        <v>196200</v>
-      </c>
       <c r="J23" s="3">
+        <v>196300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-79400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>111600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>716500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>417300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-118600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>209900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>171000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>215700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33300</v>
+        <v>-75600</v>
       </c>
       <c r="E24" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-38700</v>
       </c>
-      <c r="F24" s="3">
-        <v>-26300</v>
-      </c>
       <c r="G24" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="H24" s="3">
         <v>-30800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-26200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-29900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>61200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>337000</v>
+        <v>-354300</v>
       </c>
       <c r="E26" s="3">
+        <v>337100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-123000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-279900</v>
-      </c>
       <c r="G26" s="3">
-        <v>-84100</v>
+        <v>-280000</v>
       </c>
       <c r="H26" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="I26" s="3">
         <v>71000</v>
       </c>
-      <c r="I26" s="3">
-        <v>193700</v>
-      </c>
       <c r="J26" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-53200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>117400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>648500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>61700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>356100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-101100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>194000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>142900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>361900</v>
+        <v>-344800</v>
       </c>
       <c r="E27" s="3">
+        <v>362100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-103300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-266400</v>
-      </c>
       <c r="G27" s="3">
+        <v>-266600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-48100</v>
       </c>
-      <c r="H27" s="3">
-        <v>119800</v>
-      </c>
       <c r="I27" s="3">
-        <v>234000</v>
+        <v>119900</v>
       </c>
       <c r="J27" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-40800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>139600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>668600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>70100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>370700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>216500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>145700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,8 +1852,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1800,17 +1861,20 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-292300</v>
+        <v>392400</v>
       </c>
       <c r="E32" s="3">
+        <v>-292500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-28500</v>
       </c>
-      <c r="F32" s="3">
-        <v>379000</v>
-      </c>
       <c r="G32" s="3">
-        <v>168200</v>
+        <v>379200</v>
       </c>
       <c r="H32" s="3">
+        <v>168300</v>
+      </c>
+      <c r="I32" s="3">
         <v>20300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-96100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-96200</v>
+      </c>
+      <c r="K32" s="3">
         <v>160800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-75200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>82100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-640900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-418100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>212500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-147600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-125100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-194900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>361900</v>
+        <v>-344800</v>
       </c>
       <c r="E33" s="3">
+        <v>362100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-103300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-266400</v>
-      </c>
       <c r="G33" s="3">
+        <v>-266600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-48100</v>
       </c>
-      <c r="H33" s="3">
-        <v>119800</v>
-      </c>
       <c r="I33" s="3">
-        <v>234000</v>
+        <v>119900</v>
       </c>
       <c r="J33" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-40800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>139600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>668600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>70100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>370700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>216500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>145700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>361900</v>
+        <v>-344800</v>
       </c>
       <c r="E35" s="3">
+        <v>362100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-103300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-266400</v>
-      </c>
       <c r="G35" s="3">
+        <v>-266600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-48100</v>
       </c>
-      <c r="H35" s="3">
-        <v>119800</v>
-      </c>
       <c r="I35" s="3">
-        <v>234000</v>
+        <v>119900</v>
       </c>
       <c r="J35" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-40800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>139600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>668600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>70100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>370700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>216500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>145700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82400</v>
+        <v>135400</v>
       </c>
       <c r="E41" s="3">
+        <v>82500</v>
+      </c>
+      <c r="F41" s="3">
         <v>77800</v>
       </c>
-      <c r="F41" s="3">
-        <v>154300</v>
-      </c>
       <c r="G41" s="3">
-        <v>114700</v>
+        <v>154400</v>
       </c>
       <c r="H41" s="3">
-        <v>125800</v>
+        <v>114800</v>
       </c>
       <c r="I41" s="3">
+        <v>125900</v>
+      </c>
+      <c r="J41" s="3">
         <v>169000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>257600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>281400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>197000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>135300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>415000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>78700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>251500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>79600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>146800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>83800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>547900</v>
+        <v>544500</v>
       </c>
       <c r="E43" s="3">
-        <v>511700</v>
+        <v>548200</v>
       </c>
       <c r="F43" s="3">
-        <v>472200</v>
+        <v>512000</v>
       </c>
       <c r="G43" s="3">
-        <v>466400</v>
+        <v>472500</v>
       </c>
       <c r="H43" s="3">
-        <v>454700</v>
+        <v>466600</v>
       </c>
       <c r="I43" s="3">
-        <v>406000</v>
+        <v>454900</v>
       </c>
       <c r="J43" s="3">
+        <v>406200</v>
+      </c>
+      <c r="K43" s="3">
         <v>350600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>354200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>410400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>312100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>204000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>195500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>234700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>227800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>182100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>189600</v>
+        <v>205500</v>
       </c>
       <c r="E44" s="3">
-        <v>174900</v>
+        <v>189700</v>
       </c>
       <c r="F44" s="3">
-        <v>165500</v>
+        <v>175000</v>
       </c>
       <c r="G44" s="3">
-        <v>157000</v>
+        <v>165600</v>
       </c>
       <c r="H44" s="3">
+        <v>157100</v>
+      </c>
+      <c r="I44" s="3">
         <v>150400</v>
       </c>
-      <c r="I44" s="3">
-        <v>139800</v>
-      </c>
       <c r="J44" s="3">
+        <v>139900</v>
+      </c>
+      <c r="K44" s="3">
         <v>135000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>150000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>148200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>138600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>106500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>106000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>86800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>76800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>75400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>593400</v>
+        <v>531500</v>
       </c>
       <c r="E45" s="3">
-        <v>713100</v>
+        <v>593700</v>
       </c>
       <c r="F45" s="3">
-        <v>647200</v>
+        <v>713500</v>
       </c>
       <c r="G45" s="3">
-        <v>537800</v>
+        <v>647600</v>
       </c>
       <c r="H45" s="3">
-        <v>553800</v>
+        <v>538000</v>
       </c>
       <c r="I45" s="3">
-        <v>552600</v>
+        <v>554100</v>
       </c>
       <c r="J45" s="3">
+        <v>552800</v>
+      </c>
+      <c r="K45" s="3">
         <v>495800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>377800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>356500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>339500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>266000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>228200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>243800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>269500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>232500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>235400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1413300</v>
+        <v>1416900</v>
       </c>
       <c r="E46" s="3">
-        <v>1477500</v>
+        <v>1414100</v>
       </c>
       <c r="F46" s="3">
-        <v>1439300</v>
+        <v>1478300</v>
       </c>
       <c r="G46" s="3">
-        <v>1275900</v>
+        <v>1440000</v>
       </c>
       <c r="H46" s="3">
-        <v>1284700</v>
+        <v>1276600</v>
       </c>
       <c r="I46" s="3">
-        <v>1267300</v>
+        <v>1285300</v>
       </c>
       <c r="J46" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1239000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1163500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1112100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>925500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>991500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>608400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>816800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>653700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>636800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>597900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2743200</v>
+        <v>2324200</v>
       </c>
       <c r="E47" s="3">
-        <v>2438800</v>
+        <v>2744600</v>
       </c>
       <c r="F47" s="3">
-        <v>2600700</v>
+        <v>2440100</v>
       </c>
       <c r="G47" s="3">
-        <v>2952200</v>
+        <v>2602100</v>
       </c>
       <c r="H47" s="3">
-        <v>3107300</v>
+        <v>2953800</v>
       </c>
       <c r="I47" s="3">
-        <v>3164800</v>
+        <v>3109000</v>
       </c>
       <c r="J47" s="3">
+        <v>3166400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2979700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3086400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3133100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2732900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2303900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2146300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1650600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1803800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1764600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16266700</v>
+        <v>16663500</v>
       </c>
       <c r="E48" s="3">
-        <v>16125600</v>
+        <v>16275100</v>
       </c>
       <c r="F48" s="3">
-        <v>16070600</v>
+        <v>16134000</v>
       </c>
       <c r="G48" s="3">
-        <v>16040400</v>
+        <v>16078900</v>
       </c>
       <c r="H48" s="3">
-        <v>15889800</v>
+        <v>16048700</v>
       </c>
       <c r="I48" s="3">
-        <v>14907300</v>
+        <v>15898000</v>
       </c>
       <c r="J48" s="3">
+        <v>14915000</v>
+      </c>
+      <c r="K48" s="3">
         <v>14982800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15078700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13513800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10976500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9499200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9317200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8927000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9211700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8837100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1930600</v>
+        <v>1928900</v>
       </c>
       <c r="E49" s="3">
-        <v>1913300</v>
+        <v>1931700</v>
       </c>
       <c r="F49" s="3">
-        <v>1876600</v>
+        <v>1914300</v>
       </c>
       <c r="G49" s="3">
-        <v>1887500</v>
+        <v>1877600</v>
       </c>
       <c r="H49" s="3">
-        <v>1902900</v>
+        <v>1888500</v>
       </c>
       <c r="I49" s="3">
-        <v>1763600</v>
+        <v>1903900</v>
       </c>
       <c r="J49" s="3">
+        <v>1764500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1771400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1828600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1832000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1762400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1411800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1404200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1368400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1374800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1286400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1295400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1847800</v>
+        <v>1936800</v>
       </c>
       <c r="E52" s="3">
-        <v>1842000</v>
+        <v>1848700</v>
       </c>
       <c r="F52" s="3">
-        <v>1844700</v>
+        <v>1843000</v>
       </c>
       <c r="G52" s="3">
-        <v>1790100</v>
+        <v>1845700</v>
       </c>
       <c r="H52" s="3">
-        <v>1669600</v>
+        <v>1791000</v>
       </c>
       <c r="I52" s="3">
-        <v>1557900</v>
+        <v>1670500</v>
       </c>
       <c r="J52" s="3">
+        <v>1558700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1570700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1593300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1545100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1214300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1107100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1117600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1122400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>855000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1094900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24201600</v>
+        <v>24270300</v>
       </c>
       <c r="E54" s="3">
-        <v>23797300</v>
+        <v>24214100</v>
       </c>
       <c r="F54" s="3">
-        <v>23832000</v>
+        <v>23809600</v>
       </c>
       <c r="G54" s="3">
-        <v>23946100</v>
+        <v>23844400</v>
       </c>
       <c r="H54" s="3">
-        <v>23854300</v>
+        <v>23958500</v>
       </c>
       <c r="I54" s="3">
-        <v>22660900</v>
+        <v>23866700</v>
       </c>
       <c r="J54" s="3">
+        <v>22672600</v>
+      </c>
+      <c r="K54" s="3">
         <v>22543600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22750500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21136100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17611600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15313600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14593700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13885200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13899000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13619800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12870000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>194600</v>
+        <v>263200</v>
       </c>
       <c r="E57" s="3">
-        <v>251200</v>
+        <v>194700</v>
       </c>
       <c r="F57" s="3">
-        <v>181000</v>
+        <v>251300</v>
       </c>
       <c r="G57" s="3">
-        <v>196300</v>
+        <v>181100</v>
       </c>
       <c r="H57" s="3">
-        <v>153500</v>
+        <v>196400</v>
       </c>
       <c r="I57" s="3">
-        <v>250100</v>
+        <v>153600</v>
       </c>
       <c r="J57" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K57" s="3">
         <v>195700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>206400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>255900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>189500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>121300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>91500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>191500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>97600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>696100</v>
+        <v>694000</v>
       </c>
       <c r="E58" s="3">
-        <v>571400</v>
+        <v>696400</v>
       </c>
       <c r="F58" s="3">
-        <v>623500</v>
+        <v>571700</v>
       </c>
       <c r="G58" s="3">
-        <v>246400</v>
+        <v>623800</v>
       </c>
       <c r="H58" s="3">
+        <v>246500</v>
+      </c>
+      <c r="I58" s="3">
         <v>24700</v>
       </c>
-      <c r="I58" s="3">
-        <v>481100</v>
-      </c>
       <c r="J58" s="3">
+        <v>481400</v>
+      </c>
+      <c r="K58" s="3">
         <v>697600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>714900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>858500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>186300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>289400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>205100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>286600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>270100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>982800</v>
+        <v>1030300</v>
       </c>
       <c r="E59" s="3">
-        <v>1248900</v>
+        <v>983300</v>
       </c>
       <c r="F59" s="3">
-        <v>1204500</v>
+        <v>1249500</v>
       </c>
       <c r="G59" s="3">
-        <v>1206900</v>
+        <v>1205100</v>
       </c>
       <c r="H59" s="3">
-        <v>1157100</v>
+        <v>1207500</v>
       </c>
       <c r="I59" s="3">
-        <v>1111100</v>
+        <v>1157700</v>
       </c>
       <c r="J59" s="3">
+        <v>1111700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1108500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>932200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>877000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>829900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>629600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>566300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>604700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>632700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>502400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1873500</v>
+        <v>1987500</v>
       </c>
       <c r="E60" s="3">
-        <v>2071500</v>
+        <v>1874400</v>
       </c>
       <c r="F60" s="3">
-        <v>2009000</v>
+        <v>2072600</v>
       </c>
       <c r="G60" s="3">
-        <v>1649500</v>
+        <v>2010100</v>
       </c>
       <c r="H60" s="3">
-        <v>1335300</v>
+        <v>1650400</v>
       </c>
       <c r="I60" s="3">
-        <v>1842400</v>
+        <v>1336000</v>
       </c>
       <c r="J60" s="3">
+        <v>1843300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2001700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1878700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1941900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1272100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>828100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>977000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>901300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1110800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>870100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>582600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9900000</v>
+        <v>10223900</v>
       </c>
       <c r="E61" s="3">
-        <v>9569800</v>
+        <v>9905200</v>
       </c>
       <c r="F61" s="3">
-        <v>9778100</v>
+        <v>9574800</v>
       </c>
       <c r="G61" s="3">
-        <v>9818100</v>
+        <v>9783200</v>
       </c>
       <c r="H61" s="3">
-        <v>9683700</v>
+        <v>9823200</v>
       </c>
       <c r="I61" s="3">
-        <v>7904200</v>
+        <v>9688700</v>
       </c>
       <c r="J61" s="3">
+        <v>7908300</v>
+      </c>
+      <c r="K61" s="3">
         <v>8577000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8441800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7926400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5858100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5179500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5130100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5150900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4721800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5214600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4839900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2472000</v>
+        <v>2395700</v>
       </c>
       <c r="E62" s="3">
-        <v>2495600</v>
+        <v>2473300</v>
       </c>
       <c r="F62" s="3">
-        <v>2510700</v>
+        <v>2496900</v>
       </c>
       <c r="G62" s="3">
-        <v>2559000</v>
+        <v>2512000</v>
       </c>
       <c r="H62" s="3">
-        <v>2585400</v>
+        <v>2560300</v>
       </c>
       <c r="I62" s="3">
-        <v>2517100</v>
+        <v>2586700</v>
       </c>
       <c r="J62" s="3">
+        <v>2518400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2668800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2789000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2584600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2504800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2082700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2153500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2057100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2030700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2015400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1989000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16809300</v>
+        <v>17266400</v>
       </c>
       <c r="E66" s="3">
-        <v>16750800</v>
+        <v>16818000</v>
       </c>
       <c r="F66" s="3">
-        <v>16614200</v>
+        <v>16759400</v>
       </c>
       <c r="G66" s="3">
-        <v>16374900</v>
+        <v>16622800</v>
       </c>
       <c r="H66" s="3">
-        <v>16019700</v>
+        <v>16383400</v>
       </c>
       <c r="I66" s="3">
-        <v>14751200</v>
+        <v>16028000</v>
       </c>
       <c r="J66" s="3">
+        <v>14758900</v>
+      </c>
+      <c r="K66" s="3">
         <v>15645500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15596000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13841000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10681500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9133300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9323800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9171200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8963000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9245200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8575900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,61 +3833,67 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>248900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>248900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>248900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>248900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>248900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>248900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>248900</v>
+      </c>
+      <c r="K70" s="3">
         <v>248800</v>
-      </c>
-      <c r="E70" s="3">
-        <v>248800</v>
-      </c>
-      <c r="F70" s="3">
-        <v>248800</v>
-      </c>
-      <c r="G70" s="3">
-        <v>248800</v>
-      </c>
-      <c r="H70" s="3">
-        <v>248800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>248800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>248800</v>
-      </c>
-      <c r="K70" s="3">
-        <v>254800</v>
       </c>
       <c r="L70" s="3">
         <v>254800</v>
       </c>
       <c r="M70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="N70" s="3">
         <v>245400</v>
-      </c>
-      <c r="N70" s="3">
-        <v>240400</v>
       </c>
       <c r="O70" s="3">
         <v>240400</v>
       </c>
       <c r="P70" s="3">
-        <v>234800</v>
+        <v>240400</v>
       </c>
       <c r="Q70" s="3">
         <v>234800</v>
       </c>
       <c r="R70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="S70" s="3">
         <v>236400</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>236400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1087400</v>
+        <v>-1534700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1347200</v>
+        <v>-1088000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1075200</v>
+        <v>-1347900</v>
       </c>
       <c r="G72" s="3">
-        <v>-641700</v>
+        <v>-1075800</v>
       </c>
       <c r="H72" s="3">
-        <v>-426400</v>
+        <v>-642100</v>
       </c>
       <c r="I72" s="3">
-        <v>-389400</v>
+        <v>-426700</v>
       </c>
       <c r="J72" s="3">
+        <v>-389600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-464400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-284500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-472900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-421800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-664000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-467600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-593700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-640500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7143500</v>
+        <v>6755000</v>
       </c>
       <c r="E76" s="3">
-        <v>6797700</v>
+        <v>7147200</v>
       </c>
       <c r="F76" s="3">
-        <v>6969000</v>
+        <v>6801200</v>
       </c>
       <c r="G76" s="3">
-        <v>7322500</v>
+        <v>6972600</v>
       </c>
       <c r="H76" s="3">
-        <v>7585800</v>
+        <v>7326300</v>
       </c>
       <c r="I76" s="3">
-        <v>7660800</v>
+        <v>7589800</v>
       </c>
       <c r="J76" s="3">
+        <v>7664800</v>
+      </c>
+      <c r="K76" s="3">
         <v>6649200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6899700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7040300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6684700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5939800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5029500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4479200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4701300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4138200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4057800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>361900</v>
+        <v>-344800</v>
       </c>
       <c r="E81" s="3">
+        <v>362100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-103300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-266400</v>
-      </c>
       <c r="G81" s="3">
+        <v>-266600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-48100</v>
       </c>
-      <c r="H81" s="3">
-        <v>119800</v>
-      </c>
       <c r="I81" s="3">
-        <v>234000</v>
+        <v>119900</v>
       </c>
       <c r="J81" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-40800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>139600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>668600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>70100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>370700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>216500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>145700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>164200</v>
+        <v>160000</v>
       </c>
       <c r="E83" s="3">
-        <v>155000</v>
+        <v>164300</v>
       </c>
       <c r="F83" s="3">
-        <v>146100</v>
+        <v>155100</v>
       </c>
       <c r="G83" s="3">
-        <v>151900</v>
+        <v>146200</v>
       </c>
       <c r="H83" s="3">
+        <v>152000</v>
+      </c>
+      <c r="I83" s="3">
         <v>162000</v>
       </c>
-      <c r="I83" s="3">
-        <v>149600</v>
-      </c>
       <c r="J83" s="3">
+        <v>149700</v>
+      </c>
+      <c r="K83" s="3">
         <v>130300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>135700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>134700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>117300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>98700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>98900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>351800</v>
+      </c>
+      <c r="E89" s="3">
         <v>46200</v>
       </c>
-      <c r="E89" s="3">
-        <v>289800</v>
-      </c>
       <c r="F89" s="3">
-        <v>-41000</v>
+        <v>289900</v>
       </c>
       <c r="G89" s="3">
-        <v>362700</v>
+        <v>-41100</v>
       </c>
       <c r="H89" s="3">
-        <v>224400</v>
+        <v>362900</v>
       </c>
       <c r="I89" s="3">
-        <v>170800</v>
+        <v>224500</v>
       </c>
       <c r="J89" s="3">
+        <v>170900</v>
+      </c>
+      <c r="K89" s="3">
         <v>231100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>142800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-336700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>231700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>158400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>186400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>213300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>241200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-245200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-169700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-191800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-188600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-380800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-327700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-293900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-348100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-563800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-408400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-347700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-238300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-243100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-198600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-226800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-244000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-135500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-295900</v>
+        <v>-371900</v>
       </c>
       <c r="E94" s="3">
-        <v>-204100</v>
+        <v>-296100</v>
       </c>
       <c r="F94" s="3">
-        <v>-255600</v>
+        <v>-204200</v>
       </c>
       <c r="G94" s="3">
-        <v>-594300</v>
+        <v>-255800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1360300</v>
+        <v>-594600</v>
       </c>
       <c r="I94" s="3">
+        <v>-1361000</v>
+      </c>
+      <c r="J94" s="3">
         <v>95900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-640000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-879800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1049100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-636300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-398100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-311700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-264900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-471200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-412700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-129500</v>
       </c>
-      <c r="E96" s="3">
-        <v>-130500</v>
-      </c>
       <c r="F96" s="3">
-        <v>-127400</v>
+        <v>-130600</v>
       </c>
       <c r="G96" s="3">
-        <v>-127100</v>
+        <v>-127500</v>
       </c>
       <c r="H96" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-126100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-113700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-110900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-97900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-96800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-89700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-83300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-85100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-67000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-66100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>256900</v>
+        <v>51700</v>
       </c>
       <c r="E100" s="3">
-        <v>-164200</v>
+        <v>257000</v>
       </c>
       <c r="F100" s="3">
-        <v>337700</v>
+        <v>-164300</v>
       </c>
       <c r="G100" s="3">
-        <v>240200</v>
+        <v>337800</v>
       </c>
       <c r="H100" s="3">
-        <v>1085100</v>
+        <v>240300</v>
       </c>
       <c r="I100" s="3">
-        <v>-348300</v>
+        <v>1085700</v>
       </c>
       <c r="J100" s="3">
+        <v>-348500</v>
+      </c>
+      <c r="K100" s="3">
         <v>387500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>830600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1443400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>120500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>572600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-57200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>358300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-132000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>566100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E102" s="3">
         <v>7800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-75600</v>
-      </c>
       <c r="F102" s="3">
-        <v>39000</v>
+        <v>-75700</v>
       </c>
       <c r="G102" s="3">
+        <v>39100</v>
+      </c>
+      <c r="H102" s="3">
         <v>5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50000</v>
       </c>
-      <c r="I102" s="3">
-        <v>-82900</v>
-      </c>
       <c r="J102" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>94300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>57700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-286300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>338000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-178900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>172800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-389000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>394100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AQN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>AQN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>848100</v>
+        <v>859300</v>
       </c>
       <c r="E8" s="3">
-        <v>1051700</v>
+        <v>863700</v>
       </c>
       <c r="F8" s="3">
-        <v>997500</v>
+        <v>1071000</v>
       </c>
       <c r="G8" s="3">
-        <v>900500</v>
+        <v>1015800</v>
       </c>
       <c r="H8" s="3">
-        <v>843200</v>
+        <v>917000</v>
       </c>
       <c r="I8" s="3">
-        <v>990300</v>
+        <v>858700</v>
       </c>
       <c r="J8" s="3">
+        <v>1008500</v>
+      </c>
+      <c r="K8" s="3">
         <v>803400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>713600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>729400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>877300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>655800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>490600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>448200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>592200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>558700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>468900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>440700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>518200</v>
+        <v>497400</v>
       </c>
       <c r="E9" s="3">
-        <v>668900</v>
+        <v>527700</v>
       </c>
       <c r="F9" s="3">
-        <v>641600</v>
+        <v>681200</v>
       </c>
       <c r="G9" s="3">
-        <v>546000</v>
+        <v>653300</v>
       </c>
       <c r="H9" s="3">
-        <v>509600</v>
+        <v>556000</v>
       </c>
       <c r="I9" s="3">
-        <v>620700</v>
+        <v>519000</v>
       </c>
       <c r="J9" s="3">
+        <v>632100</v>
+      </c>
+      <c r="K9" s="3">
         <v>486600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>407600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>448600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>370700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>256800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>247300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>324800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>305600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>258400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>251800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>329900</v>
+        <v>361900</v>
       </c>
       <c r="E10" s="3">
-        <v>382700</v>
+        <v>336000</v>
       </c>
       <c r="F10" s="3">
-        <v>355900</v>
+        <v>389800</v>
       </c>
       <c r="G10" s="3">
-        <v>354500</v>
+        <v>362500</v>
       </c>
       <c r="H10" s="3">
-        <v>333600</v>
+        <v>361000</v>
       </c>
       <c r="I10" s="3">
-        <v>369700</v>
+        <v>339800</v>
       </c>
       <c r="J10" s="3">
+        <v>376500</v>
+      </c>
+      <c r="K10" s="3">
         <v>316800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>306000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>280800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>276400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>285100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>233800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>267400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>253100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>210500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1065,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43000</v>
+        <v>87300</v>
       </c>
       <c r="E14" s="3">
-        <v>3700</v>
+        <v>43800</v>
       </c>
       <c r="F14" s="3">
-        <v>236700</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>9300</v>
+        <v>241000</v>
       </c>
       <c r="H14" s="3">
-        <v>7900</v>
+        <v>9400</v>
       </c>
       <c r="I14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-26000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>8200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>160000</v>
+        <v>144100</v>
       </c>
       <c r="E15" s="3">
-        <v>164300</v>
+        <v>162900</v>
       </c>
       <c r="F15" s="3">
-        <v>155100</v>
+        <v>167300</v>
       </c>
       <c r="G15" s="3">
-        <v>146200</v>
+        <v>157900</v>
       </c>
       <c r="H15" s="3">
-        <v>152000</v>
+        <v>148800</v>
       </c>
       <c r="I15" s="3">
-        <v>162000</v>
+        <v>154800</v>
       </c>
       <c r="J15" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K15" s="3">
         <v>149700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>130300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>135700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>134700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>117300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>93300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>98700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>100500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>98900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>84400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>764500</v>
+        <v>763200</v>
       </c>
       <c r="E17" s="3">
-        <v>863000</v>
+        <v>778500</v>
       </c>
       <c r="F17" s="3">
-        <v>1078300</v>
+        <v>878800</v>
       </c>
       <c r="G17" s="3">
-        <v>726300</v>
+        <v>1098100</v>
       </c>
       <c r="H17" s="3">
-        <v>702700</v>
+        <v>739700</v>
       </c>
       <c r="I17" s="3">
-        <v>807900</v>
+        <v>715600</v>
       </c>
       <c r="J17" s="3">
+        <v>822800</v>
+      </c>
+      <c r="K17" s="3">
         <v>635600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>562500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>612500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>761200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>519800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>370600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>390500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>439300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>436000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>364400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>83600</v>
+        <v>96000</v>
       </c>
       <c r="E18" s="3">
-        <v>188700</v>
+        <v>85200</v>
       </c>
       <c r="F18" s="3">
-        <v>-80800</v>
+        <v>192200</v>
       </c>
       <c r="G18" s="3">
-        <v>174200</v>
+        <v>-82300</v>
       </c>
       <c r="H18" s="3">
-        <v>140500</v>
+        <v>177400</v>
       </c>
       <c r="I18" s="3">
-        <v>182400</v>
+        <v>143100</v>
       </c>
       <c r="J18" s="3">
+        <v>185800</v>
+      </c>
+      <c r="K18" s="3">
         <v>167800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>151200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>116800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>116100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>135900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>119900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>57600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>152800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>122700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>104500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-392400</v>
+        <v>-298200</v>
       </c>
       <c r="E20" s="3">
-        <v>292500</v>
+        <v>-399600</v>
       </c>
       <c r="F20" s="3">
-        <v>28500</v>
+        <v>297800</v>
       </c>
       <c r="G20" s="3">
-        <v>-379200</v>
+        <v>29000</v>
       </c>
       <c r="H20" s="3">
-        <v>-168300</v>
+        <v>-386200</v>
       </c>
       <c r="I20" s="3">
-        <v>-20300</v>
+        <v>-171400</v>
       </c>
       <c r="J20" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="K20" s="3">
         <v>96200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-160800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>75200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-82100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>640900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>418100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-212500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>147600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>125100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-148800</v>
+        <v>-58000</v>
       </c>
       <c r="E21" s="3">
-        <v>645500</v>
+        <v>-151500</v>
       </c>
       <c r="F21" s="3">
-        <v>102800</v>
+        <v>657300</v>
       </c>
       <c r="G21" s="3">
-        <v>-58900</v>
+        <v>104700</v>
       </c>
       <c r="H21" s="3">
-        <v>124200</v>
+        <v>-60000</v>
       </c>
       <c r="I21" s="3">
-        <v>324100</v>
+        <v>126500</v>
       </c>
       <c r="J21" s="3">
+        <v>330100</v>
+      </c>
+      <c r="K21" s="3">
         <v>413700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>120700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>327800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>168800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>894100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>188800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>574400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>40800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>369200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>314000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>121100</v>
+        <v>129500</v>
       </c>
       <c r="E22" s="3">
-        <v>110600</v>
+        <v>123300</v>
       </c>
       <c r="F22" s="3">
-        <v>109400</v>
+        <v>112700</v>
       </c>
       <c r="G22" s="3">
-        <v>101400</v>
+        <v>111400</v>
       </c>
       <c r="H22" s="3">
-        <v>87200</v>
+        <v>103200</v>
       </c>
       <c r="I22" s="3">
-        <v>78300</v>
+        <v>88800</v>
       </c>
       <c r="J22" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K22" s="3">
         <v>67700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>69700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>80400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>68600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>58900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-429900</v>
+        <v>-331700</v>
       </c>
       <c r="E23" s="3">
-        <v>370500</v>
+        <v>-437800</v>
       </c>
       <c r="F23" s="3">
-        <v>-161700</v>
+        <v>377300</v>
       </c>
       <c r="G23" s="3">
-        <v>-306400</v>
+        <v>-164700</v>
       </c>
       <c r="H23" s="3">
-        <v>-115000</v>
+        <v>-312000</v>
       </c>
       <c r="I23" s="3">
-        <v>83800</v>
+        <v>-117100</v>
       </c>
       <c r="J23" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K23" s="3">
         <v>196300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-79400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>111600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>716500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>417300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-118600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>209900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>171000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>215700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-75600</v>
+        <v>-74000</v>
       </c>
       <c r="E24" s="3">
-        <v>33400</v>
+        <v>-77000</v>
       </c>
       <c r="F24" s="3">
-        <v>-38700</v>
+        <v>34000</v>
       </c>
       <c r="G24" s="3">
-        <v>-26400</v>
+        <v>-39400</v>
       </c>
       <c r="H24" s="3">
-        <v>-30800</v>
+        <v>-26800</v>
       </c>
       <c r="I24" s="3">
-        <v>12800</v>
+        <v>-31400</v>
       </c>
       <c r="J24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-26200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-29900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>61200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-17500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-354300</v>
+        <v>-257700</v>
       </c>
       <c r="E26" s="3">
-        <v>337100</v>
+        <v>-360800</v>
       </c>
       <c r="F26" s="3">
-        <v>-123000</v>
+        <v>343300</v>
       </c>
       <c r="G26" s="3">
-        <v>-280000</v>
+        <v>-125300</v>
       </c>
       <c r="H26" s="3">
-        <v>-84200</v>
+        <v>-285200</v>
       </c>
       <c r="I26" s="3">
-        <v>71000</v>
+        <v>-85700</v>
       </c>
       <c r="J26" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K26" s="3">
         <v>193800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-53200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>117400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>648500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>61700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>356100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-101100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>194000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>142900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-344800</v>
+        <v>-243000</v>
       </c>
       <c r="E27" s="3">
-        <v>362100</v>
+        <v>-351200</v>
       </c>
       <c r="F27" s="3">
-        <v>-103300</v>
+        <v>368700</v>
       </c>
       <c r="G27" s="3">
-        <v>-266600</v>
+        <v>-105200</v>
       </c>
       <c r="H27" s="3">
-        <v>-48100</v>
+        <v>-271500</v>
       </c>
       <c r="I27" s="3">
-        <v>119900</v>
+        <v>-49000</v>
       </c>
       <c r="J27" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K27" s="3">
         <v>234200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>139600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>668600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>70100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>370700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-84000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>216500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>145700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,8 +1916,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1864,17 +1925,20 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>392400</v>
+        <v>298200</v>
       </c>
       <c r="E32" s="3">
-        <v>-292500</v>
+        <v>399600</v>
       </c>
       <c r="F32" s="3">
-        <v>-28500</v>
+        <v>-297800</v>
       </c>
       <c r="G32" s="3">
-        <v>379200</v>
+        <v>-29000</v>
       </c>
       <c r="H32" s="3">
-        <v>168300</v>
+        <v>386200</v>
       </c>
       <c r="I32" s="3">
-        <v>20300</v>
+        <v>171400</v>
       </c>
       <c r="J32" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-96200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>160800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-75200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>82100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-640900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-418100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>212500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-147600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-125100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-194900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-344800</v>
+        <v>-243000</v>
       </c>
       <c r="E33" s="3">
-        <v>362100</v>
+        <v>-351200</v>
       </c>
       <c r="F33" s="3">
-        <v>-103300</v>
+        <v>368700</v>
       </c>
       <c r="G33" s="3">
-        <v>-266600</v>
+        <v>-105200</v>
       </c>
       <c r="H33" s="3">
-        <v>-48100</v>
+        <v>-271500</v>
       </c>
       <c r="I33" s="3">
-        <v>119900</v>
+        <v>-49000</v>
       </c>
       <c r="J33" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K33" s="3">
         <v>234200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-40800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>139600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>668600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>70100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>370700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-84000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>216500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>145700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-344800</v>
+        <v>-243000</v>
       </c>
       <c r="E35" s="3">
-        <v>362100</v>
+        <v>-351200</v>
       </c>
       <c r="F35" s="3">
-        <v>-103300</v>
+        <v>368700</v>
       </c>
       <c r="G35" s="3">
-        <v>-266600</v>
+        <v>-105200</v>
       </c>
       <c r="H35" s="3">
-        <v>-48100</v>
+        <v>-271500</v>
       </c>
       <c r="I35" s="3">
-        <v>119900</v>
+        <v>-49000</v>
       </c>
       <c r="J35" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K35" s="3">
         <v>234200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-40800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>139600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>668600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>70100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>370700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-84000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>216500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>145700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>135400</v>
+        <v>130400</v>
       </c>
       <c r="E41" s="3">
-        <v>82500</v>
+        <v>137900</v>
       </c>
       <c r="F41" s="3">
-        <v>77800</v>
+        <v>84000</v>
       </c>
       <c r="G41" s="3">
-        <v>154400</v>
+        <v>79300</v>
       </c>
       <c r="H41" s="3">
-        <v>114800</v>
+        <v>157200</v>
       </c>
       <c r="I41" s="3">
-        <v>125900</v>
+        <v>116900</v>
       </c>
       <c r="J41" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K41" s="3">
         <v>169000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>257600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>281400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>197000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>135300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>415000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>78700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>251500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>79600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>146800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>83800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2516,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>544500</v>
+        <v>471300</v>
       </c>
       <c r="E43" s="3">
-        <v>548200</v>
+        <v>554500</v>
       </c>
       <c r="F43" s="3">
-        <v>512000</v>
+        <v>558300</v>
       </c>
       <c r="G43" s="3">
-        <v>472500</v>
+        <v>521400</v>
       </c>
       <c r="H43" s="3">
-        <v>466600</v>
+        <v>481100</v>
       </c>
       <c r="I43" s="3">
-        <v>454900</v>
+        <v>475200</v>
       </c>
       <c r="J43" s="3">
+        <v>463300</v>
+      </c>
+      <c r="K43" s="3">
         <v>406200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>350600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>354200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>410400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>312100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>204000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>195500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>234700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>227800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>182100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>205500</v>
+        <v>211500</v>
       </c>
       <c r="E44" s="3">
-        <v>189700</v>
+        <v>209200</v>
       </c>
       <c r="F44" s="3">
-        <v>175000</v>
+        <v>193100</v>
       </c>
       <c r="G44" s="3">
-        <v>165600</v>
+        <v>178200</v>
       </c>
       <c r="H44" s="3">
-        <v>157100</v>
+        <v>168600</v>
       </c>
       <c r="I44" s="3">
-        <v>150400</v>
+        <v>159900</v>
       </c>
       <c r="J44" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K44" s="3">
         <v>139900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>135000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>150000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>148200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>138600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>106500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>106000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>86800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>76800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>75400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>73900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>531500</v>
+        <v>563500</v>
       </c>
       <c r="E45" s="3">
-        <v>593700</v>
+        <v>541300</v>
       </c>
       <c r="F45" s="3">
-        <v>713500</v>
+        <v>604600</v>
       </c>
       <c r="G45" s="3">
-        <v>647600</v>
+        <v>726600</v>
       </c>
       <c r="H45" s="3">
-        <v>538000</v>
+        <v>659500</v>
       </c>
       <c r="I45" s="3">
-        <v>554100</v>
+        <v>547900</v>
       </c>
       <c r="J45" s="3">
+        <v>564200</v>
+      </c>
+      <c r="K45" s="3">
         <v>552800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>495800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>377800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>356500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>339500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>266000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>228200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>243800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>269500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>232500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>235400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1416900</v>
+        <v>1376600</v>
       </c>
       <c r="E46" s="3">
-        <v>1414100</v>
+        <v>1442900</v>
       </c>
       <c r="F46" s="3">
-        <v>1478300</v>
+        <v>1440000</v>
       </c>
       <c r="G46" s="3">
-        <v>1440000</v>
+        <v>1505500</v>
       </c>
       <c r="H46" s="3">
-        <v>1276600</v>
+        <v>1466500</v>
       </c>
       <c r="I46" s="3">
-        <v>1285300</v>
+        <v>1300000</v>
       </c>
       <c r="J46" s="3">
+        <v>1308900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1268000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1239000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1163500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1112100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>925500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>991500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>608400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>816800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>653700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>636800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>597900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2324200</v>
+        <v>2164200</v>
       </c>
       <c r="E47" s="3">
-        <v>2744600</v>
+        <v>2366900</v>
       </c>
       <c r="F47" s="3">
-        <v>2440100</v>
+        <v>2795000</v>
       </c>
       <c r="G47" s="3">
-        <v>2602100</v>
+        <v>2484900</v>
       </c>
       <c r="H47" s="3">
-        <v>2953800</v>
+        <v>2649900</v>
       </c>
       <c r="I47" s="3">
-        <v>3109000</v>
+        <v>3008000</v>
       </c>
       <c r="J47" s="3">
+        <v>3166000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3166400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2979700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3086400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3133100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2732900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2303900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2146300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1650600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1803800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1764600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16663500</v>
+        <v>17124000</v>
       </c>
       <c r="E48" s="3">
-        <v>16275100</v>
+        <v>16969400</v>
       </c>
       <c r="F48" s="3">
-        <v>16134000</v>
+        <v>16573900</v>
       </c>
       <c r="G48" s="3">
-        <v>16078900</v>
+        <v>16430200</v>
       </c>
       <c r="H48" s="3">
-        <v>16048700</v>
+        <v>16374100</v>
       </c>
       <c r="I48" s="3">
-        <v>15898000</v>
+        <v>16343400</v>
       </c>
       <c r="J48" s="3">
+        <v>16189900</v>
+      </c>
+      <c r="K48" s="3">
         <v>14915000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14982800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15078700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13513800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10976500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9499200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9317200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8927000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9211700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8837100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1928900</v>
+        <v>1945400</v>
       </c>
       <c r="E49" s="3">
-        <v>1931700</v>
+        <v>1964300</v>
       </c>
       <c r="F49" s="3">
-        <v>1914300</v>
+        <v>1967100</v>
       </c>
       <c r="G49" s="3">
-        <v>1877600</v>
+        <v>1949400</v>
       </c>
       <c r="H49" s="3">
-        <v>1888500</v>
+        <v>1912100</v>
       </c>
       <c r="I49" s="3">
-        <v>1903900</v>
+        <v>1923100</v>
       </c>
       <c r="J49" s="3">
+        <v>1938800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1764500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1771400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1828600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1832000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1762400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1411800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1404200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1368400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1374800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1286400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1295400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1936800</v>
+        <v>2125100</v>
       </c>
       <c r="E52" s="3">
-        <v>1848700</v>
+        <v>1972400</v>
       </c>
       <c r="F52" s="3">
-        <v>1843000</v>
+        <v>1882700</v>
       </c>
       <c r="G52" s="3">
-        <v>1845700</v>
+        <v>1876800</v>
       </c>
       <c r="H52" s="3">
-        <v>1791000</v>
+        <v>1879600</v>
       </c>
       <c r="I52" s="3">
-        <v>1670500</v>
+        <v>1823900</v>
       </c>
       <c r="J52" s="3">
+        <v>1701200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1558700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1570700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1593300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1545100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1214300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1107100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1117600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1122400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>855000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1094900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24270300</v>
+        <v>24735300</v>
       </c>
       <c r="E54" s="3">
-        <v>24214100</v>
+        <v>24716000</v>
       </c>
       <c r="F54" s="3">
-        <v>23809600</v>
+        <v>24658700</v>
       </c>
       <c r="G54" s="3">
-        <v>23844400</v>
+        <v>24246800</v>
       </c>
       <c r="H54" s="3">
-        <v>23958500</v>
+        <v>24282200</v>
       </c>
       <c r="I54" s="3">
-        <v>23866700</v>
+        <v>24398400</v>
       </c>
       <c r="J54" s="3">
+        <v>24304900</v>
+      </c>
+      <c r="K54" s="3">
         <v>22672600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22543600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22750500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21136100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17611600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15313600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14593700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13885200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13899000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13619800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12870000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>263200</v>
+        <v>251100</v>
       </c>
       <c r="E57" s="3">
-        <v>194700</v>
+        <v>268000</v>
       </c>
       <c r="F57" s="3">
-        <v>251300</v>
+        <v>198300</v>
       </c>
       <c r="G57" s="3">
-        <v>181100</v>
+        <v>256000</v>
       </c>
       <c r="H57" s="3">
-        <v>196400</v>
+        <v>184400</v>
       </c>
       <c r="I57" s="3">
-        <v>153600</v>
+        <v>200000</v>
       </c>
       <c r="J57" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K57" s="3">
         <v>250300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>195700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>231600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>206400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>255900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>189500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>121300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>91500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>191500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>97600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>694000</v>
+        <v>798500</v>
       </c>
       <c r="E58" s="3">
-        <v>696400</v>
+        <v>706700</v>
       </c>
       <c r="F58" s="3">
-        <v>571700</v>
+        <v>709200</v>
       </c>
       <c r="G58" s="3">
-        <v>623800</v>
+        <v>582200</v>
       </c>
       <c r="H58" s="3">
-        <v>246500</v>
+        <v>635300</v>
       </c>
       <c r="I58" s="3">
-        <v>24700</v>
+        <v>251000</v>
       </c>
       <c r="J58" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K58" s="3">
         <v>481400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>697600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>714900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>858500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>186300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>289400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>205100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>286600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>270100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1030300</v>
+        <v>1021800</v>
       </c>
       <c r="E59" s="3">
-        <v>983300</v>
+        <v>1049300</v>
       </c>
       <c r="F59" s="3">
-        <v>1249500</v>
+        <v>1001400</v>
       </c>
       <c r="G59" s="3">
-        <v>1205100</v>
+        <v>1272500</v>
       </c>
       <c r="H59" s="3">
-        <v>1207500</v>
+        <v>1227200</v>
       </c>
       <c r="I59" s="3">
-        <v>1157700</v>
+        <v>1229700</v>
       </c>
       <c r="J59" s="3">
+        <v>1179000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1111700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1108500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>932200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>877000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>829900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>629600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>566300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>604700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>632700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>502400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1987500</v>
+        <v>2071400</v>
       </c>
       <c r="E60" s="3">
-        <v>1874400</v>
+        <v>2024000</v>
       </c>
       <c r="F60" s="3">
-        <v>2072600</v>
+        <v>1908900</v>
       </c>
       <c r="G60" s="3">
-        <v>2010100</v>
+        <v>2110600</v>
       </c>
       <c r="H60" s="3">
-        <v>1650400</v>
+        <v>2047000</v>
       </c>
       <c r="I60" s="3">
-        <v>1336000</v>
+        <v>1680700</v>
       </c>
       <c r="J60" s="3">
+        <v>1360500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1843300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2001700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1878700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1941900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1272100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>828100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>977000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>901300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1110800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>870100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>582600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10223900</v>
+        <v>10710400</v>
       </c>
       <c r="E61" s="3">
-        <v>9905200</v>
+        <v>10411600</v>
       </c>
       <c r="F61" s="3">
-        <v>9574800</v>
+        <v>10087000</v>
       </c>
       <c r="G61" s="3">
-        <v>9783200</v>
+        <v>9750600</v>
       </c>
       <c r="H61" s="3">
-        <v>9823200</v>
+        <v>9962800</v>
       </c>
       <c r="I61" s="3">
-        <v>9688700</v>
+        <v>10003500</v>
       </c>
       <c r="J61" s="3">
+        <v>9866600</v>
+      </c>
+      <c r="K61" s="3">
         <v>7908300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8577000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8441800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7926400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5858100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5179500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5130100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5150900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4721800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5214600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4839900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2395700</v>
+        <v>2515700</v>
       </c>
       <c r="E62" s="3">
-        <v>2473300</v>
+        <v>2439700</v>
       </c>
       <c r="F62" s="3">
-        <v>2496900</v>
+        <v>2518700</v>
       </c>
       <c r="G62" s="3">
-        <v>2512000</v>
+        <v>2542700</v>
       </c>
       <c r="H62" s="3">
-        <v>2560300</v>
+        <v>2558200</v>
       </c>
       <c r="I62" s="3">
-        <v>2586700</v>
+        <v>2607300</v>
       </c>
       <c r="J62" s="3">
+        <v>2634200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2518400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2668800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2789000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2584600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2504800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2082700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2153500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2057100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2030700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2015400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1989000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17266400</v>
+        <v>17968600</v>
       </c>
       <c r="E66" s="3">
-        <v>16818000</v>
+        <v>17583400</v>
       </c>
       <c r="F66" s="3">
-        <v>16759400</v>
+        <v>17126800</v>
       </c>
       <c r="G66" s="3">
-        <v>16622800</v>
+        <v>17067200</v>
       </c>
       <c r="H66" s="3">
-        <v>16383400</v>
+        <v>16928000</v>
       </c>
       <c r="I66" s="3">
-        <v>16028000</v>
+        <v>16684200</v>
       </c>
       <c r="J66" s="3">
+        <v>16322300</v>
+      </c>
+      <c r="K66" s="3">
         <v>14758900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15645500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15596000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13841000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10681500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9133300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9323800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9171200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8963000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9245200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8575900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,64 +4001,70 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>253500</v>
+      </c>
+      <c r="E70" s="3">
+        <v>253500</v>
+      </c>
+      <c r="F70" s="3">
+        <v>253500</v>
+      </c>
+      <c r="G70" s="3">
+        <v>253500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>253500</v>
+      </c>
+      <c r="I70" s="3">
+        <v>253500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>253500</v>
+      </c>
+      <c r="K70" s="3">
         <v>248900</v>
       </c>
-      <c r="E70" s="3">
-        <v>248900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>248900</v>
-      </c>
-      <c r="G70" s="3">
-        <v>248900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>248900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>248900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>248900</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>248800</v>
-      </c>
-      <c r="L70" s="3">
-        <v>254800</v>
       </c>
       <c r="M70" s="3">
         <v>254800</v>
       </c>
       <c r="N70" s="3">
+        <v>254800</v>
+      </c>
+      <c r="O70" s="3">
         <v>245400</v>
-      </c>
-      <c r="O70" s="3">
-        <v>240400</v>
       </c>
       <c r="P70" s="3">
         <v>240400</v>
       </c>
       <c r="Q70" s="3">
-        <v>234800</v>
+        <v>240400</v>
       </c>
       <c r="R70" s="3">
         <v>234800</v>
       </c>
       <c r="S70" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="T70" s="3">
         <v>236400</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>236400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1534700</v>
+        <v>-1910200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1088000</v>
+        <v>-1562900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1347900</v>
+        <v>-1108000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1075800</v>
+        <v>-1372700</v>
       </c>
       <c r="H72" s="3">
-        <v>-642100</v>
+        <v>-1095500</v>
       </c>
       <c r="I72" s="3">
-        <v>-426700</v>
+        <v>-653900</v>
       </c>
       <c r="J72" s="3">
+        <v>-434500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-389600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-464400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-284500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>60900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-472900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-421800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-664000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-467600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-593700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-640500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6755000</v>
+        <v>6513200</v>
       </c>
       <c r="E76" s="3">
-        <v>7147200</v>
+        <v>6879000</v>
       </c>
       <c r="F76" s="3">
-        <v>6801200</v>
+        <v>7278400</v>
       </c>
       <c r="G76" s="3">
-        <v>6972600</v>
+        <v>6926100</v>
       </c>
       <c r="H76" s="3">
-        <v>7326300</v>
+        <v>7100700</v>
       </c>
       <c r="I76" s="3">
-        <v>7589800</v>
+        <v>7460800</v>
       </c>
       <c r="J76" s="3">
+        <v>7729100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7664800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6649200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6899700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7040300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6684700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5939800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5029500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4479200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4701300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4138200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4057800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-344800</v>
+        <v>-243000</v>
       </c>
       <c r="E81" s="3">
-        <v>362100</v>
+        <v>-351200</v>
       </c>
       <c r="F81" s="3">
-        <v>-103300</v>
+        <v>368700</v>
       </c>
       <c r="G81" s="3">
-        <v>-266600</v>
+        <v>-105200</v>
       </c>
       <c r="H81" s="3">
-        <v>-48100</v>
+        <v>-271500</v>
       </c>
       <c r="I81" s="3">
-        <v>119900</v>
+        <v>-49000</v>
       </c>
       <c r="J81" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K81" s="3">
         <v>234200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-40800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>139600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>668600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>70100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>370700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-84000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>216500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>145700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>198200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>160000</v>
+        <v>144100</v>
       </c>
       <c r="E83" s="3">
-        <v>164300</v>
+        <v>162900</v>
       </c>
       <c r="F83" s="3">
-        <v>155100</v>
+        <v>167300</v>
       </c>
       <c r="G83" s="3">
-        <v>146200</v>
+        <v>157900</v>
       </c>
       <c r="H83" s="3">
-        <v>152000</v>
+        <v>148800</v>
       </c>
       <c r="I83" s="3">
-        <v>162000</v>
+        <v>154800</v>
       </c>
       <c r="J83" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K83" s="3">
         <v>149700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>130300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>135700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>134700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>117300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>93300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>98700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>98900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>84400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>351800</v>
+        <v>182400</v>
       </c>
       <c r="E89" s="3">
-        <v>46200</v>
+        <v>358300</v>
       </c>
       <c r="F89" s="3">
-        <v>289900</v>
+        <v>47100</v>
       </c>
       <c r="G89" s="3">
-        <v>-41100</v>
+        <v>295200</v>
       </c>
       <c r="H89" s="3">
-        <v>362900</v>
+        <v>-41800</v>
       </c>
       <c r="I89" s="3">
-        <v>224500</v>
+        <v>369500</v>
       </c>
       <c r="J89" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K89" s="3">
         <v>170900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>231100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>142800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-336700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>231700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>158400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>186400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>85200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>213300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>241200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-279100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-245200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-169700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-191800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-188600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-380800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-327700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-293900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-348100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-563800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-408400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-347700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-238300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-243100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-198600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-226800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-244000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-135500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-371900</v>
+        <v>-474100</v>
       </c>
       <c r="E94" s="3">
-        <v>-296100</v>
+        <v>-378800</v>
       </c>
       <c r="F94" s="3">
-        <v>-204200</v>
+        <v>-301500</v>
       </c>
       <c r="G94" s="3">
-        <v>-255800</v>
+        <v>-208000</v>
       </c>
       <c r="H94" s="3">
-        <v>-594600</v>
+        <v>-260500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1361000</v>
+        <v>-605500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1386000</v>
+      </c>
+      <c r="K94" s="3">
         <v>95900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-640000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-879800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1049100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-636300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-398100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-311700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-264900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-471200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-412700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-102000</v>
+        <v>-104000</v>
       </c>
       <c r="E96" s="3">
+        <v>-103800</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-131900</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-129800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-129500</v>
       </c>
-      <c r="F96" s="3">
-        <v>-130600</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-127500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-127200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-126100</v>
-      </c>
       <c r="J96" s="3">
+        <v>-128400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-113700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-110900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-97900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-96800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-89700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-83300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-85100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-73000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-67000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-66100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>51700</v>
+        <v>288700</v>
       </c>
       <c r="E100" s="3">
-        <v>257000</v>
+        <v>52600</v>
       </c>
       <c r="F100" s="3">
-        <v>-164300</v>
+        <v>261700</v>
       </c>
       <c r="G100" s="3">
-        <v>337800</v>
+        <v>-167300</v>
       </c>
       <c r="H100" s="3">
-        <v>240300</v>
+        <v>344000</v>
       </c>
       <c r="I100" s="3">
-        <v>1085700</v>
+        <v>244800</v>
       </c>
       <c r="J100" s="3">
+        <v>1105600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-348500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>387500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>830600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1443400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>120500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>572600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>358300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-132000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>566100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
-        <v>2900</v>
-      </c>
       <c r="G101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32000</v>
+        <v>-5900</v>
       </c>
       <c r="E102" s="3">
-        <v>7800</v>
+        <v>32600</v>
       </c>
       <c r="F102" s="3">
-        <v>-75700</v>
+        <v>7900</v>
       </c>
       <c r="G102" s="3">
-        <v>39100</v>
+        <v>-77100</v>
       </c>
       <c r="H102" s="3">
-        <v>5300</v>
+        <v>39800</v>
       </c>
       <c r="I102" s="3">
-        <v>-50000</v>
+        <v>5400</v>
       </c>
       <c r="J102" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-83000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>94300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>57700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-286300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>338000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-178900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>172800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-389000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>394100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24200</v>
       </c>
     </row>
